--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['18', '20']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1345,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1829,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2163,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2369,7 +2375,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2575,7 +2581,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2653,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2862,7 +2868,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3193,7 +3199,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3274,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3399,7 +3405,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3605,7 +3611,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3811,7 +3817,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4017,7 +4023,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4223,7 +4229,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4635,7 +4641,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4841,7 +4847,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4922,7 +4928,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5047,7 +5053,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5128,7 +5134,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5331,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5459,7 +5465,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5537,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ22">
         <v>0.67</v>
@@ -5665,7 +5671,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6570,7 +6576,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -6773,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ28">
         <v>0.57</v>
@@ -7107,7 +7113,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7313,7 +7319,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7519,7 +7525,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7725,7 +7731,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7931,7 +7937,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8137,7 +8143,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8218,7 +8224,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8343,7 +8349,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8549,7 +8555,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8627,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -9167,7 +9173,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9373,7 +9379,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9579,7 +9585,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9660,7 +9666,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -9863,7 +9869,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10609,7 +10615,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10687,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>0.13</v>
@@ -10896,7 +10902,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -11021,7 +11027,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11305,7 +11311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11926,7 +11932,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12051,7 +12057,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12257,7 +12263,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12669,7 +12675,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12875,7 +12881,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13081,7 +13087,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13159,7 +13165,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13287,7 +13293,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13365,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -13699,7 +13705,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13780,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14189,7 +14195,7 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14604,7 +14610,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14729,7 +14735,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15141,7 +15147,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15222,7 +15228,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15347,7 +15353,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15553,7 +15559,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15759,7 +15765,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15837,10 +15843,10 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -15965,7 +15971,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16377,7 +16383,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16583,7 +16589,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16661,7 +16667,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -16789,7 +16795,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17201,7 +17207,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17613,7 +17619,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18025,7 +18031,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18312,7 +18318,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ84">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18643,7 +18649,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18721,10 +18727,10 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19339,7 +19345,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19467,7 +19473,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19673,7 +19679,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19879,7 +19885,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20085,7 +20091,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20369,7 +20375,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ94">
         <v>1.25</v>
@@ -20497,7 +20503,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20578,7 +20584,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20990,7 +20996,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21193,7 +21199,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -21733,7 +21739,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21814,7 +21820,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ101">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22351,7 +22357,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22638,7 +22644,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -22763,7 +22769,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22969,7 +22975,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23175,7 +23181,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23587,7 +23593,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23665,7 +23671,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110">
         <v>1.78</v>
@@ -23793,7 +23799,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23871,7 +23877,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
         <v>1.13</v>
@@ -23999,7 +24005,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24205,7 +24211,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24283,7 +24289,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
         <v>1.5</v>
@@ -24617,7 +24623,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24698,7 +24704,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ115">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -25029,7 +25035,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25110,7 +25116,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25853,7 +25859,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26059,7 +26065,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26677,7 +26683,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26883,7 +26889,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -26964,7 +26970,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27295,7 +27301,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27452,6 +27458,624 @@
       </c>
       <c r="BP128">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7486480</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45617.625</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>74</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>169</v>
+      </c>
+      <c r="P129" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q129">
+        <v>4.33</v>
+      </c>
+      <c r="R129">
+        <v>2.15</v>
+      </c>
+      <c r="S129">
+        <v>2.35</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>2.65</v>
+      </c>
+      <c r="W129">
+        <v>1.43</v>
+      </c>
+      <c r="X129">
+        <v>6.65</v>
+      </c>
+      <c r="Y129">
+        <v>1.09</v>
+      </c>
+      <c r="Z129">
+        <v>4.75</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.75</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.6</v>
+      </c>
+      <c r="AG129">
+        <v>2.1</v>
+      </c>
+      <c r="AH129">
+        <v>1.65</v>
+      </c>
+      <c r="AI129">
+        <v>1.75</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.95</v>
+      </c>
+      <c r="AL129">
+        <v>1.22</v>
+      </c>
+      <c r="AM129">
+        <v>1.17</v>
+      </c>
+      <c r="AN129">
+        <v>1.17</v>
+      </c>
+      <c r="AO129">
+        <v>1.71</v>
+      </c>
+      <c r="AP129">
+        <v>1.43</v>
+      </c>
+      <c r="AQ129">
+        <v>1.5</v>
+      </c>
+      <c r="AR129">
+        <v>1.77</v>
+      </c>
+      <c r="AS129">
+        <v>1.34</v>
+      </c>
+      <c r="AT129">
+        <v>3.11</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>6</v>
+      </c>
+      <c r="AX129">
+        <v>8</v>
+      </c>
+      <c r="AY129">
+        <v>14</v>
+      </c>
+      <c r="AZ129">
+        <v>19</v>
+      </c>
+      <c r="BA129">
+        <v>3</v>
+      </c>
+      <c r="BB129">
+        <v>8</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>2.39</v>
+      </c>
+      <c r="BE129">
+        <v>8</v>
+      </c>
+      <c r="BF129">
+        <v>1.82</v>
+      </c>
+      <c r="BG129">
+        <v>1.24</v>
+      </c>
+      <c r="BH129">
+        <v>3.48</v>
+      </c>
+      <c r="BI129">
+        <v>1.44</v>
+      </c>
+      <c r="BJ129">
+        <v>2.5</v>
+      </c>
+      <c r="BK129">
+        <v>1.8</v>
+      </c>
+      <c r="BL129">
+        <v>1.9</v>
+      </c>
+      <c r="BM129">
+        <v>2.28</v>
+      </c>
+      <c r="BN129">
+        <v>1.53</v>
+      </c>
+      <c r="BO129">
+        <v>3.08</v>
+      </c>
+      <c r="BP129">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7486629</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45618.52083333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>72</v>
+      </c>
+      <c r="H130" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>170</v>
+      </c>
+      <c r="P130" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q130">
+        <v>2.25</v>
+      </c>
+      <c r="R130">
+        <v>2.2</v>
+      </c>
+      <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3.25</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>1.6</v>
+      </c>
+      <c r="AA130">
+        <v>3.75</v>
+      </c>
+      <c r="AB130">
+        <v>6</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>6.45</v>
+      </c>
+      <c r="AE130">
+        <v>1.34</v>
+      </c>
+      <c r="AF130">
+        <v>2.69</v>
+      </c>
+      <c r="AG130">
+        <v>1.98</v>
+      </c>
+      <c r="AH130">
+        <v>1.79</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.73</v>
+      </c>
+      <c r="AK130">
+        <v>1.14</v>
+      </c>
+      <c r="AL130">
+        <v>1.27</v>
+      </c>
+      <c r="AM130">
+        <v>2.14</v>
+      </c>
+      <c r="AN130">
+        <v>1.38</v>
+      </c>
+      <c r="AO130">
+        <v>0.63</v>
+      </c>
+      <c r="AP130">
+        <v>1.56</v>
+      </c>
+      <c r="AQ130">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR130">
+        <v>1.47</v>
+      </c>
+      <c r="AS130">
+        <v>1.11</v>
+      </c>
+      <c r="AT130">
+        <v>2.58</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>7</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>15</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>1.37</v>
+      </c>
+      <c r="BE130">
+        <v>9</v>
+      </c>
+      <c r="BF130">
+        <v>3.78</v>
+      </c>
+      <c r="BG130">
+        <v>1.32</v>
+      </c>
+      <c r="BH130">
+        <v>2.78</v>
+      </c>
+      <c r="BI130">
+        <v>1.62</v>
+      </c>
+      <c r="BJ130">
+        <v>2.06</v>
+      </c>
+      <c r="BK130">
+        <v>2.11</v>
+      </c>
+      <c r="BL130">
+        <v>1.65</v>
+      </c>
+      <c r="BM130">
+        <v>2.74</v>
+      </c>
+      <c r="BN130">
+        <v>1.35</v>
+      </c>
+      <c r="BO130">
+        <v>3.75</v>
+      </c>
+      <c r="BP130">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7486635</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45618.64583333334</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>85</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>86</v>
+      </c>
+      <c r="P131" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q131">
+        <v>3.2</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>3.75</v>
+      </c>
+      <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3.5</v>
+      </c>
+      <c r="W131">
+        <v>1.29</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.3</v>
+      </c>
+      <c r="AA131">
+        <v>3.1</v>
+      </c>
+      <c r="AB131">
+        <v>3.2</v>
+      </c>
+      <c r="AC131">
+        <v>1.03</v>
+      </c>
+      <c r="AD131">
+        <v>6.95</v>
+      </c>
+      <c r="AE131">
+        <v>1.41</v>
+      </c>
+      <c r="AF131">
+        <v>2.45</v>
+      </c>
+      <c r="AG131">
+        <v>2.4</v>
+      </c>
+      <c r="AH131">
+        <v>1.54</v>
+      </c>
+      <c r="AI131">
+        <v>2</v>
+      </c>
+      <c r="AJ131">
+        <v>1.73</v>
+      </c>
+      <c r="AK131">
+        <v>1.35</v>
+      </c>
+      <c r="AL131">
+        <v>1.34</v>
+      </c>
+      <c r="AM131">
+        <v>1.56</v>
+      </c>
+      <c r="AN131">
+        <v>1.63</v>
+      </c>
+      <c r="AO131">
+        <v>1.25</v>
+      </c>
+      <c r="AP131">
+        <v>1.44</v>
+      </c>
+      <c r="AQ131">
+        <v>1.44</v>
+      </c>
+      <c r="AR131">
+        <v>1.58</v>
+      </c>
+      <c r="AS131">
+        <v>1.29</v>
+      </c>
+      <c r="AT131">
+        <v>2.87</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AV131">
+        <v>8</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>20</v>
+      </c>
+      <c r="BA131">
+        <v>4</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>2.02</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>2.06</v>
+      </c>
+      <c r="BG131">
+        <v>1.3</v>
+      </c>
+      <c r="BH131">
+        <v>2.88</v>
+      </c>
+      <c r="BI131">
+        <v>1.58</v>
+      </c>
+      <c r="BJ131">
+        <v>2.12</v>
+      </c>
+      <c r="BK131">
+        <v>2.03</v>
+      </c>
+      <c r="BL131">
+        <v>1.7</v>
+      </c>
+      <c r="BM131">
+        <v>2.62</v>
+      </c>
+      <c r="BN131">
+        <v>1.38</v>
+      </c>
+      <c r="BO131">
+        <v>3.6</v>
+      </c>
+      <c r="BP131">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,12 @@
     <t>['18', '20']</t>
   </si>
   <si>
+    <t>['3', '62']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
   </si>
   <si>
     <t>['30', '51']</t>
+  </si>
+  <si>
+    <t>['90']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1354,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1629,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2044,7 +2053,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2169,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2250,7 +2259,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2375,7 +2384,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2453,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2581,7 +2590,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3199,7 +3208,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3405,7 +3414,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3611,7 +3620,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3817,7 +3826,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4023,7 +4032,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4229,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4641,7 +4650,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4719,7 +4728,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -4847,7 +4856,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5053,7 +5062,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5465,7 +5474,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5671,7 +5680,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5749,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>1.13</v>
@@ -5958,7 +5967,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -6164,7 +6173,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -7113,7 +7122,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7191,10 +7200,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -7319,7 +7328,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7525,7 +7534,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7731,7 +7740,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7937,7 +7946,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8015,7 +8024,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8143,7 +8152,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8349,7 +8358,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8430,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8555,7 +8564,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8839,7 +8848,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1.25</v>
@@ -9048,7 +9057,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -9173,7 +9182,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9379,7 +9388,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9585,7 +9594,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10615,7 +10624,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11027,7 +11036,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11108,7 +11117,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11723,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -11929,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>1.5</v>
@@ -12057,7 +12066,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12138,7 +12147,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -12263,7 +12272,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12675,7 +12684,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12753,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>0.57</v>
@@ -12881,7 +12890,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -12962,7 +12971,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13087,7 +13096,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13293,7 +13302,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13705,7 +13714,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14735,7 +14744,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15147,7 +15156,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15225,7 +15234,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15353,7 +15362,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15559,7 +15568,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15640,7 +15649,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ71">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -15765,7 +15774,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15971,7 +15980,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16255,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>1.86</v>
@@ -16383,7 +16392,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16589,7 +16598,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16795,7 +16804,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17207,7 +17216,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17288,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -17619,7 +17628,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17906,7 +17915,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ82">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -18031,7 +18040,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18109,7 +18118,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>0.75</v>
@@ -18649,7 +18658,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19473,7 +19482,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19554,7 +19563,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -19679,7 +19688,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19757,7 +19766,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>0.57</v>
@@ -19885,7 +19894,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20091,7 +20100,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20169,7 +20178,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
         <v>1.38</v>
@@ -20378,7 +20387,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20503,7 +20512,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21739,7 +21748,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22357,7 +22366,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22435,7 +22444,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>1.38</v>
@@ -22769,7 +22778,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22975,7 +22984,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23053,7 +23062,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
         <v>1</v>
@@ -23181,7 +23190,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23468,7 +23477,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -23593,7 +23602,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23674,7 +23683,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ110">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR110">
         <v>1.9</v>
@@ -23799,7 +23808,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24005,7 +24014,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24211,7 +24220,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24623,7 +24632,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25035,7 +25044,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25859,7 +25868,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26065,7 +26074,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26683,7 +26692,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26889,7 +26898,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27301,7 +27310,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27671,7 +27680,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7486629</v>
+        <v>7486635</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27680,94 +27689,94 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45618.52083333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F130">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
       <c r="Q130">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="R130">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S130">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T130">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U130">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W130">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y130">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z130">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA130">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AB130">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD130">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="AE130">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AF130">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="AG130">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AH130">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AI130">
         <v>2</v>
@@ -27776,100 +27785,100 @@
         <v>1.73</v>
       </c>
       <c r="AK130">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AL130">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM130">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="AN130">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AO130">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="AR130">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS130">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AT130">
-        <v>2.58</v>
+        <v>2.87</v>
       </c>
       <c r="AU130">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW130">
         <v>4</v>
       </c>
       <c r="AX130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY130">
         <v>10</v>
       </c>
       <c r="AZ130">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD130">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="BE130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF130">
-        <v>3.78</v>
+        <v>2.06</v>
       </c>
       <c r="BG130">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH130">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="BI130">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ130">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="BK130">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="BL130">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BM130">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="BN130">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BO130">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="BP130">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27877,7 +27886,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7486635</v>
+        <v>7486629</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27886,94 +27895,94 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45618.64583333334</v>
+        <v>45617.875</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O131" t="s">
+        <v>170</v>
+      </c>
+      <c r="P131" t="s">
         <v>86</v>
       </c>
-      <c r="P131" t="s">
-        <v>200</v>
-      </c>
       <c r="Q131">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S131">
+        <v>6</v>
+      </c>
+      <c r="T131">
+        <v>1.44</v>
+      </c>
+      <c r="U131">
+        <v>2.63</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>9</v>
+      </c>
+      <c r="Y131">
+        <v>1.07</v>
+      </c>
+      <c r="Z131">
+        <v>1.6</v>
+      </c>
+      <c r="AA131">
         <v>3.75</v>
       </c>
-      <c r="T131">
-        <v>1.5</v>
-      </c>
-      <c r="U131">
-        <v>2.5</v>
-      </c>
-      <c r="V131">
-        <v>3.5</v>
-      </c>
-      <c r="W131">
-        <v>1.29</v>
-      </c>
-      <c r="X131">
-        <v>10</v>
-      </c>
-      <c r="Y131">
-        <v>1.06</v>
-      </c>
-      <c r="Z131">
-        <v>2.3</v>
-      </c>
-      <c r="AA131">
-        <v>3.1</v>
-      </c>
       <c r="AB131">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AC131">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD131">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="AE131">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AF131">
-        <v>2.45</v>
+        <v>2.69</v>
       </c>
       <c r="AG131">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="AH131">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="AI131">
         <v>2</v>
@@ -27982,100 +27991,512 @@
         <v>1.73</v>
       </c>
       <c r="AK131">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AL131">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM131">
+        <v>2.14</v>
+      </c>
+      <c r="AN131">
+        <v>1.38</v>
+      </c>
+      <c r="AO131">
+        <v>0.63</v>
+      </c>
+      <c r="AP131">
         <v>1.56</v>
       </c>
-      <c r="AN131">
-        <v>1.63</v>
-      </c>
-      <c r="AO131">
-        <v>1.25</v>
-      </c>
-      <c r="AP131">
-        <v>1.44</v>
-      </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR131">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS131">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AT131">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="AU131">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV131">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW131">
         <v>4</v>
       </c>
       <c r="AX131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY131">
         <v>10</v>
       </c>
       <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.37</v>
+      </c>
+      <c r="BE131">
+        <v>9</v>
+      </c>
+      <c r="BF131">
+        <v>3.78</v>
+      </c>
+      <c r="BG131">
+        <v>1.32</v>
+      </c>
+      <c r="BH131">
+        <v>2.78</v>
+      </c>
+      <c r="BI131">
+        <v>1.62</v>
+      </c>
+      <c r="BJ131">
+        <v>2.06</v>
+      </c>
+      <c r="BK131">
+        <v>2.11</v>
+      </c>
+      <c r="BL131">
+        <v>1.65</v>
+      </c>
+      <c r="BM131">
+        <v>2.74</v>
+      </c>
+      <c r="BN131">
+        <v>1.35</v>
+      </c>
+      <c r="BO131">
+        <v>3.75</v>
+      </c>
+      <c r="BP131">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7486633</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45619.5</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>171</v>
+      </c>
+      <c r="P132" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q132">
+        <v>4.33</v>
+      </c>
+      <c r="R132">
+        <v>1.91</v>
+      </c>
+      <c r="S132">
+        <v>3</v>
+      </c>
+      <c r="T132">
+        <v>1.57</v>
+      </c>
+      <c r="U132">
+        <v>2.25</v>
+      </c>
+      <c r="V132">
+        <v>3.75</v>
+      </c>
+      <c r="W132">
+        <v>1.25</v>
+      </c>
+      <c r="X132">
+        <v>13</v>
+      </c>
+      <c r="Y132">
+        <v>1.04</v>
+      </c>
+      <c r="Z132">
+        <v>2.27</v>
+      </c>
+      <c r="AA132">
+        <v>2.11</v>
+      </c>
+      <c r="AB132">
+        <v>5.13</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>6.1</v>
+      </c>
+      <c r="AE132">
+        <v>1.5</v>
+      </c>
+      <c r="AF132">
+        <v>2.45</v>
+      </c>
+      <c r="AG132">
+        <v>2.55</v>
+      </c>
+      <c r="AH132">
+        <v>1.45</v>
+      </c>
+      <c r="AI132">
+        <v>2.1</v>
+      </c>
+      <c r="AJ132">
+        <v>1.67</v>
+      </c>
+      <c r="AK132">
+        <v>1.66</v>
+      </c>
+      <c r="AL132">
+        <v>1.33</v>
+      </c>
+      <c r="AM132">
+        <v>1.28</v>
+      </c>
+      <c r="AN132">
+        <v>1.5</v>
+      </c>
+      <c r="AO132">
+        <v>1.78</v>
+      </c>
+      <c r="AP132">
+        <v>1.67</v>
+      </c>
+      <c r="AQ132">
+        <v>1.6</v>
+      </c>
+      <c r="AR132">
+        <v>1.25</v>
+      </c>
+      <c r="AS132">
+        <v>1.29</v>
+      </c>
+      <c r="AT132">
+        <v>2.54</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>2</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>9</v>
+      </c>
+      <c r="AZ132">
         <v>20</v>
       </c>
-      <c r="BA131">
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>1.68</v>
+      </c>
+      <c r="BJ132">
+        <v>2.14</v>
+      </c>
+      <c r="BK132">
+        <v>2.12</v>
+      </c>
+      <c r="BL132">
+        <v>1.7</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7486631</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45619.6875</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>172</v>
+      </c>
+      <c r="P133" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q133">
+        <v>2.88</v>
+      </c>
+      <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
         <v>4</v>
       </c>
-      <c r="BB131">
-        <v>6</v>
-      </c>
-      <c r="BC131">
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
         <v>10</v>
       </c>
-      <c r="BD131">
-        <v>2.02</v>
-      </c>
-      <c r="BE131">
-        <v>8</v>
-      </c>
-      <c r="BF131">
-        <v>2.06</v>
-      </c>
-      <c r="BG131">
-        <v>1.3</v>
-      </c>
-      <c r="BH131">
-        <v>2.88</v>
-      </c>
-      <c r="BI131">
-        <v>1.58</v>
-      </c>
-      <c r="BJ131">
-        <v>2.12</v>
-      </c>
-      <c r="BK131">
-        <v>2.03</v>
-      </c>
-      <c r="BL131">
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.13</v>
+      </c>
+      <c r="AA133">
+        <v>3.15</v>
+      </c>
+      <c r="AB133">
+        <v>3.15</v>
+      </c>
+      <c r="AC133">
+        <v>1</v>
+      </c>
+      <c r="AD133">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE133">
+        <v>1.29</v>
+      </c>
+      <c r="AF133">
+        <v>2.92</v>
+      </c>
+      <c r="AG133">
+        <v>2.2</v>
+      </c>
+      <c r="AH133">
+        <v>1.63</v>
+      </c>
+      <c r="AI133">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.28</v>
+      </c>
+      <c r="AL133">
+        <v>1.32</v>
+      </c>
+      <c r="AM133">
         <v>1.7</v>
       </c>
-      <c r="BM131">
-        <v>2.62</v>
-      </c>
-      <c r="BN131">
-        <v>1.38</v>
-      </c>
-      <c r="BO131">
-        <v>3.6</v>
-      </c>
-      <c r="BP131">
-        <v>1.19</v>
+      <c r="AN133">
+        <v>1.56</v>
+      </c>
+      <c r="AO133">
+        <v>1.25</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.22</v>
+      </c>
+      <c r="AR133">
+        <v>1.85</v>
+      </c>
+      <c r="AS133">
+        <v>1.44</v>
+      </c>
+      <c r="AT133">
+        <v>3.29</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>15</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>7</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>14</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.62</v>
+      </c>
+      <c r="BJ133">
+        <v>2.27</v>
+      </c>
+      <c r="BK133">
+        <v>2.04</v>
+      </c>
+      <c r="BL133">
+        <v>1.75</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,10 +529,16 @@
     <t>['18', '20']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['3', '62']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['27', '45+2', '71']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -626,9 +632,6 @@
   </si>
   <si>
     <t>['45+3', '82']</t>
-  </si>
-  <si>
-    <t>['18']</t>
   </si>
   <si>
     <t>['90+4', '90+6']</t>
@@ -734,6 +737,12 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['68', '82']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1363,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1435,7 +1444,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1641,7 +1650,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1847,7 +1856,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2050,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1.22</v>
@@ -2178,7 +2187,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2256,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2384,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2465,7 +2474,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2590,7 +2599,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2668,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -2874,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
         <v>0.5600000000000001</v>
@@ -3208,7 +3217,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3414,7 +3423,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3620,7 +3629,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3826,7 +3835,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4032,7 +4041,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4238,7 +4247,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4650,7 +4659,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4731,7 +4740,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4856,7 +4865,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4934,7 +4943,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5062,7 +5071,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5349,7 +5358,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5474,7 +5483,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5680,7 +5689,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5761,7 +5770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -5964,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -6170,7 +6179,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>1.22</v>
@@ -6791,7 +6800,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7122,7 +7131,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7328,7 +7337,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7534,7 +7543,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7740,7 +7749,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7818,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>0.88</v>
@@ -7946,7 +7955,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8152,7 +8161,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8230,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1.44</v>
@@ -8358,7 +8367,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8564,7 +8573,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8645,7 +8654,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8851,7 +8860,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9054,7 +9063,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9182,7 +9191,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9263,7 +9272,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9388,7 +9397,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9594,7 +9603,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9878,7 +9887,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -10084,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10293,7 +10302,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10624,7 +10633,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10908,7 +10917,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ48">
         <v>1.44</v>
@@ -11036,7 +11045,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11323,7 +11332,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -11529,7 +11538,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12066,7 +12075,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12272,7 +12281,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12350,7 +12359,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12684,7 +12693,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12765,7 +12774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -12890,7 +12899,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.7</v>
@@ -13096,7 +13105,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13174,7 +13183,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13302,7 +13311,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13586,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -13714,7 +13723,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14001,7 +14010,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14413,7 +14422,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14744,7 +14753,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14822,7 +14831,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15031,7 +15040,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15156,7 +15165,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15362,7 +15371,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15440,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>0.13</v>
@@ -15568,7 +15577,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15774,7 +15783,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15852,7 +15861,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
         <v>0.5600000000000001</v>
@@ -15980,7 +15989,7 @@
         <v>121</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="Q73">
         <v>2.95</v>
@@ -16061,7 +16070,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16392,7 +16401,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16470,7 +16479,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16598,7 +16607,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16804,7 +16813,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16885,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -17088,10 +17097,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17216,7 +17225,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17500,7 +17509,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>0.13</v>
@@ -17628,7 +17637,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18040,7 +18049,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18658,7 +18667,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18945,7 +18954,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19148,7 +19157,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>1.5</v>
@@ -19357,7 +19366,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR89">
         <v>1.6</v>
@@ -19482,7 +19491,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19688,7 +19697,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19769,7 +19778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19894,7 +19903,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -19975,7 +19984,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ92">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20100,7 +20109,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20384,7 +20393,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
         <v>1.22</v>
@@ -20512,7 +20521,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20590,7 +20599,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -21414,7 +21423,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>1.86</v>
@@ -21748,7 +21757,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22035,7 +22044,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22366,7 +22375,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22650,7 +22659,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>0.5600000000000001</v>
@@ -22778,7 +22787,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22856,10 +22865,10 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -22984,7 +22993,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23065,7 +23074,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23190,7 +23199,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23271,7 +23280,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ108">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23474,7 +23483,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
         <v>1.22</v>
@@ -23602,7 +23611,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23680,7 +23689,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -23808,7 +23817,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23889,7 +23898,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24014,7 +24023,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24220,7 +24229,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24632,7 +24641,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25044,7 +25053,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25868,7 +25877,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26074,7 +26083,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26692,7 +26701,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26898,7 +26907,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27310,7 +27319,7 @@
         <v>86</v>
       </c>
       <c r="P128" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27594,7 +27603,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27680,7 +27689,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7486635</v>
+        <v>7486629</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27692,91 +27701,91 @@
         <v>45617.875</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
+        <v>170</v>
+      </c>
+      <c r="P130" t="s">
         <v>86</v>
       </c>
-      <c r="P130" t="s">
-        <v>202</v>
-      </c>
       <c r="Q130">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="R130">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S130">
+        <v>6</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3.25</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>1.6</v>
+      </c>
+      <c r="AA130">
         <v>3.75</v>
       </c>
-      <c r="T130">
-        <v>1.5</v>
-      </c>
-      <c r="U130">
-        <v>2.5</v>
-      </c>
-      <c r="V130">
-        <v>3.5</v>
-      </c>
-      <c r="W130">
-        <v>1.29</v>
-      </c>
-      <c r="X130">
-        <v>10</v>
-      </c>
-      <c r="Y130">
-        <v>1.06</v>
-      </c>
-      <c r="Z130">
-        <v>2.3</v>
-      </c>
-      <c r="AA130">
-        <v>3.1</v>
-      </c>
       <c r="AB130">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AC130">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD130">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="AE130">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AF130">
-        <v>2.45</v>
+        <v>2.69</v>
       </c>
       <c r="AG130">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="AH130">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="AI130">
         <v>2</v>
@@ -27785,100 +27794,100 @@
         <v>1.73</v>
       </c>
       <c r="AK130">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AL130">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM130">
+        <v>2.14</v>
+      </c>
+      <c r="AN130">
+        <v>1.38</v>
+      </c>
+      <c r="AO130">
+        <v>0.63</v>
+      </c>
+      <c r="AP130">
         <v>1.56</v>
       </c>
-      <c r="AN130">
-        <v>1.63</v>
-      </c>
-      <c r="AO130">
-        <v>1.25</v>
-      </c>
-      <c r="AP130">
-        <v>1.44</v>
-      </c>
       <c r="AQ130">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR130">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS130">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AT130">
-        <v>2.87</v>
+        <v>2.58</v>
       </c>
       <c r="AU130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW130">
         <v>4</v>
       </c>
       <c r="AX130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY130">
         <v>10</v>
       </c>
       <c r="AZ130">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
         <v>4</v>
       </c>
-      <c r="BB130">
-        <v>6</v>
-      </c>
       <c r="BC130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD130">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="BE130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF130">
+        <v>3.78</v>
+      </c>
+      <c r="BG130">
+        <v>1.32</v>
+      </c>
+      <c r="BH130">
+        <v>2.78</v>
+      </c>
+      <c r="BI130">
+        <v>1.62</v>
+      </c>
+      <c r="BJ130">
         <v>2.06</v>
       </c>
-      <c r="BG130">
-        <v>1.3</v>
-      </c>
-      <c r="BH130">
-        <v>2.88</v>
-      </c>
-      <c r="BI130">
-        <v>1.58</v>
-      </c>
-      <c r="BJ130">
-        <v>2.12</v>
-      </c>
       <c r="BK130">
-        <v>2.03</v>
+        <v>2.11</v>
       </c>
       <c r="BL130">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="BM130">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="BN130">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BO130">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="BP130">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27886,7 +27895,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7486629</v>
+        <v>7486635</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27898,91 +27907,91 @@
         <v>45617.875</v>
       </c>
       <c r="F131">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H131" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="Q131">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="R131">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="T131">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U131">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="W131">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y131">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z131">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="AA131">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AB131">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="AC131">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD131">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="AE131">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AF131">
-        <v>2.69</v>
+        <v>2.45</v>
       </c>
       <c r="AG131">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="AH131">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AI131">
         <v>2</v>
@@ -27991,100 +28000,100 @@
         <v>1.73</v>
       </c>
       <c r="AK131">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AL131">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM131">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="AN131">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AO131">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>0.5600000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS131">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AT131">
-        <v>2.58</v>
+        <v>2.87</v>
       </c>
       <c r="AU131">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV131">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW131">
         <v>4</v>
       </c>
       <c r="AX131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY131">
         <v>10</v>
       </c>
       <c r="AZ131">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB131">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD131">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="BE131">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF131">
-        <v>3.78</v>
+        <v>2.06</v>
       </c>
       <c r="BG131">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH131">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="BI131">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ131">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="BK131">
-        <v>2.11</v>
+        <v>2.03</v>
       </c>
       <c r="BL131">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="BM131">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="BN131">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BO131">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="BP131">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28092,7 +28101,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7486633</v>
+        <v>7486631</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28101,184 +28110,184 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45619.5</v>
+        <v>45618.875</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="Q132">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R132">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.13</v>
+      </c>
+      <c r="AA132">
+        <v>3.15</v>
+      </c>
+      <c r="AB132">
+        <v>3.15</v>
+      </c>
+      <c r="AC132">
+        <v>1</v>
+      </c>
+      <c r="AD132">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE132">
+        <v>1.29</v>
+      </c>
+      <c r="AF132">
+        <v>2.92</v>
+      </c>
+      <c r="AG132">
+        <v>2.2</v>
+      </c>
+      <c r="AH132">
+        <v>1.63</v>
+      </c>
+      <c r="AI132">
+        <v>1.83</v>
+      </c>
+      <c r="AJ132">
+        <v>1.83</v>
+      </c>
+      <c r="AK132">
+        <v>1.28</v>
+      </c>
+      <c r="AL132">
+        <v>1.32</v>
+      </c>
+      <c r="AM132">
+        <v>1.7</v>
+      </c>
+      <c r="AN132">
+        <v>1.56</v>
+      </c>
+      <c r="AO132">
+        <v>1.25</v>
+      </c>
+      <c r="AP132">
+        <v>1.5</v>
+      </c>
+      <c r="AQ132">
+        <v>1.22</v>
+      </c>
+      <c r="AR132">
+        <v>1.85</v>
+      </c>
+      <c r="AS132">
+        <v>1.44</v>
+      </c>
+      <c r="AT132">
+        <v>3.29</v>
+      </c>
+      <c r="AU132">
         <v>3</v>
       </c>
-      <c r="T132">
-        <v>1.57</v>
-      </c>
-      <c r="U132">
-        <v>2.25</v>
-      </c>
-      <c r="V132">
-        <v>3.75</v>
-      </c>
-      <c r="W132">
-        <v>1.25</v>
-      </c>
-      <c r="X132">
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>7</v>
+      </c>
+      <c r="AX132">
+        <v>5</v>
+      </c>
+      <c r="AY132">
+        <v>15</v>
+      </c>
+      <c r="AZ132">
         <v>13</v>
       </c>
-      <c r="Y132">
-        <v>1.04</v>
-      </c>
-      <c r="Z132">
+      <c r="BA132">
+        <v>7</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>14</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>1.62</v>
+      </c>
+      <c r="BJ132">
         <v>2.27</v>
       </c>
-      <c r="AA132">
-        <v>2.11</v>
-      </c>
-      <c r="AB132">
-        <v>5.13</v>
-      </c>
-      <c r="AC132">
-        <v>1.05</v>
-      </c>
-      <c r="AD132">
-        <v>6.1</v>
-      </c>
-      <c r="AE132">
-        <v>1.5</v>
-      </c>
-      <c r="AF132">
-        <v>2.45</v>
-      </c>
-      <c r="AG132">
-        <v>2.55</v>
-      </c>
-      <c r="AH132">
-        <v>1.45</v>
-      </c>
-      <c r="AI132">
-        <v>2.1</v>
-      </c>
-      <c r="AJ132">
-        <v>1.67</v>
-      </c>
-      <c r="AK132">
-        <v>1.66</v>
-      </c>
-      <c r="AL132">
-        <v>1.33</v>
-      </c>
-      <c r="AM132">
-        <v>1.28</v>
-      </c>
-      <c r="AN132">
-        <v>1.5</v>
-      </c>
-      <c r="AO132">
-        <v>1.78</v>
-      </c>
-      <c r="AP132">
-        <v>1.67</v>
-      </c>
-      <c r="AQ132">
-        <v>1.6</v>
-      </c>
-      <c r="AR132">
-        <v>1.25</v>
-      </c>
-      <c r="AS132">
-        <v>1.29</v>
-      </c>
-      <c r="AT132">
-        <v>2.54</v>
-      </c>
-      <c r="AU132">
-        <v>7</v>
-      </c>
-      <c r="AV132">
-        <v>6</v>
-      </c>
-      <c r="AW132">
-        <v>2</v>
-      </c>
-      <c r="AX132">
-        <v>6</v>
-      </c>
-      <c r="AY132">
-        <v>9</v>
-      </c>
-      <c r="AZ132">
-        <v>20</v>
-      </c>
-      <c r="BA132">
-        <v>2</v>
-      </c>
-      <c r="BB132">
-        <v>5</v>
-      </c>
-      <c r="BC132">
-        <v>7</v>
-      </c>
-      <c r="BD132">
-        <v>0</v>
-      </c>
-      <c r="BE132">
-        <v>0</v>
-      </c>
-      <c r="BF132">
-        <v>0</v>
-      </c>
-      <c r="BG132">
-        <v>0</v>
-      </c>
-      <c r="BH132">
-        <v>0</v>
-      </c>
-      <c r="BI132">
-        <v>1.68</v>
-      </c>
-      <c r="BJ132">
-        <v>2.14</v>
-      </c>
       <c r="BK132">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="BL132">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -28298,7 +28307,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7486631</v>
+        <v>7486633</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28307,196 +28316,1020 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45619.6875</v>
+        <v>45618.875</v>
       </c>
       <c r="F133">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H133" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O133" t="s">
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="Q133">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R133">
+        <v>1.91</v>
+      </c>
+      <c r="S133">
+        <v>3</v>
+      </c>
+      <c r="T133">
+        <v>1.57</v>
+      </c>
+      <c r="U133">
+        <v>2.25</v>
+      </c>
+      <c r="V133">
+        <v>3.75</v>
+      </c>
+      <c r="W133">
+        <v>1.25</v>
+      </c>
+      <c r="X133">
+        <v>13</v>
+      </c>
+      <c r="Y133">
+        <v>1.04</v>
+      </c>
+      <c r="Z133">
+        <v>2.27</v>
+      </c>
+      <c r="AA133">
+        <v>2.11</v>
+      </c>
+      <c r="AB133">
+        <v>5.13</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>6.1</v>
+      </c>
+      <c r="AE133">
+        <v>1.5</v>
+      </c>
+      <c r="AF133">
+        <v>2.45</v>
+      </c>
+      <c r="AG133">
+        <v>2.55</v>
+      </c>
+      <c r="AH133">
+        <v>1.45</v>
+      </c>
+      <c r="AI133">
+        <v>2.1</v>
+      </c>
+      <c r="AJ133">
+        <v>1.67</v>
+      </c>
+      <c r="AK133">
+        <v>1.66</v>
+      </c>
+      <c r="AL133">
+        <v>1.33</v>
+      </c>
+      <c r="AM133">
+        <v>1.28</v>
+      </c>
+      <c r="AN133">
+        <v>1.5</v>
+      </c>
+      <c r="AO133">
+        <v>1.78</v>
+      </c>
+      <c r="AP133">
+        <v>1.67</v>
+      </c>
+      <c r="AQ133">
+        <v>1.6</v>
+      </c>
+      <c r="AR133">
+        <v>1.25</v>
+      </c>
+      <c r="AS133">
+        <v>1.29</v>
+      </c>
+      <c r="AT133">
+        <v>2.54</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>20</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>7</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>1.68</v>
+      </c>
+      <c r="BJ133">
+        <v>2.14</v>
+      </c>
+      <c r="BK133">
+        <v>2.12</v>
+      </c>
+      <c r="BL133">
+        <v>1.7</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7486630</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" t="s">
+        <v>83</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>86</v>
+      </c>
+      <c r="P134" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q134">
+        <v>3.25</v>
+      </c>
+      <c r="R134">
+        <v>1.91</v>
+      </c>
+      <c r="S134">
+        <v>4</v>
+      </c>
+      <c r="T134">
+        <v>1.57</v>
+      </c>
+      <c r="U134">
+        <v>2.25</v>
+      </c>
+      <c r="V134">
+        <v>3.75</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>13</v>
+      </c>
+      <c r="Y134">
+        <v>1.04</v>
+      </c>
+      <c r="Z134">
+        <v>2.31</v>
+      </c>
+      <c r="AA134">
+        <v>2.87</v>
+      </c>
+      <c r="AB134">
+        <v>2.72</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>6.15</v>
+      </c>
+      <c r="AE134">
+        <v>1.49</v>
+      </c>
+      <c r="AF134">
+        <v>2.4</v>
+      </c>
+      <c r="AG134">
+        <v>2.52</v>
+      </c>
+      <c r="AH134">
+        <v>1.46</v>
+      </c>
+      <c r="AI134">
+        <v>2.1</v>
+      </c>
+      <c r="AJ134">
+        <v>1.67</v>
+      </c>
+      <c r="AK134">
+        <v>1.29</v>
+      </c>
+      <c r="AL134">
+        <v>1.35</v>
+      </c>
+      <c r="AM134">
+        <v>1.62</v>
+      </c>
+      <c r="AN134">
+        <v>1.75</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>1.56</v>
+      </c>
+      <c r="AQ134">
+        <v>1.22</v>
+      </c>
+      <c r="AR134">
+        <v>1.36</v>
+      </c>
+      <c r="AS134">
+        <v>1.1</v>
+      </c>
+      <c r="AT134">
+        <v>2.46</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>8</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>5</v>
+      </c>
+      <c r="AY134">
+        <v>12</v>
+      </c>
+      <c r="AZ134">
+        <v>17</v>
+      </c>
+      <c r="BA134">
+        <v>4</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.52</v>
+      </c>
+      <c r="BE134">
+        <v>6.9</v>
+      </c>
+      <c r="BF134">
+        <v>3.05</v>
+      </c>
+      <c r="BG134">
+        <v>1.41</v>
+      </c>
+      <c r="BH134">
+        <v>2.65</v>
+      </c>
+      <c r="BI134">
+        <v>1.75</v>
+      </c>
+      <c r="BJ134">
+        <v>1.92</v>
+      </c>
+      <c r="BK134">
+        <v>2.35</v>
+      </c>
+      <c r="BL134">
+        <v>1.5</v>
+      </c>
+      <c r="BM134">
+        <v>3.35</v>
+      </c>
+      <c r="BN134">
+        <v>1.27</v>
+      </c>
+      <c r="BO134">
+        <v>4.2</v>
+      </c>
+      <c r="BP134">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7486634</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45619.875</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>79</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>173</v>
+      </c>
+      <c r="P135" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135">
+        <v>1.91</v>
+      </c>
+      <c r="R135">
+        <v>2.38</v>
+      </c>
+      <c r="S135">
+        <v>8</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>1.35</v>
+      </c>
+      <c r="AA135">
+        <v>4.18</v>
+      </c>
+      <c r="AB135">
+        <v>7</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>14</v>
+      </c>
+      <c r="AE135">
+        <v>1.21</v>
+      </c>
+      <c r="AF135">
+        <v>4.5</v>
+      </c>
+      <c r="AG135">
+        <v>1.87</v>
+      </c>
+      <c r="AH135">
+        <v>1.95</v>
+      </c>
+      <c r="AI135">
+        <v>2.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.62</v>
+      </c>
+      <c r="AK135">
+        <v>1.08</v>
+      </c>
+      <c r="AL135">
+        <v>1.14</v>
+      </c>
+      <c r="AM135">
+        <v>2.42</v>
+      </c>
+      <c r="AN135">
+        <v>1.5</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.67</v>
+      </c>
+      <c r="AQ135">
+        <v>1.11</v>
+      </c>
+      <c r="AR135">
+        <v>2.06</v>
+      </c>
+      <c r="AS135">
+        <v>1.27</v>
+      </c>
+      <c r="AT135">
+        <v>3.33</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>18</v>
+      </c>
+      <c r="AZ135">
+        <v>7</v>
+      </c>
+      <c r="BA135">
+        <v>11</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>13</v>
+      </c>
+      <c r="BD135">
+        <v>1.13</v>
+      </c>
+      <c r="BE135">
+        <v>9.1</v>
+      </c>
+      <c r="BF135">
+        <v>7.5</v>
+      </c>
+      <c r="BG135">
+        <v>1.21</v>
+      </c>
+      <c r="BH135">
+        <v>3.8</v>
+      </c>
+      <c r="BI135">
+        <v>1.45</v>
+      </c>
+      <c r="BJ135">
+        <v>2.52</v>
+      </c>
+      <c r="BK135">
+        <v>1.8</v>
+      </c>
+      <c r="BL135">
+        <v>1.88</v>
+      </c>
+      <c r="BM135">
+        <v>2.35</v>
+      </c>
+      <c r="BN135">
+        <v>1.5</v>
+      </c>
+      <c r="BO135">
+        <v>3.2</v>
+      </c>
+      <c r="BP135">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7486636</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45621.52083333334</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s">
+        <v>78</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>99</v>
+      </c>
+      <c r="P136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q136">
+        <v>3.4</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.5</v>
+      </c>
+      <c r="T136">
+        <v>1.5</v>
+      </c>
+      <c r="U136">
+        <v>2.5</v>
+      </c>
+      <c r="V136">
+        <v>3.4</v>
+      </c>
+      <c r="W136">
+        <v>1.3</v>
+      </c>
+      <c r="X136">
+        <v>10</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.35</v>
+      </c>
+      <c r="AA136">
+        <v>2.95</v>
+      </c>
+      <c r="AB136">
+        <v>2.8</v>
+      </c>
+      <c r="AC136">
+        <v>1.09</v>
+      </c>
+      <c r="AD136">
+        <v>8</v>
+      </c>
+      <c r="AE136">
+        <v>1.45</v>
+      </c>
+      <c r="AF136">
+        <v>2.75</v>
+      </c>
+      <c r="AG136">
+        <v>2.35</v>
+      </c>
+      <c r="AH136">
+        <v>1.53</v>
+      </c>
+      <c r="AI136">
+        <v>1.91</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.31</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.46</v>
+      </c>
+      <c r="AN136">
+        <v>1.43</v>
+      </c>
+      <c r="AO136">
+        <v>0.57</v>
+      </c>
+      <c r="AP136">
+        <v>1.38</v>
+      </c>
+      <c r="AQ136">
+        <v>0.63</v>
+      </c>
+      <c r="AR136">
+        <v>1.72</v>
+      </c>
+      <c r="AS136">
+        <v>1.45</v>
+      </c>
+      <c r="AT136">
+        <v>3.17</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>5</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>11</v>
+      </c>
+      <c r="AZ136">
+        <v>16</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>1.58</v>
+      </c>
+      <c r="BE136">
+        <v>7</v>
+      </c>
+      <c r="BF136">
+        <v>2.82</v>
+      </c>
+      <c r="BG136">
+        <v>1.31</v>
+      </c>
+      <c r="BH136">
+        <v>3.05</v>
+      </c>
+      <c r="BI136">
+        <v>1.58</v>
+      </c>
+      <c r="BJ136">
+        <v>2.2</v>
+      </c>
+      <c r="BK136">
         <v>2.05</v>
       </c>
-      <c r="S133">
-        <v>4</v>
-      </c>
-      <c r="T133">
+      <c r="BL136">
+        <v>1.68</v>
+      </c>
+      <c r="BM136">
+        <v>2.75</v>
+      </c>
+      <c r="BN136">
+        <v>1.39</v>
+      </c>
+      <c r="BO136">
+        <v>3.9</v>
+      </c>
+      <c r="BP136">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7486632</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45621.64583333334</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>80</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>174</v>
+      </c>
+      <c r="P137" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q137">
+        <v>4.33</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>2.63</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>3.9</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>1.9</v>
+      </c>
+      <c r="AC137">
+        <v>1</v>
+      </c>
+      <c r="AD137">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE137">
+        <v>1.26</v>
+      </c>
+      <c r="AF137">
+        <v>3.08</v>
+      </c>
+      <c r="AG137">
+        <v>1.9</v>
+      </c>
+      <c r="AH137">
+        <v>1.8</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.91</v>
+      </c>
+      <c r="AK137">
+        <v>1.81</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.25</v>
+      </c>
+      <c r="AN137">
+        <v>1.5</v>
+      </c>
+      <c r="AO137">
+        <v>1.13</v>
+      </c>
+      <c r="AP137">
+        <v>1.33</v>
+      </c>
+      <c r="AQ137">
+        <v>1.33</v>
+      </c>
+      <c r="AR137">
+        <v>1.59</v>
+      </c>
+      <c r="AS137">
+        <v>1.54</v>
+      </c>
+      <c r="AT137">
+        <v>3.13</v>
+      </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>10</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+      <c r="AY137">
+        <v>19</v>
+      </c>
+      <c r="AZ137">
+        <v>15</v>
+      </c>
+      <c r="BA137">
+        <v>5</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>6</v>
+      </c>
+      <c r="BD137">
+        <v>2.75</v>
+      </c>
+      <c r="BE137">
+        <v>7</v>
+      </c>
+      <c r="BF137">
+        <v>1.6</v>
+      </c>
+      <c r="BG137">
+        <v>1.27</v>
+      </c>
+      <c r="BH137">
+        <v>3.35</v>
+      </c>
+      <c r="BI137">
+        <v>1.5</v>
+      </c>
+      <c r="BJ137">
+        <v>2.35</v>
+      </c>
+      <c r="BK137">
+        <v>1.92</v>
+      </c>
+      <c r="BL137">
+        <v>1.78</v>
+      </c>
+      <c r="BM137">
+        <v>2.58</v>
+      </c>
+      <c r="BN137">
         <v>1.44</v>
       </c>
-      <c r="U133">
-        <v>2.63</v>
-      </c>
-      <c r="V133">
-        <v>3.25</v>
-      </c>
-      <c r="W133">
-        <v>1.33</v>
-      </c>
-      <c r="X133">
-        <v>10</v>
-      </c>
-      <c r="Y133">
-        <v>1.06</v>
-      </c>
-      <c r="Z133">
-        <v>2.13</v>
-      </c>
-      <c r="AA133">
-        <v>3.15</v>
-      </c>
-      <c r="AB133">
-        <v>3.15</v>
-      </c>
-      <c r="AC133">
-        <v>1</v>
-      </c>
-      <c r="AD133">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE133">
-        <v>1.29</v>
-      </c>
-      <c r="AF133">
-        <v>2.92</v>
-      </c>
-      <c r="AG133">
-        <v>2.2</v>
-      </c>
-      <c r="AH133">
-        <v>1.63</v>
-      </c>
-      <c r="AI133">
-        <v>1.83</v>
-      </c>
-      <c r="AJ133">
-        <v>1.83</v>
-      </c>
-      <c r="AK133">
-        <v>1.28</v>
-      </c>
-      <c r="AL133">
-        <v>1.32</v>
-      </c>
-      <c r="AM133">
-        <v>1.7</v>
-      </c>
-      <c r="AN133">
-        <v>1.56</v>
-      </c>
-      <c r="AO133">
-        <v>1.25</v>
-      </c>
-      <c r="AP133">
-        <v>1.5</v>
-      </c>
-      <c r="AQ133">
-        <v>1.22</v>
-      </c>
-      <c r="AR133">
-        <v>1.85</v>
-      </c>
-      <c r="AS133">
-        <v>1.44</v>
-      </c>
-      <c r="AT133">
-        <v>3.29</v>
-      </c>
-      <c r="AU133">
-        <v>3</v>
-      </c>
-      <c r="AV133">
-        <v>5</v>
-      </c>
-      <c r="AW133">
-        <v>7</v>
-      </c>
-      <c r="AX133">
-        <v>5</v>
-      </c>
-      <c r="AY133">
-        <v>15</v>
-      </c>
-      <c r="AZ133">
-        <v>13</v>
-      </c>
-      <c r="BA133">
-        <v>7</v>
-      </c>
-      <c r="BB133">
-        <v>7</v>
-      </c>
-      <c r="BC133">
-        <v>14</v>
-      </c>
-      <c r="BD133">
-        <v>0</v>
-      </c>
-      <c r="BE133">
-        <v>0</v>
-      </c>
-      <c r="BF133">
-        <v>0</v>
-      </c>
-      <c r="BG133">
-        <v>0</v>
-      </c>
-      <c r="BH133">
-        <v>0</v>
-      </c>
-      <c r="BI133">
-        <v>1.62</v>
-      </c>
-      <c r="BJ133">
-        <v>2.27</v>
-      </c>
-      <c r="BK133">
-        <v>2.04</v>
-      </c>
-      <c r="BL133">
-        <v>1.75</v>
-      </c>
-      <c r="BM133">
-        <v>0</v>
-      </c>
-      <c r="BN133">
-        <v>0</v>
-      </c>
-      <c r="BO133">
-        <v>0</v>
-      </c>
-      <c r="BP133">
-        <v>0</v>
+      <c r="BO137">
+        <v>3.55</v>
+      </c>
+      <c r="BP137">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -28934,7 +28934,7 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45621.52083333334</v>
+        <v>45620.875</v>
       </c>
       <c r="F136">
         <v>17</v>
@@ -29140,7 +29140,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45621.64583333334</v>
+        <v>45620.875</v>
       </c>
       <c r="F137">
         <v>17</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -529,10 +529,10 @@
     <t>['18', '20']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['3', '62']</t>
   </si>
   <si>
-    <t>['3', '62']</t>
+    <t>['81']</t>
   </si>
   <si>
     <t>['27', '45+2', '71']</t>
@@ -27698,7 +27698,7 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45617.875</v>
+        <v>45618.52083333334</v>
       </c>
       <c r="F130">
         <v>17</v>
@@ -27827,19 +27827,19 @@
         <v>6</v>
       </c>
       <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
         <v>3</v>
-      </c>
-      <c r="AW130">
-        <v>4</v>
       </c>
       <c r="AX130">
         <v>7</v>
       </c>
       <c r="AY130">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ130">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA130">
         <v>5</v>
@@ -27904,10 +27904,10 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45617.875</v>
+        <v>45618.64583333334</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G131" t="s">
         <v>70</v>
@@ -28033,19 +28033,19 @@
         <v>0</v>
       </c>
       <c r="AV131">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AW131">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX131">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY131">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ131">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA131">
         <v>4</v>
@@ -28101,7 +28101,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7486631</v>
+        <v>7486633</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28110,184 +28110,184 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45618.875</v>
+        <v>45619.5</v>
       </c>
       <c r="F132">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <v>1</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O132" t="s">
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="Q132">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T132">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="U132">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="V132">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="W132">
+        <v>1.25</v>
+      </c>
+      <c r="X132">
+        <v>13</v>
+      </c>
+      <c r="Y132">
+        <v>1.04</v>
+      </c>
+      <c r="Z132">
+        <v>2.27</v>
+      </c>
+      <c r="AA132">
+        <v>2.11</v>
+      </c>
+      <c r="AB132">
+        <v>5.13</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>6.1</v>
+      </c>
+      <c r="AE132">
+        <v>1.5</v>
+      </c>
+      <c r="AF132">
+        <v>2.45</v>
+      </c>
+      <c r="AG132">
+        <v>2.55</v>
+      </c>
+      <c r="AH132">
+        <v>1.45</v>
+      </c>
+      <c r="AI132">
+        <v>2.1</v>
+      </c>
+      <c r="AJ132">
+        <v>1.67</v>
+      </c>
+      <c r="AK132">
+        <v>1.66</v>
+      </c>
+      <c r="AL132">
         <v>1.33</v>
       </c>
-      <c r="X132">
-        <v>10</v>
-      </c>
-      <c r="Y132">
-        <v>1.06</v>
-      </c>
-      <c r="Z132">
-        <v>2.13</v>
-      </c>
-      <c r="AA132">
-        <v>3.15</v>
-      </c>
-      <c r="AB132">
-        <v>3.15</v>
-      </c>
-      <c r="AC132">
-        <v>1</v>
-      </c>
-      <c r="AD132">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE132">
+      <c r="AM132">
+        <v>1.28</v>
+      </c>
+      <c r="AN132">
+        <v>1.5</v>
+      </c>
+      <c r="AO132">
+        <v>1.78</v>
+      </c>
+      <c r="AP132">
+        <v>1.67</v>
+      </c>
+      <c r="AQ132">
+        <v>1.6</v>
+      </c>
+      <c r="AR132">
+        <v>1.25</v>
+      </c>
+      <c r="AS132">
         <v>1.29</v>
       </c>
-      <c r="AF132">
-        <v>2.92</v>
-      </c>
-      <c r="AG132">
-        <v>2.2</v>
-      </c>
-      <c r="AH132">
-        <v>1.63</v>
-      </c>
-      <c r="AI132">
-        <v>1.83</v>
-      </c>
-      <c r="AJ132">
-        <v>1.83</v>
-      </c>
-      <c r="AK132">
-        <v>1.28</v>
-      </c>
-      <c r="AL132">
-        <v>1.32</v>
-      </c>
-      <c r="AM132">
+      <c r="AT132">
+        <v>2.54</v>
+      </c>
+      <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>1</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>6</v>
+      </c>
+      <c r="AZ132">
+        <v>6</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>5</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>1.68</v>
+      </c>
+      <c r="BJ132">
+        <v>2.14</v>
+      </c>
+      <c r="BK132">
+        <v>2.12</v>
+      </c>
+      <c r="BL132">
         <v>1.7</v>
-      </c>
-      <c r="AN132">
-        <v>1.56</v>
-      </c>
-      <c r="AO132">
-        <v>1.25</v>
-      </c>
-      <c r="AP132">
-        <v>1.5</v>
-      </c>
-      <c r="AQ132">
-        <v>1.22</v>
-      </c>
-      <c r="AR132">
-        <v>1.85</v>
-      </c>
-      <c r="AS132">
-        <v>1.44</v>
-      </c>
-      <c r="AT132">
-        <v>3.29</v>
-      </c>
-      <c r="AU132">
-        <v>3</v>
-      </c>
-      <c r="AV132">
-        <v>5</v>
-      </c>
-      <c r="AW132">
-        <v>7</v>
-      </c>
-      <c r="AX132">
-        <v>5</v>
-      </c>
-      <c r="AY132">
-        <v>15</v>
-      </c>
-      <c r="AZ132">
-        <v>13</v>
-      </c>
-      <c r="BA132">
-        <v>7</v>
-      </c>
-      <c r="BB132">
-        <v>7</v>
-      </c>
-      <c r="BC132">
-        <v>14</v>
-      </c>
-      <c r="BD132">
-        <v>0</v>
-      </c>
-      <c r="BE132">
-        <v>0</v>
-      </c>
-      <c r="BF132">
-        <v>0</v>
-      </c>
-      <c r="BG132">
-        <v>0</v>
-      </c>
-      <c r="BH132">
-        <v>0</v>
-      </c>
-      <c r="BI132">
-        <v>1.62</v>
-      </c>
-      <c r="BJ132">
-        <v>2.27</v>
-      </c>
-      <c r="BK132">
-        <v>2.04</v>
-      </c>
-      <c r="BL132">
-        <v>1.75</v>
       </c>
       <c r="BM132">
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7486633</v>
+        <v>7486631</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28316,157 +28316,157 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45618.875</v>
+        <v>45619.6875</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H133" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133">
         <v>1</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="Q133">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R133">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>10</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.13</v>
+      </c>
+      <c r="AA133">
+        <v>3.15</v>
+      </c>
+      <c r="AB133">
+        <v>3.15</v>
+      </c>
+      <c r="AC133">
+        <v>1</v>
+      </c>
+      <c r="AD133">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE133">
+        <v>1.29</v>
+      </c>
+      <c r="AF133">
+        <v>2.92</v>
+      </c>
+      <c r="AG133">
+        <v>2.2</v>
+      </c>
+      <c r="AH133">
+        <v>1.63</v>
+      </c>
+      <c r="AI133">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.28</v>
+      </c>
+      <c r="AL133">
+        <v>1.32</v>
+      </c>
+      <c r="AM133">
+        <v>1.7</v>
+      </c>
+      <c r="AN133">
+        <v>1.56</v>
+      </c>
+      <c r="AO133">
+        <v>1.25</v>
+      </c>
+      <c r="AP133">
+        <v>1.5</v>
+      </c>
+      <c r="AQ133">
+        <v>1.22</v>
+      </c>
+      <c r="AR133">
+        <v>1.85</v>
+      </c>
+      <c r="AS133">
+        <v>1.44</v>
+      </c>
+      <c r="AT133">
+        <v>3.29</v>
+      </c>
+      <c r="AU133">
         <v>3</v>
       </c>
-      <c r="T133">
-        <v>1.57</v>
-      </c>
-      <c r="U133">
-        <v>2.25</v>
-      </c>
-      <c r="V133">
-        <v>3.75</v>
-      </c>
-      <c r="W133">
-        <v>1.25</v>
-      </c>
-      <c r="X133">
-        <v>13</v>
-      </c>
-      <c r="Y133">
-        <v>1.04</v>
-      </c>
-      <c r="Z133">
-        <v>2.27</v>
-      </c>
-      <c r="AA133">
-        <v>2.11</v>
-      </c>
-      <c r="AB133">
-        <v>5.13</v>
-      </c>
-      <c r="AC133">
-        <v>1.05</v>
-      </c>
-      <c r="AD133">
-        <v>6.1</v>
-      </c>
-      <c r="AE133">
-        <v>1.5</v>
-      </c>
-      <c r="AF133">
-        <v>2.45</v>
-      </c>
-      <c r="AG133">
-        <v>2.55</v>
-      </c>
-      <c r="AH133">
-        <v>1.45</v>
-      </c>
-      <c r="AI133">
-        <v>2.1</v>
-      </c>
-      <c r="AJ133">
-        <v>1.67</v>
-      </c>
-      <c r="AK133">
-        <v>1.66</v>
-      </c>
-      <c r="AL133">
-        <v>1.33</v>
-      </c>
-      <c r="AM133">
-        <v>1.28</v>
-      </c>
-      <c r="AN133">
-        <v>1.5</v>
-      </c>
-      <c r="AO133">
-        <v>1.78</v>
-      </c>
-      <c r="AP133">
-        <v>1.67</v>
-      </c>
-      <c r="AQ133">
-        <v>1.6</v>
-      </c>
-      <c r="AR133">
-        <v>1.25</v>
-      </c>
-      <c r="AS133">
-        <v>1.29</v>
-      </c>
-      <c r="AT133">
-        <v>2.54</v>
-      </c>
-      <c r="AU133">
-        <v>7</v>
-      </c>
       <c r="AV133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW133">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX133">
         <v>6</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ133">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA133">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC133">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD133">
         <v>0</v>
@@ -28484,16 +28484,16 @@
         <v>0</v>
       </c>
       <c r="BI133">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="BJ133">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="BK133">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="BL133">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="BM133">
         <v>0</v>
@@ -28513,7 +28513,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7486630</v>
+        <v>7486634</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28522,196 +28522,196 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45619.875</v>
+        <v>45620.55208333334</v>
       </c>
       <c r="F134">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
+        <v>173</v>
+      </c>
+      <c r="P134" t="s">
         <v>86</v>
       </c>
-      <c r="P134" t="s">
-        <v>100</v>
-      </c>
       <c r="Q134">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="R134">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="S134">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T134">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="U134">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V134">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W134">
+        <v>1.4</v>
+      </c>
+      <c r="X134">
+        <v>7</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>1.35</v>
+      </c>
+      <c r="AA134">
+        <v>4.18</v>
+      </c>
+      <c r="AB134">
+        <v>7</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>14</v>
+      </c>
+      <c r="AE134">
+        <v>1.21</v>
+      </c>
+      <c r="AF134">
+        <v>4.5</v>
+      </c>
+      <c r="AG134">
+        <v>1.87</v>
+      </c>
+      <c r="AH134">
+        <v>1.95</v>
+      </c>
+      <c r="AI134">
+        <v>2.2</v>
+      </c>
+      <c r="AJ134">
+        <v>1.62</v>
+      </c>
+      <c r="AK134">
+        <v>1.08</v>
+      </c>
+      <c r="AL134">
+        <v>1.14</v>
+      </c>
+      <c r="AM134">
+        <v>2.42</v>
+      </c>
+      <c r="AN134">
+        <v>1.5</v>
+      </c>
+      <c r="AO134">
         <v>1.25</v>
       </c>
-      <c r="X134">
+      <c r="AP134">
+        <v>1.67</v>
+      </c>
+      <c r="AQ134">
+        <v>1.11</v>
+      </c>
+      <c r="AR134">
+        <v>2.06</v>
+      </c>
+      <c r="AS134">
+        <v>1.27</v>
+      </c>
+      <c r="AT134">
+        <v>3.33</v>
+      </c>
+      <c r="AU134">
+        <v>8</v>
+      </c>
+      <c r="AV134">
+        <v>3</v>
+      </c>
+      <c r="AW134">
+        <v>1</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>6</v>
+      </c>
+      <c r="BA134">
+        <v>11</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
         <v>13</v>
       </c>
-      <c r="Y134">
-        <v>1.04</v>
-      </c>
-      <c r="Z134">
-        <v>2.31</v>
-      </c>
-      <c r="AA134">
-        <v>2.87</v>
-      </c>
-      <c r="AB134">
-        <v>2.72</v>
-      </c>
-      <c r="AC134">
-        <v>1.05</v>
-      </c>
-      <c r="AD134">
-        <v>6.15</v>
-      </c>
-      <c r="AE134">
-        <v>1.49</v>
-      </c>
-      <c r="AF134">
-        <v>2.4</v>
-      </c>
-      <c r="AG134">
+      <c r="BD134">
+        <v>1.13</v>
+      </c>
+      <c r="BE134">
+        <v>9.1</v>
+      </c>
+      <c r="BF134">
+        <v>7.5</v>
+      </c>
+      <c r="BG134">
+        <v>1.21</v>
+      </c>
+      <c r="BH134">
+        <v>3.8</v>
+      </c>
+      <c r="BI134">
+        <v>1.45</v>
+      </c>
+      <c r="BJ134">
         <v>2.52</v>
       </c>
-      <c r="AH134">
-        <v>1.46</v>
-      </c>
-      <c r="AI134">
-        <v>2.1</v>
-      </c>
-      <c r="AJ134">
-        <v>1.67</v>
-      </c>
-      <c r="AK134">
+      <c r="BK134">
+        <v>1.8</v>
+      </c>
+      <c r="BL134">
+        <v>1.88</v>
+      </c>
+      <c r="BM134">
+        <v>2.35</v>
+      </c>
+      <c r="BN134">
+        <v>1.5</v>
+      </c>
+      <c r="BO134">
+        <v>3.2</v>
+      </c>
+      <c r="BP134">
         <v>1.29</v>
-      </c>
-      <c r="AL134">
-        <v>1.35</v>
-      </c>
-      <c r="AM134">
-        <v>1.62</v>
-      </c>
-      <c r="AN134">
-        <v>1.75</v>
-      </c>
-      <c r="AO134">
-        <v>1</v>
-      </c>
-      <c r="AP134">
-        <v>1.56</v>
-      </c>
-      <c r="AQ134">
-        <v>1.22</v>
-      </c>
-      <c r="AR134">
-        <v>1.36</v>
-      </c>
-      <c r="AS134">
-        <v>1.1</v>
-      </c>
-      <c r="AT134">
-        <v>2.46</v>
-      </c>
-      <c r="AU134">
-        <v>4</v>
-      </c>
-      <c r="AV134">
-        <v>8</v>
-      </c>
-      <c r="AW134">
-        <v>5</v>
-      </c>
-      <c r="AX134">
-        <v>5</v>
-      </c>
-      <c r="AY134">
-        <v>12</v>
-      </c>
-      <c r="AZ134">
-        <v>17</v>
-      </c>
-      <c r="BA134">
-        <v>4</v>
-      </c>
-      <c r="BB134">
-        <v>5</v>
-      </c>
-      <c r="BC134">
-        <v>9</v>
-      </c>
-      <c r="BD134">
-        <v>1.52</v>
-      </c>
-      <c r="BE134">
-        <v>6.9</v>
-      </c>
-      <c r="BF134">
-        <v>3.05</v>
-      </c>
-      <c r="BG134">
-        <v>1.41</v>
-      </c>
-      <c r="BH134">
-        <v>2.65</v>
-      </c>
-      <c r="BI134">
-        <v>1.75</v>
-      </c>
-      <c r="BJ134">
-        <v>1.92</v>
-      </c>
-      <c r="BK134">
-        <v>2.35</v>
-      </c>
-      <c r="BL134">
-        <v>1.5</v>
-      </c>
-      <c r="BM134">
-        <v>3.35</v>
-      </c>
-      <c r="BN134">
-        <v>1.27</v>
-      </c>
-      <c r="BO134">
-        <v>4.2</v>
-      </c>
-      <c r="BP134">
-        <v>1.18</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28719,7 +28719,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7486634</v>
+        <v>7486630</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28728,196 +28728,196 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45619.875</v>
+        <v>45620.65625</v>
       </c>
       <c r="F135">
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H135" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="P135" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="Q135">
+        <v>3.25</v>
+      </c>
+      <c r="R135">
         <v>1.91</v>
       </c>
-      <c r="R135">
-        <v>2.38</v>
-      </c>
       <c r="S135">
+        <v>4</v>
+      </c>
+      <c r="T135">
+        <v>1.57</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
+        <v>3.75</v>
+      </c>
+      <c r="W135">
+        <v>1.25</v>
+      </c>
+      <c r="X135">
+        <v>13</v>
+      </c>
+      <c r="Y135">
+        <v>1.04</v>
+      </c>
+      <c r="Z135">
+        <v>2.31</v>
+      </c>
+      <c r="AA135">
+        <v>2.87</v>
+      </c>
+      <c r="AB135">
+        <v>2.72</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>6.15</v>
+      </c>
+      <c r="AE135">
+        <v>1.49</v>
+      </c>
+      <c r="AF135">
+        <v>2.4</v>
+      </c>
+      <c r="AG135">
+        <v>2.52</v>
+      </c>
+      <c r="AH135">
+        <v>1.46</v>
+      </c>
+      <c r="AI135">
+        <v>2.1</v>
+      </c>
+      <c r="AJ135">
+        <v>1.67</v>
+      </c>
+      <c r="AK135">
+        <v>1.29</v>
+      </c>
+      <c r="AL135">
+        <v>1.35</v>
+      </c>
+      <c r="AM135">
+        <v>1.62</v>
+      </c>
+      <c r="AN135">
+        <v>1.75</v>
+      </c>
+      <c r="AO135">
+        <v>1</v>
+      </c>
+      <c r="AP135">
+        <v>1.56</v>
+      </c>
+      <c r="AQ135">
+        <v>1.22</v>
+      </c>
+      <c r="AR135">
+        <v>1.36</v>
+      </c>
+      <c r="AS135">
+        <v>1.1</v>
+      </c>
+      <c r="AT135">
+        <v>2.46</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
         <v>8</v>
       </c>
-      <c r="T135">
-        <v>1.36</v>
-      </c>
-      <c r="U135">
-        <v>3</v>
-      </c>
-      <c r="V135">
-        <v>2.75</v>
-      </c>
-      <c r="W135">
-        <v>1.4</v>
-      </c>
-      <c r="X135">
-        <v>7</v>
-      </c>
-      <c r="Y135">
-        <v>1.1</v>
-      </c>
-      <c r="Z135">
-        <v>1.35</v>
-      </c>
-      <c r="AA135">
-        <v>4.18</v>
-      </c>
-      <c r="AB135">
-        <v>7</v>
-      </c>
-      <c r="AC135">
-        <v>1.01</v>
-      </c>
-      <c r="AD135">
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>6</v>
+      </c>
+      <c r="AY135">
+        <v>6</v>
+      </c>
+      <c r="AZ135">
         <v>14</v>
       </c>
-      <c r="AE135">
-        <v>1.21</v>
-      </c>
-      <c r="AF135">
-        <v>4.5</v>
-      </c>
-      <c r="AG135">
-        <v>1.87</v>
-      </c>
-      <c r="AH135">
-        <v>1.95</v>
-      </c>
-      <c r="AI135">
-        <v>2.2</v>
-      </c>
-      <c r="AJ135">
-        <v>1.62</v>
-      </c>
-      <c r="AK135">
-        <v>1.08</v>
-      </c>
-      <c r="AL135">
-        <v>1.14</v>
-      </c>
-      <c r="AM135">
-        <v>2.42</v>
-      </c>
-      <c r="AN135">
+      <c r="BA135">
+        <v>4</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>1.52</v>
+      </c>
+      <c r="BE135">
+        <v>6.9</v>
+      </c>
+      <c r="BF135">
+        <v>3.05</v>
+      </c>
+      <c r="BG135">
+        <v>1.41</v>
+      </c>
+      <c r="BH135">
+        <v>2.65</v>
+      </c>
+      <c r="BI135">
+        <v>1.75</v>
+      </c>
+      <c r="BJ135">
+        <v>1.92</v>
+      </c>
+      <c r="BK135">
+        <v>2.35</v>
+      </c>
+      <c r="BL135">
         <v>1.5</v>
       </c>
-      <c r="AO135">
-        <v>1.25</v>
-      </c>
-      <c r="AP135">
-        <v>1.67</v>
-      </c>
-      <c r="AQ135">
-        <v>1.11</v>
-      </c>
-      <c r="AR135">
-        <v>2.06</v>
-      </c>
-      <c r="AS135">
+      <c r="BM135">
+        <v>3.35</v>
+      </c>
+      <c r="BN135">
         <v>1.27</v>
       </c>
-      <c r="AT135">
-        <v>3.33</v>
-      </c>
-      <c r="AU135">
-        <v>8</v>
-      </c>
-      <c r="AV135">
-        <v>3</v>
-      </c>
-      <c r="AW135">
-        <v>3</v>
-      </c>
-      <c r="AX135">
-        <v>4</v>
-      </c>
-      <c r="AY135">
-        <v>18</v>
-      </c>
-      <c r="AZ135">
-        <v>7</v>
-      </c>
-      <c r="BA135">
-        <v>11</v>
-      </c>
-      <c r="BB135">
-        <v>2</v>
-      </c>
-      <c r="BC135">
-        <v>13</v>
-      </c>
-      <c r="BD135">
-        <v>1.13</v>
-      </c>
-      <c r="BE135">
-        <v>9.1</v>
-      </c>
-      <c r="BF135">
-        <v>7.5</v>
-      </c>
-      <c r="BG135">
-        <v>1.21</v>
-      </c>
-      <c r="BH135">
-        <v>3.8</v>
-      </c>
-      <c r="BI135">
-        <v>1.45</v>
-      </c>
-      <c r="BJ135">
-        <v>2.52</v>
-      </c>
-      <c r="BK135">
-        <v>1.8</v>
-      </c>
-      <c r="BL135">
-        <v>1.88</v>
-      </c>
-      <c r="BM135">
-        <v>2.35</v>
-      </c>
-      <c r="BN135">
-        <v>1.5</v>
-      </c>
       <c r="BO135">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="BP135">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28934,7 +28934,7 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45620.875</v>
+        <v>45621.52083333334</v>
       </c>
       <c r="F136">
         <v>17</v>
@@ -29060,22 +29060,22 @@
         <v>3.17</v>
       </c>
       <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
         <v>5</v>
       </c>
-      <c r="AV136">
-        <v>5</v>
-      </c>
-      <c r="AW136">
-        <v>4</v>
-      </c>
       <c r="AX136">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ136">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA136">
         <v>4</v>
@@ -29140,7 +29140,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45620.875</v>
+        <v>45621.64583333334</v>
       </c>
       <c r="F137">
         <v>17</v>
@@ -29266,22 +29266,22 @@
         <v>3.13</v>
       </c>
       <c r="AU137">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV137">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX137">
         <v>8</v>
       </c>
       <c r="AY137">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ137">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA137">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2677,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.44</v>
@@ -4534,7 +4534,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -7830,7 +7830,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -9887,7 +9887,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>0.75</v>
@@ -12362,7 +12362,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -13183,7 +13183,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -14834,7 +14834,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15861,7 +15861,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ72">
         <v>0.5600000000000001</v>
@@ -18542,7 +18542,7 @@
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -20393,7 +20393,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.22</v>
@@ -22250,7 +22250,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23689,7 +23689,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -24928,7 +24928,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -26782,7 +26782,7 @@
         <v>1</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
         <v>1.4</v>
@@ -27603,7 +27603,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -29045,7 +29045,7 @@
         <v>0.57</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ136">
         <v>0.63</v>
@@ -29330,6 +29330,212 @@
       </c>
       <c r="BP137">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7486641</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45625.5</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138" t="s">
+        <v>86</v>
+      </c>
+      <c r="P138" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q138">
+        <v>3.6</v>
+      </c>
+      <c r="R138">
+        <v>1.97</v>
+      </c>
+      <c r="S138">
+        <v>3.2</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.4</v>
+      </c>
+      <c r="V138">
+        <v>3.28</v>
+      </c>
+      <c r="W138">
+        <v>1.31</v>
+      </c>
+      <c r="X138">
+        <v>9.6</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>2.51</v>
+      </c>
+      <c r="AA138">
+        <v>3.1</v>
+      </c>
+      <c r="AB138">
+        <v>2.61</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>7.7</v>
+      </c>
+      <c r="AE138">
+        <v>1.4</v>
+      </c>
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>1.95</v>
+      </c>
+      <c r="AH138">
+        <v>1.75</v>
+      </c>
+      <c r="AI138">
+        <v>1.94</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.43</v>
+      </c>
+      <c r="AL138">
+        <v>1.29</v>
+      </c>
+      <c r="AM138">
+        <v>1.34</v>
+      </c>
+      <c r="AN138">
+        <v>1.38</v>
+      </c>
+      <c r="AO138">
+        <v>0.88</v>
+      </c>
+      <c r="AP138">
+        <v>1.33</v>
+      </c>
+      <c r="AQ138">
+        <v>0.89</v>
+      </c>
+      <c r="AR138">
+        <v>1.66</v>
+      </c>
+      <c r="AS138">
+        <v>1.27</v>
+      </c>
+      <c r="AT138">
+        <v>2.93</v>
+      </c>
+      <c r="AU138">
+        <v>4</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>19</v>
+      </c>
+      <c r="AX138">
+        <v>11</v>
+      </c>
+      <c r="AY138">
+        <v>29</v>
+      </c>
+      <c r="AZ138">
+        <v>21</v>
+      </c>
+      <c r="BA138">
+        <v>12</v>
+      </c>
+      <c r="BB138">
+        <v>6</v>
+      </c>
+      <c r="BC138">
+        <v>18</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['9', '72']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -700,9 +709,6 @@
     <t>['37', '55', '83']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['33', '88']</t>
   </si>
   <si>
@@ -743,6 +749,12 @@
   </si>
   <si>
     <t>['68', '82']</t>
+  </si>
+  <si>
+    <t>['49', '90+5']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1375,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1856,7 +1868,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2187,7 +2199,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2393,7 +2405,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2599,7 +2611,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3217,7 +3229,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3295,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3423,7 +3435,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3629,7 +3641,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3707,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ13">
         <v>1.86</v>
@@ -3835,7 +3847,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3916,7 +3928,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4041,7 +4053,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4119,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4247,7 +4259,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4325,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4659,7 +4671,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4865,7 +4877,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5071,7 +5083,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5483,7 +5495,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5689,7 +5701,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6388,7 +6400,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6591,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.5600000000000001</v>
@@ -6800,7 +6812,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ28">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7006,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7131,7 +7143,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7337,7 +7349,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7415,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7543,7 +7555,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7621,10 +7633,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ32">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7749,7 +7761,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7955,7 +7967,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8161,7 +8173,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8367,7 +8379,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8445,7 +8457,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8573,7 +8585,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9191,7 +9203,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9397,7 +9409,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9475,10 +9487,10 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9603,7 +9615,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10096,7 +10108,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10299,7 +10311,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ45">
         <v>1.22</v>
@@ -10508,7 +10520,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10633,7 +10645,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10714,7 +10726,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -11045,7 +11057,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11535,7 +11547,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -12075,7 +12087,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12153,7 +12165,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12281,7 +12293,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12568,7 +12580,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12693,7 +12705,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12774,7 +12786,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ57">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13105,7 +13117,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13186,7 +13198,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13311,7 +13323,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13723,7 +13735,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13801,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14419,7 +14431,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>1.11</v>
@@ -14625,7 +14637,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -14753,7 +14765,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15165,7 +15177,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15371,7 +15383,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15452,7 +15464,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15577,7 +15589,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15655,7 +15667,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -15783,7 +15795,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16401,7 +16413,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16482,7 +16494,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -16607,7 +16619,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16688,7 +16700,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16813,7 +16825,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17100,7 +17112,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17225,7 +17237,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17303,7 +17315,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ79">
         <v>1.22</v>
@@ -17512,7 +17524,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17637,7 +17649,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17715,7 +17727,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -18049,7 +18061,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18333,7 +18345,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ84">
         <v>1.44</v>
@@ -18539,7 +18551,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85">
         <v>0.89</v>
@@ -18667,7 +18679,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19160,7 +19172,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19491,7 +19503,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19569,7 +19581,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ90">
         <v>1.6</v>
@@ -19697,7 +19709,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19778,7 +19790,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19903,7 +19915,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20109,7 +20121,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20190,7 +20202,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20521,7 +20533,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20805,10 +20817,10 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21757,7 +21769,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21835,7 +21847,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22247,7 +22259,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
         <v>0.89</v>
@@ -22375,7 +22387,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22456,7 +22468,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -22787,7 +22799,7 @@
         <v>157</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="Q106">
         <v>2.85</v>
@@ -22868,7 +22880,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ106">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -22993,7 +23005,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23199,7 +23211,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23611,7 +23623,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23817,7 +23829,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24023,7 +24035,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24101,7 +24113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112">
         <v>1.86</v>
@@ -24229,7 +24241,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24310,7 +24322,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -24513,7 +24525,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>0.75</v>
@@ -24641,7 +24653,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25053,7 +25065,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25337,7 +25349,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ118">
         <v>0.67</v>
@@ -25543,10 +25555,10 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ119">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -25877,7 +25889,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -25955,7 +25967,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>1.86</v>
@@ -26083,7 +26095,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26164,7 +26176,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26370,7 +26382,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="AR123">
         <v>1.82</v>
@@ -26573,7 +26585,7 @@
         <v>0.86</v>
       </c>
       <c r="AP124">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ124">
         <v>0.75</v>
@@ -26701,7 +26713,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26779,7 +26791,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ125">
         <v>0.89</v>
@@ -26907,7 +26919,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27191,10 +27203,10 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.4</v>
@@ -27937,7 +27949,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28143,7 +28155,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28349,7 +28361,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28967,7 +28979,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29048,7 +29060,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29173,7 +29185,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29478,16 +29490,16 @@
         <v>6</v>
       </c>
       <c r="AW138">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AX138">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AY138">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AZ138">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA138">
         <v>12</v>
@@ -29535,6 +29547,830 @@
         <v>0</v>
       </c>
       <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7486980</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45625.65625</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>175</v>
+      </c>
+      <c r="P139" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q139">
+        <v>2.48</v>
+      </c>
+      <c r="R139">
+        <v>2.04</v>
+      </c>
+      <c r="S139">
+        <v>4.9</v>
+      </c>
+      <c r="T139">
+        <v>1.47</v>
+      </c>
+      <c r="U139">
+        <v>2.5</v>
+      </c>
+      <c r="V139">
+        <v>3.2</v>
+      </c>
+      <c r="W139">
+        <v>1.32</v>
+      </c>
+      <c r="X139">
+        <v>8.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.05</v>
+      </c>
+      <c r="Z139">
+        <v>1.92</v>
+      </c>
+      <c r="AA139">
+        <v>3.2</v>
+      </c>
+      <c r="AB139">
+        <v>3.75</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>6.95</v>
+      </c>
+      <c r="AE139">
+        <v>1.38</v>
+      </c>
+      <c r="AF139">
+        <v>2.9</v>
+      </c>
+      <c r="AG139">
+        <v>2.25</v>
+      </c>
+      <c r="AH139">
+        <v>1.57</v>
+      </c>
+      <c r="AI139">
+        <v>2.02</v>
+      </c>
+      <c r="AJ139">
+        <v>1.74</v>
+      </c>
+      <c r="AK139">
+        <v>1.18</v>
+      </c>
+      <c r="AL139">
+        <v>1.26</v>
+      </c>
+      <c r="AM139">
+        <v>1.72</v>
+      </c>
+      <c r="AN139">
+        <v>1.63</v>
+      </c>
+      <c r="AO139">
+        <v>1.5</v>
+      </c>
+      <c r="AP139">
+        <v>1.56</v>
+      </c>
+      <c r="AQ139">
+        <v>1.44</v>
+      </c>
+      <c r="AR139">
+        <v>1.55</v>
+      </c>
+      <c r="AS139">
+        <v>1.37</v>
+      </c>
+      <c r="AT139">
+        <v>2.92</v>
+      </c>
+      <c r="AU139">
+        <v>6</v>
+      </c>
+      <c r="AV139">
+        <v>5</v>
+      </c>
+      <c r="AW139">
+        <v>5</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>13</v>
+      </c>
+      <c r="AZ139">
+        <v>14</v>
+      </c>
+      <c r="BA139">
+        <v>4</v>
+      </c>
+      <c r="BB139">
+        <v>5</v>
+      </c>
+      <c r="BC139">
+        <v>9</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7486640</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>71</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>176</v>
+      </c>
+      <c r="P140" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q140">
+        <v>3.5</v>
+      </c>
+      <c r="R140">
+        <v>1.92</v>
+      </c>
+      <c r="S140">
+        <v>3.45</v>
+      </c>
+      <c r="T140">
+        <v>1.54</v>
+      </c>
+      <c r="U140">
+        <v>2.34</v>
+      </c>
+      <c r="V140">
+        <v>3.48</v>
+      </c>
+      <c r="W140">
+        <v>1.28</v>
+      </c>
+      <c r="X140">
+        <v>9.4</v>
+      </c>
+      <c r="Y140">
+        <v>1.04</v>
+      </c>
+      <c r="Z140">
+        <v>2.4</v>
+      </c>
+      <c r="AA140">
+        <v>2.85</v>
+      </c>
+      <c r="AB140">
+        <v>3</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>6.3</v>
+      </c>
+      <c r="AE140">
+        <v>1.46</v>
+      </c>
+      <c r="AF140">
+        <v>2.6</v>
+      </c>
+      <c r="AG140">
+        <v>2.3</v>
+      </c>
+      <c r="AH140">
+        <v>1.55</v>
+      </c>
+      <c r="AI140">
+        <v>2.03</v>
+      </c>
+      <c r="AJ140">
+        <v>1.73</v>
+      </c>
+      <c r="AK140">
+        <v>1.38</v>
+      </c>
+      <c r="AL140">
+        <v>1.31</v>
+      </c>
+      <c r="AM140">
+        <v>1.37</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
+        <v>0.13</v>
+      </c>
+      <c r="AP140">
+        <v>0.89</v>
+      </c>
+      <c r="AQ140">
+        <v>0.44</v>
+      </c>
+      <c r="AR140">
+        <v>1.45</v>
+      </c>
+      <c r="AS140">
+        <v>1.39</v>
+      </c>
+      <c r="AT140">
+        <v>2.84</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>4</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>14</v>
+      </c>
+      <c r="AZ140">
+        <v>11</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
+        <v>7</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7486642</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45626.52083333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>84</v>
+      </c>
+      <c r="H141" t="s">
+        <v>78</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>177</v>
+      </c>
+      <c r="P141" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q141">
+        <v>3.25</v>
+      </c>
+      <c r="R141">
+        <v>1.92</v>
+      </c>
+      <c r="S141">
+        <v>3.7</v>
+      </c>
+      <c r="T141">
+        <v>1.54</v>
+      </c>
+      <c r="U141">
+        <v>2.35</v>
+      </c>
+      <c r="V141">
+        <v>3.48</v>
+      </c>
+      <c r="W141">
+        <v>1.28</v>
+      </c>
+      <c r="X141">
+        <v>9.9</v>
+      </c>
+      <c r="Y141">
+        <v>1.03</v>
+      </c>
+      <c r="Z141">
+        <v>2.51</v>
+      </c>
+      <c r="AA141">
+        <v>3</v>
+      </c>
+      <c r="AB141">
+        <v>2.72</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>6.45</v>
+      </c>
+      <c r="AE141">
+        <v>1.42</v>
+      </c>
+      <c r="AF141">
+        <v>2.6</v>
+      </c>
+      <c r="AG141">
+        <v>2.15</v>
+      </c>
+      <c r="AH141">
+        <v>1.6</v>
+      </c>
+      <c r="AI141">
+        <v>2.01</v>
+      </c>
+      <c r="AJ141">
+        <v>1.74</v>
+      </c>
+      <c r="AK141">
+        <v>1.32</v>
+      </c>
+      <c r="AL141">
+        <v>1.32</v>
+      </c>
+      <c r="AM141">
+        <v>1.42</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
+        <v>0.63</v>
+      </c>
+      <c r="AP141">
+        <v>1.22</v>
+      </c>
+      <c r="AQ141">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR141">
+        <v>1.41</v>
+      </c>
+      <c r="AS141">
+        <v>1.47</v>
+      </c>
+      <c r="AT141">
+        <v>2.88</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>12</v>
+      </c>
+      <c r="AZ141">
+        <v>11</v>
+      </c>
+      <c r="BA141">
+        <v>4</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>9</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7486637</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45626.64583333334</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>83</v>
+      </c>
+      <c r="H142" t="s">
+        <v>72</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>137</v>
+      </c>
+      <c r="P142" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>1.99</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.48</v>
+      </c>
+      <c r="U142">
+        <v>2.45</v>
+      </c>
+      <c r="V142">
+        <v>3.28</v>
+      </c>
+      <c r="W142">
+        <v>1.31</v>
+      </c>
+      <c r="X142">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y142">
+        <v>1.04</v>
+      </c>
+      <c r="Z142">
+        <v>2.29</v>
+      </c>
+      <c r="AA142">
+        <v>2.95</v>
+      </c>
+      <c r="AB142">
+        <v>2.89</v>
+      </c>
+      <c r="AC142">
+        <v>1.01</v>
+      </c>
+      <c r="AD142">
+        <v>7.9</v>
+      </c>
+      <c r="AE142">
+        <v>1.38</v>
+      </c>
+      <c r="AF142">
+        <v>2.9</v>
+      </c>
+      <c r="AG142">
+        <v>2.2</v>
+      </c>
+      <c r="AH142">
+        <v>1.6</v>
+      </c>
+      <c r="AI142">
+        <v>1.91</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>1.31</v>
+      </c>
+      <c r="AL142">
+        <v>1.29</v>
+      </c>
+      <c r="AM142">
+        <v>1.47</v>
+      </c>
+      <c r="AN142">
+        <v>2.13</v>
+      </c>
+      <c r="AO142">
+        <v>1.38</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+      <c r="AQ142">
+        <v>1.33</v>
+      </c>
+      <c r="AR142">
+        <v>1.14</v>
+      </c>
+      <c r="AS142">
+        <v>1.55</v>
+      </c>
+      <c r="AT142">
+        <v>2.69</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>7</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>2</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1116,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3722,7 +3722,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ29">
         <v>1.44</v>
@@ -9693,7 +9693,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
         <v>0.5600000000000001</v>
@@ -12989,7 +12989,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ58">
         <v>1.22</v>
@@ -13404,7 +13404,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -16288,7 +16288,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -18963,7 +18963,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87">
         <v>1.11</v>
@@ -21438,7 +21438,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21641,7 +21641,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -24116,7 +24116,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -25143,7 +25143,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25970,7 +25970,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26379,7 +26379,7 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ123">
         <v>0.44</v>
@@ -27412,7 +27412,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -29699,13 +29699,13 @@
         <v>5</v>
       </c>
       <c r="AX139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY139">
         <v>13</v>
       </c>
       <c r="AZ139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA139">
         <v>4</v>
@@ -30372,6 +30372,212 @@
       </c>
       <c r="BP142">
         <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7486638</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45627.64583333334</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>86</v>
+      </c>
+      <c r="P143" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q143">
+        <v>3.15</v>
+      </c>
+      <c r="R143">
+        <v>2.03</v>
+      </c>
+      <c r="S143">
+        <v>3.45</v>
+      </c>
+      <c r="T143">
+        <v>1.45</v>
+      </c>
+      <c r="U143">
+        <v>2.55</v>
+      </c>
+      <c r="V143">
+        <v>3.04</v>
+      </c>
+      <c r="W143">
+        <v>1.35</v>
+      </c>
+      <c r="X143">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>2.18</v>
+      </c>
+      <c r="AA143">
+        <v>3.06</v>
+      </c>
+      <c r="AB143">
+        <v>2.98</v>
+      </c>
+      <c r="AC143">
+        <v>1.01</v>
+      </c>
+      <c r="AD143">
+        <v>7.6</v>
+      </c>
+      <c r="AE143">
+        <v>1.34</v>
+      </c>
+      <c r="AF143">
+        <v>3.05</v>
+      </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <v>1.7</v>
+      </c>
+      <c r="AI143">
+        <v>1.83</v>
+      </c>
+      <c r="AJ143">
+        <v>1.91</v>
+      </c>
+      <c r="AK143">
+        <v>1.35</v>
+      </c>
+      <c r="AL143">
+        <v>1.29</v>
+      </c>
+      <c r="AM143">
+        <v>1.42</v>
+      </c>
+      <c r="AN143">
+        <v>2</v>
+      </c>
+      <c r="AO143">
+        <v>1.86</v>
+      </c>
+      <c r="AP143">
+        <v>1.78</v>
+      </c>
+      <c r="AQ143">
+        <v>2</v>
+      </c>
+      <c r="AR143">
+        <v>1.8</v>
+      </c>
+      <c r="AS143">
+        <v>1.28</v>
+      </c>
+      <c r="AT143">
+        <v>3.08</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
+        <v>10</v>
+      </c>
+      <c r="BA143">
+        <v>2</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>5</v>
+      </c>
+      <c r="BD143">
+        <v>1.75</v>
+      </c>
+      <c r="BE143">
+        <v>5.9</v>
+      </c>
+      <c r="BF143">
+        <v>2.52</v>
+      </c>
+      <c r="BG143">
+        <v>1.24</v>
+      </c>
+      <c r="BH143">
+        <v>3.55</v>
+      </c>
+      <c r="BI143">
+        <v>1.5</v>
+      </c>
+      <c r="BJ143">
+        <v>2.4</v>
+      </c>
+      <c r="BK143">
+        <v>1.88</v>
+      </c>
+      <c r="BL143">
+        <v>1.8</v>
+      </c>
+      <c r="BM143">
+        <v>2.52</v>
+      </c>
+      <c r="BN143">
+        <v>1.46</v>
+      </c>
+      <c r="BO143">
+        <v>3.55</v>
+      </c>
+      <c r="BP143">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -756,6 +756,9 @@
   <si>
     <t>['90+9']</t>
   </si>
+  <si>
+    <t>['9', '40', '48', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3310,7 +3313,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3516,7 +3519,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3925,7 +3928,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>0.44</v>
@@ -4543,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>0.89</v>
@@ -6397,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ26">
         <v>0.44</v>
@@ -7430,7 +7433,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -9902,7 +9905,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.6</v>
@@ -10517,7 +10520,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -11962,7 +11965,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12577,7 +12580,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -13610,7 +13613,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>2.06</v>
@@ -14019,7 +14022,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -15258,7 +15261,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -16079,7 +16082,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ73">
         <v>1.22</v>
@@ -16903,7 +16906,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -18142,7 +18145,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.79</v>
@@ -18760,7 +18763,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19993,7 +19996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -21023,7 +21026,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21232,7 +21235,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.57</v>
@@ -21850,7 +21853,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -23289,7 +23292,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ108">
         <v>1.11</v>
@@ -24528,7 +24531,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.16</v>
@@ -24937,7 +24940,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>0.89</v>
@@ -25146,7 +25149,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25761,7 +25764,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ120">
         <v>0.67</v>
@@ -26588,7 +26591,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ124">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.43</v>
@@ -26997,10 +27000,10 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27409,7 +27412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ128">
         <v>2</v>
@@ -27618,7 +27621,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -30388,7 +30391,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45627.64583333334</v>
+        <v>45626.875</v>
       </c>
       <c r="F143">
         <v>18</v>
@@ -30578,6 +30581,418 @@
       </c>
       <c r="BP143">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7486639</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45628.52083333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>82</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>86</v>
+      </c>
+      <c r="P144" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q144">
+        <v>2.38</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>5.5</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.25</v>
+      </c>
+      <c r="W144">
+        <v>1.33</v>
+      </c>
+      <c r="X144">
+        <v>10</v>
+      </c>
+      <c r="Y144">
+        <v>1.06</v>
+      </c>
+      <c r="Z144">
+        <v>1.65</v>
+      </c>
+      <c r="AA144">
+        <v>3.35</v>
+      </c>
+      <c r="AB144">
+        <v>4.75</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.34</v>
+      </c>
+      <c r="AF144">
+        <v>3.1</v>
+      </c>
+      <c r="AG144">
+        <v>2.15</v>
+      </c>
+      <c r="AH144">
+        <v>1.62</v>
+      </c>
+      <c r="AI144">
+        <v>2.1</v>
+      </c>
+      <c r="AJ144">
+        <v>1.67</v>
+      </c>
+      <c r="AK144">
+        <v>1.17</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.83</v>
+      </c>
+      <c r="AN144">
+        <v>2</v>
+      </c>
+      <c r="AO144">
+        <v>0.75</v>
+      </c>
+      <c r="AP144">
+        <v>1.75</v>
+      </c>
+      <c r="AQ144">
+        <v>1</v>
+      </c>
+      <c r="AR144">
+        <v>1.39</v>
+      </c>
+      <c r="AS144">
+        <v>1.28</v>
+      </c>
+      <c r="AT144">
+        <v>2.67</v>
+      </c>
+      <c r="AU144">
+        <v>8</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>14</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>28</v>
+      </c>
+      <c r="AZ144">
+        <v>10</v>
+      </c>
+      <c r="BA144">
+        <v>10</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>12</v>
+      </c>
+      <c r="BD144">
+        <v>1.21</v>
+      </c>
+      <c r="BE144">
+        <v>9.1</v>
+      </c>
+      <c r="BF144">
+        <v>5.3</v>
+      </c>
+      <c r="BG144">
+        <v>1.28</v>
+      </c>
+      <c r="BH144">
+        <v>3.3</v>
+      </c>
+      <c r="BI144">
+        <v>1.52</v>
+      </c>
+      <c r="BJ144">
+        <v>2.32</v>
+      </c>
+      <c r="BK144">
+        <v>1.92</v>
+      </c>
+      <c r="BL144">
+        <v>1.75</v>
+      </c>
+      <c r="BM144">
+        <v>2.6</v>
+      </c>
+      <c r="BN144">
+        <v>1.43</v>
+      </c>
+      <c r="BO144">
+        <v>3.7</v>
+      </c>
+      <c r="BP144">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7486981</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45628.64583333334</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>85</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>4</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>175</v>
+      </c>
+      <c r="P145" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q145">
+        <v>4.75</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>2.75</v>
+      </c>
+      <c r="T145">
+        <v>1.53</v>
+      </c>
+      <c r="U145">
+        <v>2.38</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.29</v>
+      </c>
+      <c r="X145">
+        <v>11</v>
+      </c>
+      <c r="Y145">
+        <v>1.05</v>
+      </c>
+      <c r="Z145">
+        <v>3.65</v>
+      </c>
+      <c r="AA145">
+        <v>3</v>
+      </c>
+      <c r="AB145">
+        <v>1.95</v>
+      </c>
+      <c r="AC145">
+        <v>1.09</v>
+      </c>
+      <c r="AD145">
+        <v>6.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.5</v>
+      </c>
+      <c r="AF145">
+        <v>2.4</v>
+      </c>
+      <c r="AG145">
+        <v>2.35</v>
+      </c>
+      <c r="AH145">
+        <v>1.53</v>
+      </c>
+      <c r="AI145">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145">
+        <v>1.67</v>
+      </c>
+      <c r="AK145">
+        <v>1.61</v>
+      </c>
+      <c r="AL145">
+        <v>1.29</v>
+      </c>
+      <c r="AM145">
+        <v>1.21</v>
+      </c>
+      <c r="AN145">
+        <v>1.25</v>
+      </c>
+      <c r="AO145">
+        <v>1.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.11</v>
+      </c>
+      <c r="AQ145">
+        <v>1.67</v>
+      </c>
+      <c r="AR145">
+        <v>1.39</v>
+      </c>
+      <c r="AS145">
+        <v>1.41</v>
+      </c>
+      <c r="AT145">
+        <v>2.8</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>10</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>14</v>
+      </c>
+      <c r="AZ145">
+        <v>20</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>6</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>2.38</v>
+      </c>
+      <c r="BE145">
+        <v>5.8</v>
+      </c>
+      <c r="BF145">
+        <v>1.88</v>
+      </c>
+      <c r="BG145">
+        <v>1.29</v>
+      </c>
+      <c r="BH145">
+        <v>3.25</v>
+      </c>
+      <c r="BI145">
+        <v>1.55</v>
+      </c>
+      <c r="BJ145">
+        <v>2.22</v>
+      </c>
+      <c r="BK145">
+        <v>2</v>
+      </c>
+      <c r="BL145">
+        <v>1.7</v>
+      </c>
+      <c r="BM145">
+        <v>2.68</v>
+      </c>
+      <c r="BN145">
+        <v>1.4</v>
+      </c>
+      <c r="BO145">
+        <v>3.8</v>
+      </c>
+      <c r="BP145">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -30391,7 +30391,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45626.875</v>
+        <v>45627.64583333334</v>
       </c>
       <c r="F143">
         <v>18</v>
@@ -30520,13 +30520,13 @@
         <v>6</v>
       </c>
       <c r="AV143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX143">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY143">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>['9', '72']</t>
+  </si>
+  <si>
+    <t>['74', '90+4']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -1119,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1381,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1868,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ4">
         <v>0.5600000000000001</v>
@@ -2077,7 +2080,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2202,7 +2205,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2408,7 +2411,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2614,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3232,7 +3235,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3438,7 +3441,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3644,7 +3647,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3850,7 +3853,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4056,7 +4059,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4262,7 +4265,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4674,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4880,7 +4883,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5086,7 +5089,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5370,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ21">
         <v>1.22</v>
@@ -5498,7 +5501,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5704,7 +5707,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6197,7 +6200,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -7146,7 +7149,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7352,7 +7355,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7558,7 +7561,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7764,7 +7767,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7970,7 +7973,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8176,7 +8179,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8382,7 +8385,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8463,7 +8466,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8588,7 +8591,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8666,7 +8669,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ37">
         <v>1.33</v>
@@ -9206,7 +9209,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9412,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9618,7 +9621,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10648,7 +10651,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11060,7 +11063,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11141,7 +11144,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ49">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11344,7 +11347,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ50">
         <v>1.11</v>
@@ -12090,7 +12093,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12296,7 +12299,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12708,7 +12711,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12995,7 +12998,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ58">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13120,7 +13123,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13326,7 +13329,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13738,7 +13741,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14228,7 +14231,7 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14768,7 +14771,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15180,7 +15183,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15386,7 +15389,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15592,7 +15595,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15798,7 +15801,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16416,7 +16419,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16622,7 +16625,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16828,7 +16831,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17240,7 +17243,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17321,7 +17324,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ79">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -17652,7 +17655,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18064,7 +18067,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18682,7 +18685,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18760,7 +18763,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ86">
         <v>1.67</v>
@@ -19506,7 +19509,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19712,7 +19715,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19918,7 +19921,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20124,7 +20127,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20411,7 +20414,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20536,7 +20539,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21232,7 +21235,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21772,7 +21775,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22390,7 +22393,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23008,7 +23011,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23214,7 +23217,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23501,7 +23504,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ109">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -23626,7 +23629,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23832,7 +23835,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24038,7 +24041,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24244,7 +24247,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24322,7 +24325,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ113">
         <v>1.44</v>
@@ -24656,7 +24659,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25068,7 +25071,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25892,7 +25895,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26098,7 +26101,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26716,7 +26719,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26922,7 +26925,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27824,7 +27827,7 @@
         <v>0.63</v>
       </c>
       <c r="AP130">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ130">
         <v>0.5600000000000001</v>
@@ -27952,7 +27955,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28158,7 +28161,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28364,7 +28367,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28445,7 +28448,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ133">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28982,7 +28985,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29188,7 +29191,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29806,7 +29809,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30218,7 +30221,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30424,7 +30427,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30630,7 +30633,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30836,7 +30839,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -30993,6 +30996,212 @@
       </c>
       <c r="BP145">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7486643</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45632.625</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>178</v>
+      </c>
+      <c r="P146" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q146">
+        <v>3.25</v>
+      </c>
+      <c r="R146">
+        <v>2.2</v>
+      </c>
+      <c r="S146">
+        <v>3.25</v>
+      </c>
+      <c r="T146">
+        <v>1.4</v>
+      </c>
+      <c r="U146">
+        <v>2.75</v>
+      </c>
+      <c r="V146">
+        <v>2.75</v>
+      </c>
+      <c r="W146">
+        <v>1.4</v>
+      </c>
+      <c r="X146">
+        <v>8</v>
+      </c>
+      <c r="Y146">
+        <v>1.08</v>
+      </c>
+      <c r="Z146">
+        <v>2.5</v>
+      </c>
+      <c r="AA146">
+        <v>3.1</v>
+      </c>
+      <c r="AB146">
+        <v>2.75</v>
+      </c>
+      <c r="AC146">
+        <v>1.06</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.26</v>
+      </c>
+      <c r="AF146">
+        <v>3.6</v>
+      </c>
+      <c r="AG146">
+        <v>2.11</v>
+      </c>
+      <c r="AH146">
+        <v>1.7</v>
+      </c>
+      <c r="AI146">
+        <v>1.67</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.35</v>
+      </c>
+      <c r="AL146">
+        <v>1.29</v>
+      </c>
+      <c r="AM146">
+        <v>1.41</v>
+      </c>
+      <c r="AN146">
+        <v>1.56</v>
+      </c>
+      <c r="AO146">
+        <v>1.22</v>
+      </c>
+      <c r="AP146">
+        <v>1.7</v>
+      </c>
+      <c r="AQ146">
+        <v>1.1</v>
+      </c>
+      <c r="AR146">
+        <v>1.46</v>
+      </c>
+      <c r="AS146">
+        <v>1.43</v>
+      </c>
+      <c r="AT146">
+        <v>2.89</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>16</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>5</v>
+      </c>
+      <c r="BD146">
+        <v>1.66</v>
+      </c>
+      <c r="BE146">
+        <v>6.4</v>
+      </c>
+      <c r="BF146">
+        <v>2.5</v>
+      </c>
+      <c r="BG146">
+        <v>1.54</v>
+      </c>
+      <c r="BH146">
+        <v>2.25</v>
+      </c>
+      <c r="BI146">
+        <v>1.92</v>
+      </c>
+      <c r="BJ146">
+        <v>1.75</v>
+      </c>
+      <c r="BK146">
+        <v>2.48</v>
+      </c>
+      <c r="BL146">
+        <v>1.45</v>
+      </c>
+      <c r="BM146">
+        <v>3.3</v>
+      </c>
+      <c r="BN146">
+        <v>1.27</v>
+      </c>
+      <c r="BO146">
+        <v>4.4</v>
+      </c>
+      <c r="BP146">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['74', '90+4']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -761,6 +764,9 @@
   </si>
   <si>
     <t>['9', '40', '48', '81']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1387,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1668,7 +1674,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2205,7 +2211,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2411,7 +2417,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2492,7 +2498,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2617,7 +2623,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2901,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>0.5600000000000001</v>
@@ -3235,7 +3241,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3441,7 +3447,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3647,7 +3653,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3853,7 +3859,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4059,7 +4065,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4265,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4343,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4677,7 +4683,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4883,7 +4889,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5089,7 +5095,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5376,7 +5382,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ21">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>1.66</v>
@@ -5501,7 +5507,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5707,7 +5713,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5788,7 +5794,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -6197,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>1.1</v>
@@ -7149,7 +7155,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7355,7 +7361,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7561,7 +7567,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7767,7 +7773,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7973,7 +7979,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8179,7 +8185,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8385,7 +8391,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8463,7 +8469,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ36">
         <v>1.1</v>
@@ -8591,7 +8597,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8672,7 +8678,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9081,7 +9087,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>1.6</v>
@@ -9209,7 +9215,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9290,7 +9296,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ40">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9415,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9621,7 +9627,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10320,7 +10326,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ45">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.51</v>
@@ -10651,7 +10657,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10935,7 +10941,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.44</v>
@@ -11063,7 +11069,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11556,7 +11562,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12093,7 +12099,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12171,7 +12177,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ54">
         <v>1.6</v>
@@ -12299,7 +12305,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12711,7 +12717,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13123,7 +13129,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13329,7 +13335,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13741,7 +13747,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14028,7 +14034,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ63">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -14643,7 +14649,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -14771,7 +14777,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14849,7 +14855,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
         <v>0.89</v>
@@ -15058,7 +15064,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -15183,7 +15189,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15389,7 +15395,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15595,7 +15601,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15801,7 +15807,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16088,7 +16094,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ73">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16419,7 +16425,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16625,7 +16631,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16831,7 +16837,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16912,7 +16918,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -17243,7 +17249,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17527,7 +17533,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>0.44</v>
@@ -17655,7 +17661,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18067,7 +18073,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18557,7 +18563,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ85">
         <v>0.89</v>
@@ -18685,7 +18691,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19384,7 +19390,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.6</v>
@@ -19509,7 +19515,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19715,7 +19721,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19921,7 +19927,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20002,7 +20008,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20127,7 +20133,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20539,7 +20545,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20823,7 +20829,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ96">
         <v>0.44</v>
@@ -21441,7 +21447,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21775,7 +21781,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22393,7 +22399,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22883,7 +22889,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>0.5600000000000001</v>
@@ -23011,7 +23017,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23092,7 +23098,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23217,7 +23223,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23629,7 +23635,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23835,7 +23841,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23916,7 +23922,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ111">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24041,7 +24047,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24119,7 +24125,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24247,7 +24253,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24659,7 +24665,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25071,7 +25077,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25895,7 +25901,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26101,7 +26107,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26719,7 +26725,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26925,7 +26931,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27209,7 +27215,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ127">
         <v>1.44</v>
@@ -27955,7 +27961,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28161,7 +28167,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28367,7 +28373,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28857,10 +28863,10 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ135">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR135">
         <v>1.36</v>
@@ -28985,7 +28991,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29191,7 +29197,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29272,7 +29278,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR137">
         <v>1.59</v>
@@ -29809,7 +29815,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30093,7 +30099,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ141">
         <v>0.5600000000000001</v>
@@ -30221,7 +30227,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30427,7 +30433,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30633,7 +30639,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30839,7 +30845,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31202,6 +31208,418 @@
       </c>
       <c r="BP146">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7486648</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45633.5</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>84</v>
+      </c>
+      <c r="H147" t="s">
+        <v>83</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>86</v>
+      </c>
+      <c r="P147" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>3</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.5</v>
+      </c>
+      <c r="V147">
+        <v>3.4</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>10</v>
+      </c>
+      <c r="Y147">
+        <v>1.06</v>
+      </c>
+      <c r="Z147">
+        <v>3</v>
+      </c>
+      <c r="AA147">
+        <v>3</v>
+      </c>
+      <c r="AB147">
+        <v>2.4</v>
+      </c>
+      <c r="AC147">
+        <v>1.09</v>
+      </c>
+      <c r="AD147">
+        <v>6.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.4</v>
+      </c>
+      <c r="AF147">
+        <v>2.8</v>
+      </c>
+      <c r="AG147">
+        <v>2.41</v>
+      </c>
+      <c r="AH147">
+        <v>1.5</v>
+      </c>
+      <c r="AI147">
+        <v>1.91</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>1.44</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.32</v>
+      </c>
+      <c r="AN147">
+        <v>1.22</v>
+      </c>
+      <c r="AO147">
+        <v>1.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.1</v>
+      </c>
+      <c r="AQ147">
+        <v>1.4</v>
+      </c>
+      <c r="AR147">
+        <v>1.41</v>
+      </c>
+      <c r="AS147">
+        <v>1.19</v>
+      </c>
+      <c r="AT147">
+        <v>2.6</v>
+      </c>
+      <c r="AU147">
+        <v>4</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>13</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>21</v>
+      </c>
+      <c r="AZ147">
+        <v>9</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>8</v>
+      </c>
+      <c r="BD147">
+        <v>1.56</v>
+      </c>
+      <c r="BE147">
+        <v>6.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.7</v>
+      </c>
+      <c r="BG147">
+        <v>1.48</v>
+      </c>
+      <c r="BH147">
+        <v>2.4</v>
+      </c>
+      <c r="BI147">
+        <v>1.8</v>
+      </c>
+      <c r="BJ147">
+        <v>1.86</v>
+      </c>
+      <c r="BK147">
+        <v>2.28</v>
+      </c>
+      <c r="BL147">
+        <v>1.52</v>
+      </c>
+      <c r="BM147">
+        <v>2.95</v>
+      </c>
+      <c r="BN147">
+        <v>1.33</v>
+      </c>
+      <c r="BO147">
+        <v>4</v>
+      </c>
+      <c r="BP147">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7486644</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45633.625</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>77</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>179</v>
+      </c>
+      <c r="P148" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>3.21</v>
+      </c>
+      <c r="AA148">
+        <v>3.02</v>
+      </c>
+      <c r="AB148">
+        <v>2.34</v>
+      </c>
+      <c r="AC148">
+        <v>1.08</v>
+      </c>
+      <c r="AD148">
+        <v>7</v>
+      </c>
+      <c r="AE148">
+        <v>1.37</v>
+      </c>
+      <c r="AF148">
+        <v>2.95</v>
+      </c>
+      <c r="AG148">
+        <v>2.03</v>
+      </c>
+      <c r="AH148">
+        <v>1.72</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
+        <v>1.51</v>
+      </c>
+      <c r="AL148">
+        <v>1.29</v>
+      </c>
+      <c r="AM148">
+        <v>1.27</v>
+      </c>
+      <c r="AN148">
+        <v>1.56</v>
+      </c>
+      <c r="AO148">
+        <v>1.33</v>
+      </c>
+      <c r="AP148">
+        <v>1.5</v>
+      </c>
+      <c r="AQ148">
+        <v>1.3</v>
+      </c>
+      <c r="AR148">
+        <v>1.32</v>
+      </c>
+      <c r="AS148">
+        <v>1.52</v>
+      </c>
+      <c r="AT148">
+        <v>2.84</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>1</v>
+      </c>
+      <c r="AX148">
+        <v>13</v>
+      </c>
+      <c r="AY148">
+        <v>6</v>
+      </c>
+      <c r="AZ148">
+        <v>20</v>
+      </c>
+      <c r="BA148">
+        <v>1</v>
+      </c>
+      <c r="BB148">
+        <v>6</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>1.97</v>
+      </c>
+      <c r="BE148">
+        <v>6.25</v>
+      </c>
+      <c r="BF148">
+        <v>2.05</v>
+      </c>
+      <c r="BG148">
+        <v>1.36</v>
+      </c>
+      <c r="BH148">
+        <v>2.8</v>
+      </c>
+      <c r="BI148">
+        <v>1.63</v>
+      </c>
+      <c r="BJ148">
+        <v>2.08</v>
+      </c>
+      <c r="BK148">
+        <v>2.02</v>
+      </c>
+      <c r="BL148">
+        <v>1.67</v>
+      </c>
+      <c r="BM148">
+        <v>2.63</v>
+      </c>
+      <c r="BN148">
+        <v>1.41</v>
+      </c>
+      <c r="BO148">
+        <v>3.45</v>
+      </c>
+      <c r="BP148">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,15 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['45+1', '46', '86']</t>
+  </si>
+  <si>
+    <t>['28', '79']</t>
+  </si>
+  <si>
+    <t>['12', '57']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -767,6 +776,12 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['26', '58', '63', '78']</t>
+  </si>
+  <si>
+    <t>['65', '69']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1402,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1468,7 +1483,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2083,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ5">
         <v>1.1</v>
@@ -2211,7 +2226,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2289,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1.6</v>
@@ -2417,7 +2432,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2623,7 +2638,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3113,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3241,7 +3256,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3447,7 +3462,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3653,7 +3668,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3859,7 +3874,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4065,7 +4080,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4271,7 +4286,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4558,7 +4573,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4683,7 +4698,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4764,7 +4779,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4889,7 +4904,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4967,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5095,7 +5110,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5173,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ20">
         <v>0.5600000000000001</v>
@@ -5507,7 +5522,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5588,7 +5603,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -5713,7 +5728,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5997,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -7155,7 +7170,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7361,7 +7376,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7567,7 +7582,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7773,7 +7788,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7851,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -7979,7 +7994,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8060,7 +8075,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8185,7 +8200,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8263,7 +8278,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>1.44</v>
@@ -8391,7 +8406,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8597,7 +8612,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8884,7 +8899,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9215,7 +9230,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9293,7 +9308,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9421,7 +9436,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9627,7 +9642,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10117,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ44">
         <v>0.5600000000000001</v>
@@ -10657,7 +10672,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11069,7 +11084,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11147,7 +11162,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ49">
         <v>1.1</v>
@@ -11356,7 +11371,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ50">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -11768,7 +11783,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12099,7 +12114,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12305,7 +12320,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12383,10 +12398,10 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12717,7 +12732,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13129,7 +13144,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13335,7 +13350,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13619,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13747,7 +13762,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14240,7 +14255,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14446,7 +14461,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14777,7 +14792,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14858,7 +14873,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15061,7 +15076,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68">
         <v>1.3</v>
@@ -15189,7 +15204,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15395,7 +15410,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15473,7 +15488,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ70">
         <v>0.44</v>
@@ -15601,7 +15616,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15807,7 +15822,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16425,7 +16440,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16503,7 +16518,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ75">
         <v>1.44</v>
@@ -16631,7 +16646,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16837,7 +16852,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17121,7 +17136,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
         <v>0.5600000000000001</v>
@@ -17249,7 +17264,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17661,7 +17676,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17742,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -17945,7 +17960,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ82">
         <v>1.6</v>
@@ -18073,7 +18088,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18566,7 +18581,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ85">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -18691,7 +18706,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18978,7 +18993,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ87">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19181,7 +19196,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19515,7 +19530,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19721,7 +19736,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19927,7 +19942,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20133,7 +20148,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20545,7 +20560,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20623,7 +20638,7 @@
         <v>0.83</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -21656,7 +21671,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -21781,7 +21796,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22065,10 +22080,10 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22274,7 +22289,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22399,7 +22414,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22683,7 +22698,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>0.5600000000000001</v>
@@ -23017,7 +23032,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23223,7 +23238,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23304,7 +23319,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ108">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23507,7 +23522,7 @@
         <v>1.29</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ109">
         <v>1.1</v>
@@ -23635,7 +23650,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23841,7 +23856,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24047,7 +24062,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24253,7 +24268,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24665,7 +24680,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24743,7 +24758,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ115">
         <v>1.44</v>
@@ -24952,7 +24967,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -25077,7 +25092,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25364,7 +25379,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ118">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -25776,7 +25791,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -25901,7 +25916,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26107,7 +26122,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26185,7 +26200,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26725,7 +26740,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26806,7 +26821,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ125">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR125">
         <v>1.4</v>
@@ -26931,7 +26946,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27961,7 +27976,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28167,7 +28182,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28373,7 +28388,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28657,10 +28672,10 @@
         <v>1.25</v>
       </c>
       <c r="AP134">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ134">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR134">
         <v>2.06</v>
@@ -28991,7 +29006,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29197,7 +29212,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29275,7 +29290,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
         <v>1.3</v>
@@ -29484,7 +29499,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ138">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -29815,7 +29830,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30227,7 +30242,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30433,7 +30448,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30639,7 +30654,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30845,7 +30860,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31215,7 +31230,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7486648</v>
+        <v>7486644</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31224,46 +31239,46 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45633.5</v>
+        <v>45632.875</v>
       </c>
       <c r="F147">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H147" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M147">
         <v>1</v>
       </c>
       <c r="N147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O147" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="P147" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="Q147">
         <v>4</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
         <v>3</v>
@@ -31287,133 +31302,133 @@
         <v>1.06</v>
       </c>
       <c r="Z147">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="AA147">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AB147">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AC147">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD147">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE147">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF147">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AG147">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="AH147">
+        <v>1.72</v>
+      </c>
+      <c r="AI147">
+        <v>1.83</v>
+      </c>
+      <c r="AJ147">
+        <v>1.83</v>
+      </c>
+      <c r="AK147">
+        <v>1.51</v>
+      </c>
+      <c r="AL147">
+        <v>1.29</v>
+      </c>
+      <c r="AM147">
+        <v>1.27</v>
+      </c>
+      <c r="AN147">
+        <v>1.56</v>
+      </c>
+      <c r="AO147">
+        <v>1.33</v>
+      </c>
+      <c r="AP147">
         <v>1.5</v>
       </c>
-      <c r="AI147">
-        <v>1.91</v>
-      </c>
-      <c r="AJ147">
-        <v>1.8</v>
-      </c>
-      <c r="AK147">
-        <v>1.44</v>
-      </c>
-      <c r="AL147">
+      <c r="AQ147">
         <v>1.3</v>
       </c>
-      <c r="AM147">
+      <c r="AR147">
         <v>1.32</v>
       </c>
-      <c r="AN147">
-        <v>1.22</v>
-      </c>
-      <c r="AO147">
-        <v>1.22</v>
-      </c>
-      <c r="AP147">
-        <v>1.1</v>
-      </c>
-      <c r="AQ147">
-        <v>1.4</v>
-      </c>
-      <c r="AR147">
-        <v>1.41</v>
-      </c>
       <c r="AS147">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AT147">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="AU147">
         <v>4</v>
       </c>
       <c r="AV147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW147">
+        <v>1</v>
+      </c>
+      <c r="AX147">
         <v>13</v>
       </c>
-      <c r="AX147">
-        <v>2</v>
-      </c>
       <c r="AY147">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AZ147">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BA147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC147">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD147">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="BE147">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF147">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="BG147">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH147">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BI147">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BJ147">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BK147">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BL147">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="BM147">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BN147">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BO147">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="BP147">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31421,7 +31436,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7486644</v>
+        <v>7486648</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31430,46 +31445,46 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45633.625</v>
+        <v>45633.5</v>
       </c>
       <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H148" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M148">
         <v>1</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="P148" t="s">
-        <v>196</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>4</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S148">
         <v>3</v>
@@ -31493,133 +31508,751 @@
         <v>1.06</v>
       </c>
       <c r="Z148">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="AA148">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="AB148">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AC148">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD148">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE148">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF148">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AG148">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="AH148">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AI148">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ148">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK148">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AL148">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM148">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AN148">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AO148">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ148">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AR148">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS148">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="AT148">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="AU148">
         <v>4</v>
       </c>
       <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>13</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>21</v>
+      </c>
+      <c r="AZ148">
+        <v>9</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>1.56</v>
+      </c>
+      <c r="BE148">
+        <v>6.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.7</v>
+      </c>
+      <c r="BG148">
+        <v>1.48</v>
+      </c>
+      <c r="BH148">
+        <v>2.4</v>
+      </c>
+      <c r="BI148">
+        <v>1.8</v>
+      </c>
+      <c r="BJ148">
+        <v>1.86</v>
+      </c>
+      <c r="BK148">
+        <v>2.28</v>
+      </c>
+      <c r="BL148">
+        <v>1.52</v>
+      </c>
+      <c r="BM148">
+        <v>2.95</v>
+      </c>
+      <c r="BN148">
+        <v>1.33</v>
+      </c>
+      <c r="BO148">
+        <v>4</v>
+      </c>
+      <c r="BP148">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7486646</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45634.35416666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>4</v>
+      </c>
+      <c r="N149">
+        <v>7</v>
+      </c>
+      <c r="O149" t="s">
+        <v>180</v>
+      </c>
+      <c r="P149" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q149">
+        <v>2.75</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>4.5</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>1.92</v>
+      </c>
+      <c r="AA149">
+        <v>3.25</v>
+      </c>
+      <c r="AB149">
+        <v>4.2</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
+        <v>8</v>
+      </c>
+      <c r="AE149">
+        <v>1.37</v>
+      </c>
+      <c r="AF149">
+        <v>2.95</v>
+      </c>
+      <c r="AG149">
+        <v>2.12</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>1.22</v>
+      </c>
+      <c r="AL149">
+        <v>1.26</v>
+      </c>
+      <c r="AM149">
+        <v>1.64</v>
+      </c>
+      <c r="AN149">
+        <v>1.33</v>
+      </c>
+      <c r="AO149">
+        <v>1.11</v>
+      </c>
+      <c r="AP149">
+        <v>1.2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.3</v>
+      </c>
+      <c r="AR149">
+        <v>1.6</v>
+      </c>
+      <c r="AS149">
+        <v>1.24</v>
+      </c>
+      <c r="AT149">
+        <v>2.84</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>10</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
         <v>6</v>
       </c>
-      <c r="AW148">
-        <v>1</v>
-      </c>
-      <c r="AX148">
+      <c r="AY149">
+        <v>20</v>
+      </c>
+      <c r="AZ149">
+        <v>18</v>
+      </c>
+      <c r="BA149">
+        <v>8</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
         <v>13</v>
       </c>
-      <c r="AY148">
+      <c r="BD149">
+        <v>1.5</v>
+      </c>
+      <c r="BE149">
+        <v>6.75</v>
+      </c>
+      <c r="BF149">
+        <v>2.8</v>
+      </c>
+      <c r="BG149">
+        <v>1.3</v>
+      </c>
+      <c r="BH149">
+        <v>3.05</v>
+      </c>
+      <c r="BI149">
+        <v>1.54</v>
+      </c>
+      <c r="BJ149">
+        <v>2.25</v>
+      </c>
+      <c r="BK149">
+        <v>1.88</v>
+      </c>
+      <c r="BL149">
+        <v>1.79</v>
+      </c>
+      <c r="BM149">
+        <v>2.38</v>
+      </c>
+      <c r="BN149">
+        <v>1.49</v>
+      </c>
+      <c r="BO149">
+        <v>3.05</v>
+      </c>
+      <c r="BP149">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7486649</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45634.47916666666</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>181</v>
+      </c>
+      <c r="P150" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>3.75</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>10</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>2.6</v>
+      </c>
+      <c r="AA150">
+        <v>3.2</v>
+      </c>
+      <c r="AB150">
+        <v>2.7</v>
+      </c>
+      <c r="AC150">
+        <v>1.07</v>
+      </c>
+      <c r="AD150">
+        <v>7.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.35</v>
+      </c>
+      <c r="AF150">
+        <v>3.05</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.7</v>
+      </c>
+      <c r="AI150">
+        <v>1.83</v>
+      </c>
+      <c r="AJ150">
+        <v>1.83</v>
+      </c>
+      <c r="AK150">
+        <v>1.35</v>
+      </c>
+      <c r="AL150">
+        <v>1.29</v>
+      </c>
+      <c r="AM150">
+        <v>1.42</v>
+      </c>
+      <c r="AN150">
+        <v>1.78</v>
+      </c>
+      <c r="AO150">
+        <v>0.89</v>
+      </c>
+      <c r="AP150">
+        <v>1.7</v>
+      </c>
+      <c r="AQ150">
+        <v>0.9</v>
+      </c>
+      <c r="AR150">
+        <v>1.49</v>
+      </c>
+      <c r="AS150">
+        <v>1.27</v>
+      </c>
+      <c r="AT150">
+        <v>2.76</v>
+      </c>
+      <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
+        <v>7</v>
+      </c>
+      <c r="AW150">
         <v>6</v>
       </c>
-      <c r="AZ148">
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
         <v>20</v>
       </c>
-      <c r="BA148">
-        <v>1</v>
-      </c>
-      <c r="BB148">
+      <c r="AZ150">
+        <v>14</v>
+      </c>
+      <c r="BA150">
         <v>6</v>
       </c>
-      <c r="BC148">
+      <c r="BB150">
+        <v>5</v>
+      </c>
+      <c r="BC150">
+        <v>11</v>
+      </c>
+      <c r="BD150">
+        <v>1.7</v>
+      </c>
+      <c r="BE150">
+        <v>6.75</v>
+      </c>
+      <c r="BF150">
+        <v>2.4</v>
+      </c>
+      <c r="BG150">
+        <v>1.25</v>
+      </c>
+      <c r="BH150">
+        <v>3.4</v>
+      </c>
+      <c r="BI150">
+        <v>1.43</v>
+      </c>
+      <c r="BJ150">
+        <v>2.55</v>
+      </c>
+      <c r="BK150">
+        <v>1.71</v>
+      </c>
+      <c r="BL150">
+        <v>1.96</v>
+      </c>
+      <c r="BM150">
+        <v>2.12</v>
+      </c>
+      <c r="BN150">
+        <v>1.61</v>
+      </c>
+      <c r="BO150">
+        <v>2.7</v>
+      </c>
+      <c r="BP150">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7486982</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45634.64583333334</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>76</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>182</v>
+      </c>
+      <c r="P151" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q151">
+        <v>1.83</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>1.36</v>
+      </c>
+      <c r="U151">
+        <v>3</v>
+      </c>
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
+        <v>1.44</v>
+      </c>
+      <c r="X151">
         <v>7</v>
       </c>
-      <c r="BD148">
-        <v>1.97</v>
-      </c>
-      <c r="BE148">
-        <v>6.25</v>
-      </c>
-      <c r="BF148">
-        <v>2.05</v>
-      </c>
-      <c r="BG148">
-        <v>1.36</v>
-      </c>
-      <c r="BH148">
-        <v>2.8</v>
-      </c>
-      <c r="BI148">
+      <c r="Y151">
+        <v>1.1</v>
+      </c>
+      <c r="Z151">
+        <v>1.33</v>
+      </c>
+      <c r="AA151">
+        <v>4.5</v>
+      </c>
+      <c r="AB151">
+        <v>8</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.24</v>
+      </c>
+      <c r="AF151">
+        <v>3.8</v>
+      </c>
+      <c r="AG151">
+        <v>1.8</v>
+      </c>
+      <c r="AH151">
+        <v>1.9</v>
+      </c>
+      <c r="AI151">
+        <v>2.2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.62</v>
+      </c>
+      <c r="AK151">
+        <v>1.07</v>
+      </c>
+      <c r="AL151">
+        <v>1.14</v>
+      </c>
+      <c r="AM151">
+        <v>2.43</v>
+      </c>
+      <c r="AN151">
+        <v>1.67</v>
+      </c>
+      <c r="AO151">
+        <v>0.67</v>
+      </c>
+      <c r="AP151">
+        <v>1.8</v>
+      </c>
+      <c r="AQ151">
+        <v>0.6</v>
+      </c>
+      <c r="AR151">
+        <v>2.01</v>
+      </c>
+      <c r="AS151">
+        <v>1.18</v>
+      </c>
+      <c r="AT151">
+        <v>3.19</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>19</v>
+      </c>
+      <c r="AZ151">
+        <v>5</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.29</v>
+      </c>
+      <c r="BE151">
+        <v>7.5</v>
+      </c>
+      <c r="BF151">
+        <v>3.95</v>
+      </c>
+      <c r="BG151">
+        <v>1.4</v>
+      </c>
+      <c r="BH151">
+        <v>2.63</v>
+      </c>
+      <c r="BI151">
+        <v>1.68</v>
+      </c>
+      <c r="BJ151">
+        <v>2.02</v>
+      </c>
+      <c r="BK151">
+        <v>2.08</v>
+      </c>
+      <c r="BL151">
         <v>1.63</v>
       </c>
-      <c r="BJ148">
-        <v>2.08</v>
-      </c>
-      <c r="BK148">
-        <v>2.02</v>
-      </c>
-      <c r="BL148">
-        <v>1.67</v>
-      </c>
-      <c r="BM148">
-        <v>2.63</v>
-      </c>
-      <c r="BN148">
-        <v>1.41</v>
-      </c>
-      <c r="BO148">
-        <v>3.45</v>
-      </c>
-      <c r="BP148">
-        <v>1.25</v>
+      <c r="BM151">
+        <v>2.7</v>
+      </c>
+      <c r="BN151">
+        <v>1.38</v>
+      </c>
+      <c r="BO151">
+        <v>3.55</v>
+      </c>
+      <c r="BP151">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,13 +556,16 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['12', '57']</t>
+  </si>
+  <si>
     <t>['45+1', '46', '86']</t>
   </si>
   <si>
     <t>['28', '79']</t>
   </si>
   <si>
-    <t>['12', '57']</t>
+    <t>['51', '58', '69']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -782,6 +785,9 @@
   </si>
   <si>
     <t>['65', '69']</t>
+  </si>
+  <si>
+    <t>['45+2', '83']</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1402,7 +1408,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1686,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.3</v>
@@ -2226,7 +2232,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2432,7 +2438,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2638,7 +2644,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2719,7 +2725,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3256,7 +3262,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3462,7 +3468,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3668,7 +3674,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3749,7 +3755,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3874,7 +3880,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3952,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ14">
         <v>0.44</v>
@@ -4080,7 +4086,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4286,7 +4292,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4698,7 +4704,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4776,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1.3</v>
@@ -4904,7 +4910,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4985,7 +4991,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5110,7 +5116,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5522,7 +5528,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5728,7 +5734,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -7170,7 +7176,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7376,7 +7382,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7582,7 +7588,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7788,7 +7794,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -7994,7 +8000,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8072,7 +8078,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8200,7 +8206,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8281,7 +8287,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8406,7 +8412,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8612,7 +8618,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9230,7 +9236,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9436,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9642,7 +9648,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10544,7 +10550,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>1.33</v>
@@ -10672,7 +10678,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10959,7 +10965,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -11084,7 +11090,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11986,7 +11992,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12114,7 +12120,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12320,7 +12326,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12732,7 +12738,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12810,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>0.5600000000000001</v>
@@ -13144,7 +13150,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13350,7 +13356,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13431,7 +13437,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13762,7 +13768,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14046,7 +14052,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14667,7 +14673,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14792,7 +14798,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15204,7 +15210,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15410,7 +15416,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15616,7 +15622,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15822,7 +15828,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16312,10 +16318,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16440,7 +16446,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16646,7 +16652,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16852,7 +16858,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16930,7 +16936,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>1.3</v>
@@ -17264,7 +17270,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17676,7 +17682,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18088,7 +18094,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18375,7 +18381,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ84">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18706,7 +18712,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19530,7 +19536,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19736,7 +19742,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19942,7 +19948,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20148,7 +20154,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20226,7 +20232,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20560,7 +20566,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21050,10 +21056,10 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21465,7 +21471,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21796,7 +21802,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22414,7 +22420,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23032,7 +23038,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23110,7 +23116,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ107">
         <v>1.4</v>
@@ -23238,7 +23244,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23650,7 +23656,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23856,7 +23862,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24062,7 +24068,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24143,7 +24149,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ112">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24268,7 +24274,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24680,7 +24686,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24761,7 +24767,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ115">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -24964,7 +24970,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25092,7 +25098,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25916,7 +25922,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -25997,7 +26003,7 @@
         <v>2</v>
       </c>
       <c r="AQ121">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26122,7 +26128,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26740,7 +26746,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26946,7 +26952,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27024,7 +27030,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126">
         <v>1.67</v>
@@ -27439,7 +27445,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27976,7 +27982,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28057,7 +28063,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ131">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR131">
         <v>1.58</v>
@@ -28182,7 +28188,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28260,7 +28266,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ132">
         <v>1.6</v>
@@ -28388,7 +28394,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29006,7 +29012,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29212,7 +29218,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29830,7 +29836,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30242,7 +30248,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30448,7 +30454,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30529,7 +30535,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ143">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -30654,7 +30660,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30732,7 +30738,7 @@
         <v>0.75</v>
       </c>
       <c r="AP144">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30860,7 +30866,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31230,7 +31236,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7486644</v>
+        <v>7486648</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31239,46 +31245,46 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45632.875</v>
+        <v>45633.5</v>
       </c>
       <c r="F147">
         <v>19</v>
       </c>
       <c r="G147" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H147" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>1</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="Q147">
         <v>4</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S147">
         <v>3</v>
@@ -31302,133 +31308,133 @@
         <v>1.06</v>
       </c>
       <c r="Z147">
-        <v>3.21</v>
+        <v>3</v>
       </c>
       <c r="AA147">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="AB147">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AC147">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AD147">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE147">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF147">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AG147">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="AH147">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AI147">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ147">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK147">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AL147">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM147">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AN147">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AO147">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="AQ147">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AR147">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS147">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="AT147">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="AU147">
         <v>4</v>
       </c>
       <c r="AV147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW147">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AX147">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AY147">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AZ147">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD147">
-        <v>1.97</v>
+        <v>1.56</v>
       </c>
       <c r="BE147">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF147">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="BG147">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BH147">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BI147">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BJ147">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="BK147">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="BL147">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="BM147">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BN147">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="BO147">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="BP147">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31436,7 +31442,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7486648</v>
+        <v>7486644</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31445,46 +31451,46 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45633.5</v>
+        <v>45633.625</v>
       </c>
       <c r="F148">
         <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H148" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148">
         <v>1</v>
       </c>
       <c r="N148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O148" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="Q148">
         <v>4</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
         <v>3</v>
@@ -31508,133 +31514,133 @@
         <v>1.06</v>
       </c>
       <c r="Z148">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="AA148">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AB148">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AC148">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD148">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE148">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF148">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="AG148">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="AH148">
+        <v>1.72</v>
+      </c>
+      <c r="AI148">
+        <v>1.83</v>
+      </c>
+      <c r="AJ148">
+        <v>1.83</v>
+      </c>
+      <c r="AK148">
+        <v>1.51</v>
+      </c>
+      <c r="AL148">
+        <v>1.29</v>
+      </c>
+      <c r="AM148">
+        <v>1.27</v>
+      </c>
+      <c r="AN148">
+        <v>1.56</v>
+      </c>
+      <c r="AO148">
+        <v>1.33</v>
+      </c>
+      <c r="AP148">
         <v>1.5</v>
       </c>
-      <c r="AI148">
-        <v>1.91</v>
-      </c>
-      <c r="AJ148">
-        <v>1.8</v>
-      </c>
-      <c r="AK148">
-        <v>1.44</v>
-      </c>
-      <c r="AL148">
+      <c r="AQ148">
         <v>1.3</v>
       </c>
-      <c r="AM148">
+      <c r="AR148">
         <v>1.32</v>
       </c>
-      <c r="AN148">
-        <v>1.22</v>
-      </c>
-      <c r="AO148">
-        <v>1.22</v>
-      </c>
-      <c r="AP148">
-        <v>1.1</v>
-      </c>
-      <c r="AQ148">
-        <v>1.4</v>
-      </c>
-      <c r="AR148">
-        <v>1.41</v>
-      </c>
       <c r="AS148">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="AU148">
         <v>4</v>
       </c>
       <c r="AV148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW148">
+        <v>1</v>
+      </c>
+      <c r="AX148">
         <v>13</v>
       </c>
-      <c r="AX148">
-        <v>2</v>
-      </c>
       <c r="AY148">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AZ148">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BA148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BB148">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD148">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="BE148">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF148">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="BG148">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BH148">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BI148">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BJ148">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BK148">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="BL148">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="BM148">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BN148">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BO148">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="BP148">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31642,7 +31648,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7486646</v>
+        <v>7486982</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31651,196 +31657,196 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45634.35416666666</v>
+        <v>45633.875</v>
       </c>
       <c r="F149">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
         <v>3</v>
-      </c>
-      <c r="M149">
-        <v>4</v>
-      </c>
-      <c r="N149">
-        <v>7</v>
       </c>
       <c r="O149" t="s">
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="Q149">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="R149">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>1.36</v>
+      </c>
+      <c r="U149">
+        <v>3</v>
+      </c>
+      <c r="V149">
+        <v>2.63</v>
+      </c>
+      <c r="W149">
+        <v>1.44</v>
+      </c>
+      <c r="X149">
+        <v>7</v>
+      </c>
+      <c r="Y149">
+        <v>1.1</v>
+      </c>
+      <c r="Z149">
+        <v>1.33</v>
+      </c>
+      <c r="AA149">
         <v>4.5</v>
       </c>
-      <c r="T149">
-        <v>1.44</v>
-      </c>
-      <c r="U149">
+      <c r="AB149">
+        <v>8</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>9</v>
+      </c>
+      <c r="AE149">
+        <v>1.24</v>
+      </c>
+      <c r="AF149">
+        <v>3.8</v>
+      </c>
+      <c r="AG149">
+        <v>1.8</v>
+      </c>
+      <c r="AH149">
+        <v>1.9</v>
+      </c>
+      <c r="AI149">
+        <v>2.2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.62</v>
+      </c>
+      <c r="AK149">
+        <v>1.07</v>
+      </c>
+      <c r="AL149">
+        <v>1.14</v>
+      </c>
+      <c r="AM149">
+        <v>2.43</v>
+      </c>
+      <c r="AN149">
+        <v>1.67</v>
+      </c>
+      <c r="AO149">
+        <v>0.67</v>
+      </c>
+      <c r="AP149">
+        <v>1.8</v>
+      </c>
+      <c r="AQ149">
+        <v>0.6</v>
+      </c>
+      <c r="AR149">
+        <v>2.01</v>
+      </c>
+      <c r="AS149">
+        <v>1.18</v>
+      </c>
+      <c r="AT149">
+        <v>3.19</v>
+      </c>
+      <c r="AU149">
+        <v>9</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149">
+        <v>19</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>7</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>9</v>
+      </c>
+      <c r="BD149">
+        <v>1.29</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.95</v>
+      </c>
+      <c r="BG149">
+        <v>1.4</v>
+      </c>
+      <c r="BH149">
         <v>2.63</v>
       </c>
-      <c r="V149">
-        <v>3.25</v>
-      </c>
-      <c r="W149">
-        <v>1.33</v>
-      </c>
-      <c r="X149">
-        <v>10</v>
-      </c>
-      <c r="Y149">
-        <v>1.06</v>
-      </c>
-      <c r="Z149">
-        <v>1.92</v>
-      </c>
-      <c r="AA149">
-        <v>3.25</v>
-      </c>
-      <c r="AB149">
-        <v>4.2</v>
-      </c>
-      <c r="AC149">
-        <v>1.06</v>
-      </c>
-      <c r="AD149">
-        <v>8</v>
-      </c>
-      <c r="AE149">
-        <v>1.37</v>
-      </c>
-      <c r="AF149">
-        <v>2.95</v>
-      </c>
-      <c r="AG149">
-        <v>2.12</v>
-      </c>
-      <c r="AH149">
-        <v>1.7</v>
-      </c>
-      <c r="AI149">
-        <v>1.91</v>
-      </c>
-      <c r="AJ149">
-        <v>1.8</v>
-      </c>
-      <c r="AK149">
-        <v>1.22</v>
-      </c>
-      <c r="AL149">
-        <v>1.26</v>
-      </c>
-      <c r="AM149">
-        <v>1.64</v>
-      </c>
-      <c r="AN149">
-        <v>1.33</v>
-      </c>
-      <c r="AO149">
-        <v>1.11</v>
-      </c>
-      <c r="AP149">
-        <v>1.2</v>
-      </c>
-      <c r="AQ149">
-        <v>1.3</v>
-      </c>
-      <c r="AR149">
-        <v>1.6</v>
-      </c>
-      <c r="AS149">
-        <v>1.24</v>
-      </c>
-      <c r="AT149">
-        <v>2.84</v>
-      </c>
-      <c r="AU149">
-        <v>7</v>
-      </c>
-      <c r="AV149">
-        <v>10</v>
-      </c>
-      <c r="AW149">
-        <v>9</v>
-      </c>
-      <c r="AX149">
-        <v>6</v>
-      </c>
-      <c r="AY149">
-        <v>20</v>
-      </c>
-      <c r="AZ149">
-        <v>18</v>
-      </c>
-      <c r="BA149">
-        <v>8</v>
-      </c>
-      <c r="BB149">
-        <v>5</v>
-      </c>
-      <c r="BC149">
-        <v>13</v>
-      </c>
-      <c r="BD149">
-        <v>1.5</v>
-      </c>
-      <c r="BE149">
-        <v>6.75</v>
-      </c>
-      <c r="BF149">
-        <v>2.8</v>
-      </c>
-      <c r="BG149">
-        <v>1.3</v>
-      </c>
-      <c r="BH149">
-        <v>3.05</v>
-      </c>
       <c r="BI149">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="BJ149">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="BK149">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="BL149">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="BM149">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="BN149">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="BO149">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BP149">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31848,7 +31854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7486649</v>
+        <v>7486646</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31857,34 +31863,34 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45634.47916666666</v>
+        <v>45634.35416666666</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O150" t="s">
         <v>181</v>
@@ -31893,13 +31899,13 @@
         <v>255</v>
       </c>
       <c r="Q150">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R150">
         <v>2.05</v>
       </c>
       <c r="S150">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T150">
         <v>1.44</v>
@@ -31920,133 +31926,133 @@
         <v>1.06</v>
       </c>
       <c r="Z150">
-        <v>2.6</v>
+        <v>1.92</v>
       </c>
       <c r="AA150">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB150">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="AC150">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD150">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE150">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AF150">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AG150">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AH150">
         <v>1.7</v>
       </c>
       <c r="AI150">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ150">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK150">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AL150">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AM150">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AN150">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="AO150">
-        <v>0.89</v>
+        <v>1.11</v>
       </c>
       <c r="AP150">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AQ150">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AR150">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="AS150">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="AT150">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AU150">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW150">
+        <v>9</v>
+      </c>
+      <c r="AX150">
         <v>6</v>
-      </c>
-      <c r="AX150">
-        <v>5</v>
       </c>
       <c r="AY150">
         <v>20</v>
       </c>
       <c r="AZ150">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA150">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB150">
         <v>5</v>
       </c>
       <c r="BC150">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD150">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BE150">
         <v>6.75</v>
       </c>
       <c r="BF150">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BG150">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="BH150">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI150">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="BJ150">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="BK150">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="BL150">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="BM150">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="BN150">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="BO150">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BP150">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32054,7 +32060,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7486982</v>
+        <v>7486649</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32063,16 +32069,16 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45634.64583333334</v>
+        <v>45634.47916666666</v>
       </c>
       <c r="F151">
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -32087,172 +32093,584 @@
         <v>2</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O151" t="s">
         <v>182</v>
       </c>
       <c r="P151" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>3.75</v>
+      </c>
+      <c r="T151">
+        <v>1.44</v>
+      </c>
+      <c r="U151">
+        <v>2.63</v>
+      </c>
+      <c r="V151">
+        <v>3.25</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>10</v>
+      </c>
+      <c r="Y151">
+        <v>1.06</v>
+      </c>
+      <c r="Z151">
+        <v>2.6</v>
+      </c>
+      <c r="AA151">
+        <v>3.2</v>
+      </c>
+      <c r="AB151">
+        <v>2.7</v>
+      </c>
+      <c r="AC151">
+        <v>1.07</v>
+      </c>
+      <c r="AD151">
+        <v>7.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.35</v>
+      </c>
+      <c r="AF151">
+        <v>3.05</v>
+      </c>
+      <c r="AG151">
+        <v>2.1</v>
+      </c>
+      <c r="AH151">
+        <v>1.7</v>
+      </c>
+      <c r="AI151">
         <v>1.83</v>
       </c>
-      <c r="R151">
+      <c r="AJ151">
+        <v>1.83</v>
+      </c>
+      <c r="AK151">
+        <v>1.35</v>
+      </c>
+      <c r="AL151">
+        <v>1.29</v>
+      </c>
+      <c r="AM151">
+        <v>1.42</v>
+      </c>
+      <c r="AN151">
+        <v>1.78</v>
+      </c>
+      <c r="AO151">
+        <v>0.89</v>
+      </c>
+      <c r="AP151">
+        <v>1.7</v>
+      </c>
+      <c r="AQ151">
+        <v>0.9</v>
+      </c>
+      <c r="AR151">
+        <v>1.49</v>
+      </c>
+      <c r="AS151">
+        <v>1.27</v>
+      </c>
+      <c r="AT151">
+        <v>2.76</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>7</v>
+      </c>
+      <c r="AW151">
+        <v>6</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>20</v>
+      </c>
+      <c r="AZ151">
+        <v>14</v>
+      </c>
+      <c r="BA151">
+        <v>6</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>11</v>
+      </c>
+      <c r="BD151">
+        <v>1.7</v>
+      </c>
+      <c r="BE151">
+        <v>6.75</v>
+      </c>
+      <c r="BF151">
         <v>2.4</v>
       </c>
-      <c r="S151">
-        <v>8</v>
-      </c>
-      <c r="T151">
-        <v>1.36</v>
-      </c>
-      <c r="U151">
+      <c r="BG151">
+        <v>1.25</v>
+      </c>
+      <c r="BH151">
+        <v>3.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.43</v>
+      </c>
+      <c r="BJ151">
+        <v>2.55</v>
+      </c>
+      <c r="BK151">
+        <v>1.71</v>
+      </c>
+      <c r="BL151">
+        <v>1.96</v>
+      </c>
+      <c r="BM151">
+        <v>2.12</v>
+      </c>
+      <c r="BN151">
+        <v>1.61</v>
+      </c>
+      <c r="BO151">
+        <v>2.7</v>
+      </c>
+      <c r="BP151">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7486647</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45635.52083333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>85</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>161</v>
+      </c>
+      <c r="P152" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q152">
+        <v>3.6</v>
+      </c>
+      <c r="R152">
+        <v>1.91</v>
+      </c>
+      <c r="S152">
+        <v>3.75</v>
+      </c>
+      <c r="T152">
+        <v>1.62</v>
+      </c>
+      <c r="U152">
+        <v>2.2</v>
+      </c>
+      <c r="V152">
+        <v>4</v>
+      </c>
+      <c r="W152">
+        <v>1.22</v>
+      </c>
+      <c r="X152">
+        <v>13</v>
+      </c>
+      <c r="Y152">
+        <v>1.04</v>
+      </c>
+      <c r="Z152">
+        <v>2.76</v>
+      </c>
+      <c r="AA152">
+        <v>2.98</v>
+      </c>
+      <c r="AB152">
+        <v>2.76</v>
+      </c>
+      <c r="AC152">
+        <v>1.11</v>
+      </c>
+      <c r="AD152">
+        <v>5.8</v>
+      </c>
+      <c r="AE152">
+        <v>1.54</v>
+      </c>
+      <c r="AF152">
+        <v>2.4</v>
+      </c>
+      <c r="AG152">
+        <v>2.55</v>
+      </c>
+      <c r="AH152">
+        <v>1.45</v>
+      </c>
+      <c r="AI152">
+        <v>2.2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.62</v>
+      </c>
+      <c r="AK152">
+        <v>1.35</v>
+      </c>
+      <c r="AL152">
+        <v>1.33</v>
+      </c>
+      <c r="AM152">
+        <v>1.38</v>
+      </c>
+      <c r="AN152">
+        <v>1.67</v>
+      </c>
+      <c r="AO152">
+        <v>1.44</v>
+      </c>
+      <c r="AP152">
+        <v>1.8</v>
+      </c>
+      <c r="AQ152">
+        <v>1.3</v>
+      </c>
+      <c r="AR152">
+        <v>1.23</v>
+      </c>
+      <c r="AS152">
+        <v>1.35</v>
+      </c>
+      <c r="AT152">
+        <v>2.58</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>14</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>2</v>
+      </c>
+      <c r="BB152">
+        <v>5</v>
+      </c>
+      <c r="BC152">
+        <v>7</v>
+      </c>
+      <c r="BD152">
+        <v>1.66</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>2.48</v>
+      </c>
+      <c r="BG152">
+        <v>1.4</v>
+      </c>
+      <c r="BH152">
+        <v>2.65</v>
+      </c>
+      <c r="BI152">
+        <v>1.68</v>
+      </c>
+      <c r="BJ152">
+        <v>2.02</v>
+      </c>
+      <c r="BK152">
+        <v>2.1</v>
+      </c>
+      <c r="BL152">
+        <v>1.62</v>
+      </c>
+      <c r="BM152">
+        <v>2.7</v>
+      </c>
+      <c r="BN152">
+        <v>1.38</v>
+      </c>
+      <c r="BO152">
+        <v>3.55</v>
+      </c>
+      <c r="BP152">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7486477</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45635.64583333334</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
         <v>3</v>
       </c>
-      <c r="V151">
-        <v>2.63</v>
-      </c>
-      <c r="W151">
-        <v>1.44</v>
-      </c>
-      <c r="X151">
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>183</v>
+      </c>
+      <c r="P153" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q153">
+        <v>3.6</v>
+      </c>
+      <c r="R153">
+        <v>1.91</v>
+      </c>
+      <c r="S153">
+        <v>3.6</v>
+      </c>
+      <c r="T153">
+        <v>1.57</v>
+      </c>
+      <c r="U153">
+        <v>2.25</v>
+      </c>
+      <c r="V153">
+        <v>3.75</v>
+      </c>
+      <c r="W153">
+        <v>1.25</v>
+      </c>
+      <c r="X153">
+        <v>13</v>
+      </c>
+      <c r="Y153">
+        <v>1.04</v>
+      </c>
+      <c r="Z153">
+        <v>3</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>2.48</v>
+      </c>
+      <c r="AC153">
+        <v>1.1</v>
+      </c>
+      <c r="AD153">
+        <v>6.2</v>
+      </c>
+      <c r="AE153">
+        <v>1.5</v>
+      </c>
+      <c r="AF153">
+        <v>2.4</v>
+      </c>
+      <c r="AG153">
+        <v>2.6</v>
+      </c>
+      <c r="AH153">
+        <v>1.47</v>
+      </c>
+      <c r="AI153">
+        <v>2.1</v>
+      </c>
+      <c r="AJ153">
+        <v>1.67</v>
+      </c>
+      <c r="AK153">
+        <v>1.38</v>
+      </c>
+      <c r="AL153">
+        <v>1.32</v>
+      </c>
+      <c r="AM153">
+        <v>1.35</v>
+      </c>
+      <c r="AN153">
+        <v>1.75</v>
+      </c>
+      <c r="AO153">
+        <v>2</v>
+      </c>
+      <c r="AP153">
+        <v>1.89</v>
+      </c>
+      <c r="AQ153">
+        <v>1.78</v>
+      </c>
+      <c r="AR153">
+        <v>1.53</v>
+      </c>
+      <c r="AS153">
+        <v>1.25</v>
+      </c>
+      <c r="AT153">
+        <v>2.78</v>
+      </c>
+      <c r="AU153">
+        <v>6</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>12</v>
+      </c>
+      <c r="AZ153">
         <v>7</v>
       </c>
-      <c r="Y151">
-        <v>1.1</v>
-      </c>
-      <c r="Z151">
-        <v>1.33</v>
-      </c>
-      <c r="AA151">
-        <v>4.5</v>
-      </c>
-      <c r="AB151">
-        <v>8</v>
-      </c>
-      <c r="AC151">
-        <v>1.04</v>
-      </c>
-      <c r="AD151">
-        <v>9</v>
-      </c>
-      <c r="AE151">
-        <v>1.24</v>
-      </c>
-      <c r="AF151">
-        <v>3.8</v>
-      </c>
-      <c r="AG151">
+      <c r="BA153">
+        <v>6</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.65</v>
+      </c>
+      <c r="BE153">
+        <v>6.75</v>
+      </c>
+      <c r="BF153">
+        <v>2.48</v>
+      </c>
+      <c r="BG153">
+        <v>1.3</v>
+      </c>
+      <c r="BH153">
+        <v>3.05</v>
+      </c>
+      <c r="BI153">
+        <v>1.53</v>
+      </c>
+      <c r="BJ153">
+        <v>2.28</v>
+      </c>
+      <c r="BK153">
+        <v>1.86</v>
+      </c>
+      <c r="BL153">
         <v>1.8</v>
       </c>
-      <c r="AH151">
-        <v>1.9</v>
-      </c>
-      <c r="AI151">
-        <v>2.2</v>
-      </c>
-      <c r="AJ151">
-        <v>1.62</v>
-      </c>
-      <c r="AK151">
-        <v>1.07</v>
-      </c>
-      <c r="AL151">
-        <v>1.14</v>
-      </c>
-      <c r="AM151">
-        <v>2.43</v>
-      </c>
-      <c r="AN151">
-        <v>1.67</v>
-      </c>
-      <c r="AO151">
-        <v>0.67</v>
-      </c>
-      <c r="AP151">
-        <v>1.8</v>
-      </c>
-      <c r="AQ151">
-        <v>0.6</v>
-      </c>
-      <c r="AR151">
-        <v>2.01</v>
-      </c>
-      <c r="AS151">
-        <v>1.18</v>
-      </c>
-      <c r="AT151">
-        <v>3.19</v>
-      </c>
-      <c r="AU151">
-        <v>9</v>
-      </c>
-      <c r="AV151">
+      <c r="BM153">
+        <v>2.32</v>
+      </c>
+      <c r="BN153">
+        <v>1.52</v>
+      </c>
+      <c r="BO153">
         <v>3</v>
       </c>
-      <c r="AW151">
-        <v>4</v>
-      </c>
-      <c r="AX151">
-        <v>1</v>
-      </c>
-      <c r="AY151">
-        <v>19</v>
-      </c>
-      <c r="AZ151">
-        <v>5</v>
-      </c>
-      <c r="BA151">
-        <v>7</v>
-      </c>
-      <c r="BB151">
-        <v>2</v>
-      </c>
-      <c r="BC151">
-        <v>9</v>
-      </c>
-      <c r="BD151">
-        <v>1.29</v>
-      </c>
-      <c r="BE151">
-        <v>7.5</v>
-      </c>
-      <c r="BF151">
-        <v>3.95</v>
-      </c>
-      <c r="BG151">
-        <v>1.4</v>
-      </c>
-      <c r="BH151">
-        <v>2.63</v>
-      </c>
-      <c r="BI151">
-        <v>1.68</v>
-      </c>
-      <c r="BJ151">
-        <v>2.02</v>
-      </c>
-      <c r="BK151">
-        <v>2.08</v>
-      </c>
-      <c r="BL151">
-        <v>1.63</v>
-      </c>
-      <c r="BM151">
-        <v>2.7</v>
-      </c>
-      <c r="BN151">
-        <v>1.38</v>
-      </c>
-      <c r="BO151">
-        <v>3.55</v>
-      </c>
-      <c r="BP151">
-        <v>1.23</v>
+      <c r="BP153">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -32275,7 +32275,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45635.52083333334</v>
+        <v>45634.875</v>
       </c>
       <c r="F152">
         <v>19</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -556,13 +556,13 @@
     <t>['25']</t>
   </si>
   <si>
-    <t>['12', '57']</t>
-  </si>
-  <si>
     <t>['45+1', '46', '86']</t>
   </si>
   <si>
     <t>['28', '79']</t>
+  </si>
+  <si>
+    <t>['12', '57']</t>
   </si>
   <si>
     <t>['51', '58', '69']</t>
@@ -31648,7 +31648,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7486982</v>
+        <v>7486646</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31657,196 +31657,196 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45633.875</v>
+        <v>45634.35416666666</v>
       </c>
       <c r="F149">
         <v>19</v>
       </c>
       <c r="G149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N149">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O149" t="s">
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="Q149">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="R149">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
+        <v>4.5</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>1.92</v>
+      </c>
+      <c r="AA149">
+        <v>3.25</v>
+      </c>
+      <c r="AB149">
+        <v>4.2</v>
+      </c>
+      <c r="AC149">
+        <v>1.06</v>
+      </c>
+      <c r="AD149">
         <v>8</v>
       </c>
-      <c r="T149">
-        <v>1.36</v>
-      </c>
-      <c r="U149">
-        <v>3</v>
-      </c>
-      <c r="V149">
-        <v>2.63</v>
-      </c>
-      <c r="W149">
-        <v>1.44</v>
-      </c>
-      <c r="X149">
+      <c r="AE149">
+        <v>1.37</v>
+      </c>
+      <c r="AF149">
+        <v>2.95</v>
+      </c>
+      <c r="AG149">
+        <v>2.12</v>
+      </c>
+      <c r="AH149">
+        <v>1.7</v>
+      </c>
+      <c r="AI149">
+        <v>1.91</v>
+      </c>
+      <c r="AJ149">
+        <v>1.8</v>
+      </c>
+      <c r="AK149">
+        <v>1.22</v>
+      </c>
+      <c r="AL149">
+        <v>1.26</v>
+      </c>
+      <c r="AM149">
+        <v>1.64</v>
+      </c>
+      <c r="AN149">
+        <v>1.33</v>
+      </c>
+      <c r="AO149">
+        <v>1.11</v>
+      </c>
+      <c r="AP149">
+        <v>1.2</v>
+      </c>
+      <c r="AQ149">
+        <v>1.3</v>
+      </c>
+      <c r="AR149">
+        <v>1.6</v>
+      </c>
+      <c r="AS149">
+        <v>1.24</v>
+      </c>
+      <c r="AT149">
+        <v>2.84</v>
+      </c>
+      <c r="AU149">
         <v>7</v>
       </c>
-      <c r="Y149">
-        <v>1.1</v>
-      </c>
-      <c r="Z149">
-        <v>1.33</v>
-      </c>
-      <c r="AA149">
-        <v>4.5</v>
-      </c>
-      <c r="AB149">
+      <c r="AV149">
+        <v>10</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>20</v>
+      </c>
+      <c r="AZ149">
+        <v>18</v>
+      </c>
+      <c r="BA149">
         <v>8</v>
       </c>
-      <c r="AC149">
-        <v>1.04</v>
-      </c>
-      <c r="AD149">
-        <v>9</v>
-      </c>
-      <c r="AE149">
-        <v>1.24</v>
-      </c>
-      <c r="AF149">
-        <v>3.8</v>
-      </c>
-      <c r="AG149">
-        <v>1.8</v>
-      </c>
-      <c r="AH149">
-        <v>1.9</v>
-      </c>
-      <c r="AI149">
-        <v>2.2</v>
-      </c>
-      <c r="AJ149">
-        <v>1.62</v>
-      </c>
-      <c r="AK149">
-        <v>1.07</v>
-      </c>
-      <c r="AL149">
-        <v>1.14</v>
-      </c>
-      <c r="AM149">
-        <v>2.43</v>
-      </c>
-      <c r="AN149">
-        <v>1.67</v>
-      </c>
-      <c r="AO149">
-        <v>0.67</v>
-      </c>
-      <c r="AP149">
-        <v>1.8</v>
-      </c>
-      <c r="AQ149">
-        <v>0.6</v>
-      </c>
-      <c r="AR149">
-        <v>2.01</v>
-      </c>
-      <c r="AS149">
-        <v>1.18</v>
-      </c>
-      <c r="AT149">
-        <v>3.19</v>
-      </c>
-      <c r="AU149">
-        <v>9</v>
-      </c>
-      <c r="AV149">
-        <v>3</v>
-      </c>
-      <c r="AW149">
-        <v>4</v>
-      </c>
-      <c r="AX149">
-        <v>1</v>
-      </c>
-      <c r="AY149">
-        <v>19</v>
-      </c>
-      <c r="AZ149">
+      <c r="BB149">
         <v>5</v>
       </c>
-      <c r="BA149">
-        <v>7</v>
-      </c>
-      <c r="BB149">
-        <v>2</v>
-      </c>
       <c r="BC149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD149">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="BE149">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF149">
-        <v>3.95</v>
+        <v>2.8</v>
       </c>
       <c r="BG149">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH149">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="BI149">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="BJ149">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="BK149">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="BL149">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="BM149">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="BN149">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="BO149">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP149">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31854,7 +31854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7486646</v>
+        <v>7486649</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31863,49 +31863,49 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45634.35416666666</v>
+        <v>45634.47916666666</v>
       </c>
       <c r="F150">
         <v>19</v>
       </c>
       <c r="G150" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
         <v>4</v>
-      </c>
-      <c r="N150">
-        <v>7</v>
       </c>
       <c r="O150" t="s">
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R150">
         <v>2.05</v>
       </c>
       <c r="S150">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T150">
         <v>1.44</v>
@@ -31926,133 +31926,133 @@
         <v>1.06</v>
       </c>
       <c r="Z150">
-        <v>1.92</v>
+        <v>2.6</v>
       </c>
       <c r="AA150">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB150">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="AC150">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD150">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE150">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AF150">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AG150">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AH150">
         <v>1.7</v>
       </c>
       <c r="AI150">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ150">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK150">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AL150">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AM150">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AN150">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AO150">
-        <v>1.11</v>
+        <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AQ150">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AR150">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AS150">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AT150">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="AU150">
+        <v>5</v>
+      </c>
+      <c r="AV150">
         <v>7</v>
       </c>
-      <c r="AV150">
-        <v>10</v>
-      </c>
       <c r="AW150">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX150">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY150">
         <v>20</v>
       </c>
       <c r="AZ150">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA150">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB150">
         <v>5</v>
       </c>
       <c r="BC150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD150">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BE150">
         <v>6.75</v>
       </c>
       <c r="BF150">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BG150">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH150">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BI150">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="BJ150">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK150">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="BL150">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="BM150">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="BN150">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="BO150">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BP150">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32060,7 +32060,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7486649</v>
+        <v>7486982</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32069,16 +32069,16 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45634.47916666666</v>
+        <v>45634.64583333334</v>
       </c>
       <c r="F151">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H151" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -32093,172 +32093,172 @@
         <v>2</v>
       </c>
       <c r="M151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O151" t="s">
         <v>182</v>
       </c>
       <c r="P151" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="Q151">
+        <v>1.83</v>
+      </c>
+      <c r="R151">
+        <v>2.4</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>1.36</v>
+      </c>
+      <c r="U151">
         <v>3</v>
       </c>
-      <c r="R151">
-        <v>2.05</v>
-      </c>
-      <c r="S151">
-        <v>3.75</v>
-      </c>
-      <c r="T151">
+      <c r="V151">
+        <v>2.63</v>
+      </c>
+      <c r="W151">
         <v>1.44</v>
       </c>
-      <c r="U151">
+      <c r="X151">
+        <v>7</v>
+      </c>
+      <c r="Y151">
+        <v>1.1</v>
+      </c>
+      <c r="Z151">
+        <v>1.33</v>
+      </c>
+      <c r="AA151">
+        <v>4.5</v>
+      </c>
+      <c r="AB151">
+        <v>8</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>9</v>
+      </c>
+      <c r="AE151">
+        <v>1.24</v>
+      </c>
+      <c r="AF151">
+        <v>3.8</v>
+      </c>
+      <c r="AG151">
+        <v>1.8</v>
+      </c>
+      <c r="AH151">
+        <v>1.9</v>
+      </c>
+      <c r="AI151">
+        <v>2.2</v>
+      </c>
+      <c r="AJ151">
+        <v>1.62</v>
+      </c>
+      <c r="AK151">
+        <v>1.07</v>
+      </c>
+      <c r="AL151">
+        <v>1.14</v>
+      </c>
+      <c r="AM151">
+        <v>2.43</v>
+      </c>
+      <c r="AN151">
+        <v>1.67</v>
+      </c>
+      <c r="AO151">
+        <v>0.67</v>
+      </c>
+      <c r="AP151">
+        <v>1.8</v>
+      </c>
+      <c r="AQ151">
+        <v>0.6</v>
+      </c>
+      <c r="AR151">
+        <v>2.01</v>
+      </c>
+      <c r="AS151">
+        <v>1.18</v>
+      </c>
+      <c r="AT151">
+        <v>3.19</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>10</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>19</v>
+      </c>
+      <c r="AZ151">
+        <v>5</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>2</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.29</v>
+      </c>
+      <c r="BE151">
+        <v>7.5</v>
+      </c>
+      <c r="BF151">
+        <v>3.95</v>
+      </c>
+      <c r="BG151">
+        <v>1.4</v>
+      </c>
+      <c r="BH151">
         <v>2.63</v>
       </c>
-      <c r="V151">
-        <v>3.25</v>
-      </c>
-      <c r="W151">
-        <v>1.33</v>
-      </c>
-      <c r="X151">
-        <v>10</v>
-      </c>
-      <c r="Y151">
-        <v>1.06</v>
-      </c>
-      <c r="Z151">
-        <v>2.6</v>
-      </c>
-      <c r="AA151">
-        <v>3.2</v>
-      </c>
-      <c r="AB151">
+      <c r="BI151">
+        <v>1.68</v>
+      </c>
+      <c r="BJ151">
+        <v>2.02</v>
+      </c>
+      <c r="BK151">
+        <v>2.08</v>
+      </c>
+      <c r="BL151">
+        <v>1.63</v>
+      </c>
+      <c r="BM151">
         <v>2.7</v>
       </c>
-      <c r="AC151">
-        <v>1.07</v>
-      </c>
-      <c r="AD151">
-        <v>7.5</v>
-      </c>
-      <c r="AE151">
-        <v>1.35</v>
-      </c>
-      <c r="AF151">
-        <v>3.05</v>
-      </c>
-      <c r="AG151">
-        <v>2.1</v>
-      </c>
-      <c r="AH151">
-        <v>1.7</v>
-      </c>
-      <c r="AI151">
-        <v>1.83</v>
-      </c>
-      <c r="AJ151">
-        <v>1.83</v>
-      </c>
-      <c r="AK151">
-        <v>1.35</v>
-      </c>
-      <c r="AL151">
-        <v>1.29</v>
-      </c>
-      <c r="AM151">
-        <v>1.42</v>
-      </c>
-      <c r="AN151">
-        <v>1.78</v>
-      </c>
-      <c r="AO151">
-        <v>0.89</v>
-      </c>
-      <c r="AP151">
-        <v>1.7</v>
-      </c>
-      <c r="AQ151">
-        <v>0.9</v>
-      </c>
-      <c r="AR151">
-        <v>1.49</v>
-      </c>
-      <c r="AS151">
-        <v>1.27</v>
-      </c>
-      <c r="AT151">
-        <v>2.76</v>
-      </c>
-      <c r="AU151">
-        <v>5</v>
-      </c>
-      <c r="AV151">
-        <v>7</v>
-      </c>
-      <c r="AW151">
-        <v>6</v>
-      </c>
-      <c r="AX151">
-        <v>5</v>
-      </c>
-      <c r="AY151">
-        <v>20</v>
-      </c>
-      <c r="AZ151">
-        <v>14</v>
-      </c>
-      <c r="BA151">
-        <v>6</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
-      <c r="BC151">
-        <v>11</v>
-      </c>
-      <c r="BD151">
-        <v>1.7</v>
-      </c>
-      <c r="BE151">
-        <v>6.75</v>
-      </c>
-      <c r="BF151">
-        <v>2.4</v>
-      </c>
-      <c r="BG151">
-        <v>1.25</v>
-      </c>
-      <c r="BH151">
-        <v>3.4</v>
-      </c>
-      <c r="BI151">
-        <v>1.43</v>
-      </c>
-      <c r="BJ151">
-        <v>2.55</v>
-      </c>
-      <c r="BK151">
-        <v>1.71</v>
-      </c>
-      <c r="BL151">
-        <v>1.96</v>
-      </c>
-      <c r="BM151">
-        <v>2.12</v>
-      </c>
       <c r="BN151">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="BO151">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="BP151">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32275,7 +32275,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45634.875</v>
+        <v>45635.52083333334</v>
       </c>
       <c r="F152">
         <v>19</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,12 @@
     <t>['51', '58', '69']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['73', '90+4']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -788,6 +794,9 @@
   </si>
   <si>
     <t>['45+2', '83']</t>
+  </si>
+  <si>
+    <t>['42', '74']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,7 +1417,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1901,7 +1910,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ4">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2232,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2438,7 +2447,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2644,7 +2653,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2722,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
         <v>1.3</v>
@@ -3262,7 +3271,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3468,7 +3477,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3674,7 +3683,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3880,7 +3889,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3961,7 +3970,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ14">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4086,7 +4095,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4164,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4292,7 +4301,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4704,7 +4713,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4910,7 +4919,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5116,7 +5125,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5528,7 +5537,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5734,7 +5743,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6433,7 +6442,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ26">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR26">
         <v>1.29</v>
@@ -6636,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ27">
         <v>0.5600000000000001</v>
@@ -6845,7 +6854,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ28">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.74</v>
@@ -7176,7 +7185,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7382,7 +7391,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7588,7 +7597,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7794,7 +7803,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8000,7 +8009,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8206,7 +8215,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8412,7 +8421,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8618,7 +8627,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9236,7 +9245,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9442,7 +9451,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9648,7 +9657,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9932,7 +9941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10141,7 +10150,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>2.23</v>
@@ -10678,7 +10687,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10759,7 +10768,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR47">
         <v>1.66</v>
@@ -11090,7 +11099,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11580,7 +11589,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ51">
         <v>1.3</v>
@@ -12120,7 +12129,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12326,7 +12335,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12738,7 +12747,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12819,7 +12828,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13150,7 +13159,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13228,7 +13237,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
         <v>1.44</v>
@@ -13356,7 +13365,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13768,7 +13777,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14464,7 +14473,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65">
         <v>1.3</v>
@@ -14798,7 +14807,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15210,7 +15219,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15416,7 +15425,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15497,7 +15506,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ70">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR70">
         <v>1.6</v>
@@ -15622,7 +15631,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15828,7 +15837,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15906,7 +15915,7 @@
         <v>0.8</v>
       </c>
       <c r="AP72">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
         <v>0.5600000000000001</v>
@@ -16446,7 +16455,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16652,7 +16661,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16858,7 +16867,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17145,7 +17154,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17270,7 +17279,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17557,7 +17566,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR80">
         <v>1.06</v>
@@ -17682,7 +17691,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17760,7 +17769,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ81">
         <v>0.6</v>
@@ -18094,7 +18103,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18712,7 +18721,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19536,7 +19545,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19742,7 +19751,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19823,7 +19832,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19948,7 +19957,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20154,7 +20163,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20438,7 +20447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ94">
         <v>1.1</v>
@@ -20566,7 +20575,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20853,7 +20862,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ96">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR96">
         <v>1.35</v>
@@ -21802,7 +21811,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21880,7 +21889,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
         <v>1.67</v>
@@ -22420,7 +22429,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22913,7 +22922,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR106">
         <v>1.16</v>
@@ -23038,7 +23047,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23244,7 +23253,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23656,7 +23665,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23734,7 +23743,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ110">
         <v>1.6</v>
@@ -23862,7 +23871,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24068,7 +24077,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24274,7 +24283,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24558,7 +24567,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24686,7 +24695,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25098,7 +25107,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25591,7 +25600,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ119">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -25922,7 +25931,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26000,7 +26009,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ121">
         <v>1.78</v>
@@ -26128,7 +26137,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26415,7 +26424,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ123">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR123">
         <v>1.82</v>
@@ -26746,7 +26755,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26952,7 +26961,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27648,7 +27657,7 @@
         <v>1.71</v>
       </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
         <v>1.67</v>
@@ -27982,7 +27991,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28188,7 +28197,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28394,7 +28403,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29012,7 +29021,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29090,10 +29099,10 @@
         <v>0.57</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29218,7 +29227,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29502,7 +29511,7 @@
         <v>0.88</v>
       </c>
       <c r="AP138">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ138">
         <v>0.9</v>
@@ -29836,7 +29845,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -29917,7 +29926,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ140">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AR140">
         <v>1.45</v>
@@ -30123,7 +30132,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR141">
         <v>1.41</v>
@@ -30248,7 +30257,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30326,7 +30335,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ142">
         <v>1.33</v>
@@ -30454,7 +30463,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30660,7 +30669,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30866,7 +30875,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31278,7 +31287,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31484,7 +31493,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31690,7 +31699,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31896,7 +31905,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32514,7 +32523,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32671,6 +32680,418 @@
       </c>
       <c r="BP153">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7486652</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45639.5</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>184</v>
+      </c>
+      <c r="P154" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q154">
+        <v>3.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.53</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>3.5</v>
+      </c>
+      <c r="W154">
+        <v>1.29</v>
+      </c>
+      <c r="X154">
+        <v>11</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.3</v>
+      </c>
+      <c r="AA154">
+        <v>2.87</v>
+      </c>
+      <c r="AB154">
+        <v>2.9</v>
+      </c>
+      <c r="AC154">
+        <v>1.09</v>
+      </c>
+      <c r="AD154">
+        <v>6.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.42</v>
+      </c>
+      <c r="AF154">
+        <v>2.7</v>
+      </c>
+      <c r="AG154">
+        <v>2.2</v>
+      </c>
+      <c r="AH154">
+        <v>1.55</v>
+      </c>
+      <c r="AI154">
+        <v>2</v>
+      </c>
+      <c r="AJ154">
+        <v>1.73</v>
+      </c>
+      <c r="AK154">
+        <v>1.31</v>
+      </c>
+      <c r="AL154">
+        <v>1.31</v>
+      </c>
+      <c r="AM154">
+        <v>1.44</v>
+      </c>
+      <c r="AN154">
+        <v>1.33</v>
+      </c>
+      <c r="AO154">
+        <v>0.44</v>
+      </c>
+      <c r="AP154">
+        <v>1.2</v>
+      </c>
+      <c r="AQ154">
+        <v>0.7</v>
+      </c>
+      <c r="AR154">
+        <v>1.64</v>
+      </c>
+      <c r="AS154">
+        <v>1.35</v>
+      </c>
+      <c r="AT154">
+        <v>2.99</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>4</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>11</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
+        <v>6</v>
+      </c>
+      <c r="BD154">
+        <v>1.78</v>
+      </c>
+      <c r="BE154">
+        <v>5.8</v>
+      </c>
+      <c r="BF154">
+        <v>2.52</v>
+      </c>
+      <c r="BG154">
+        <v>1.33</v>
+      </c>
+      <c r="BH154">
+        <v>3</v>
+      </c>
+      <c r="BI154">
+        <v>1.62</v>
+      </c>
+      <c r="BJ154">
+        <v>2.12</v>
+      </c>
+      <c r="BK154">
+        <v>2.12</v>
+      </c>
+      <c r="BL154">
+        <v>1.62</v>
+      </c>
+      <c r="BM154">
+        <v>2.92</v>
+      </c>
+      <c r="BN154">
+        <v>1.34</v>
+      </c>
+      <c r="BO154">
+        <v>4.1</v>
+      </c>
+      <c r="BP154">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7486655</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45639.625</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>83</v>
+      </c>
+      <c r="H155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>185</v>
+      </c>
+      <c r="P155" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q155">
+        <v>2.6</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>1.5</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>3.4</v>
+      </c>
+      <c r="W155">
+        <v>1.3</v>
+      </c>
+      <c r="X155">
+        <v>10</v>
+      </c>
+      <c r="Y155">
+        <v>1.06</v>
+      </c>
+      <c r="Z155">
+        <v>1.75</v>
+      </c>
+      <c r="AA155">
+        <v>3.2</v>
+      </c>
+      <c r="AB155">
+        <v>4.33</v>
+      </c>
+      <c r="AC155">
+        <v>1.08</v>
+      </c>
+      <c r="AD155">
+        <v>7</v>
+      </c>
+      <c r="AE155">
+        <v>1.4</v>
+      </c>
+      <c r="AF155">
+        <v>2.8</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.67</v>
+      </c>
+      <c r="AI155">
+        <v>2</v>
+      </c>
+      <c r="AJ155">
+        <v>1.73</v>
+      </c>
+      <c r="AK155">
+        <v>1.16</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.78</v>
+      </c>
+      <c r="AN155">
+        <v>2</v>
+      </c>
+      <c r="AO155">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP155">
+        <v>2.1</v>
+      </c>
+      <c r="AQ155">
+        <v>0.5</v>
+      </c>
+      <c r="AR155">
+        <v>1.16</v>
+      </c>
+      <c r="AS155">
+        <v>1.41</v>
+      </c>
+      <c r="AT155">
+        <v>2.57</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>18</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>11</v>
+      </c>
+      <c r="BD155">
+        <v>1.56</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>2.7</v>
+      </c>
+      <c r="BG155">
+        <v>1.5</v>
+      </c>
+      <c r="BH155">
+        <v>2.35</v>
+      </c>
+      <c r="BI155">
+        <v>1.84</v>
+      </c>
+      <c r="BJ155">
+        <v>1.82</v>
+      </c>
+      <c r="BK155">
+        <v>2.35</v>
+      </c>
+      <c r="BL155">
+        <v>1.5</v>
+      </c>
+      <c r="BM155">
+        <v>3.1</v>
+      </c>
+      <c r="BN155">
+        <v>1.3</v>
+      </c>
+      <c r="BO155">
+        <v>4.1</v>
+      </c>
+      <c r="BP155">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['73', '90+4']</t>
   </si>
   <si>
+    <t>['27', '68']</t>
+  </si>
+  <si>
+    <t>['51', '61', '65', '87']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -797,6 +803,12 @@
   </si>
   <si>
     <t>['42', '74']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1429,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2241,7 +2253,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2447,7 +2459,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2653,7 +2665,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3271,7 +3283,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3477,7 +3489,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3555,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3683,7 +3695,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3889,7 +3901,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3967,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.7</v>
@@ -4095,7 +4107,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4176,7 +4188,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4301,7 +4313,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4382,7 +4394,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4585,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ17">
         <v>0.9</v>
@@ -4713,7 +4725,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4919,7 +4931,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5125,7 +5137,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5537,7 +5549,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5743,7 +5755,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6439,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ26">
         <v>0.7</v>
@@ -7057,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>2.09</v>
@@ -7185,7 +7197,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7391,7 +7403,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7597,7 +7609,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7678,7 +7690,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
         <v>1.69</v>
@@ -7803,7 +7815,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8009,7 +8021,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8215,7 +8227,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8421,7 +8433,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8627,7 +8639,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9245,7 +9257,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9451,7 +9463,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9532,7 +9544,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR41">
         <v>1.24</v>
@@ -9657,7 +9669,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9735,7 +9747,7 @@
         <v>1.33</v>
       </c>
       <c r="AP42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42">
         <v>0.5600000000000001</v>
@@ -10559,10 +10571,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>1.57</v>
@@ -10687,7 +10699,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11099,7 +11111,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12129,7 +12141,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12335,7 +12347,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12619,10 +12631,10 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12747,7 +12759,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13031,7 +13043,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ58">
         <v>1.1</v>
@@ -13159,7 +13171,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13240,7 +13252,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR59">
         <v>1.8</v>
@@ -13365,7 +13377,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13777,7 +13789,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14061,7 +14073,7 @@
         <v>0.75</v>
       </c>
       <c r="AP63">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14807,7 +14819,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15219,7 +15231,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15425,7 +15437,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15631,7 +15643,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15837,7 +15849,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16121,7 +16133,7 @@
         <v>0.6</v>
       </c>
       <c r="AP73">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ73">
         <v>1.4</v>
@@ -16455,7 +16467,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16536,7 +16548,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ75">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR75">
         <v>2.05</v>
@@ -16661,7 +16673,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16742,7 +16754,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
         <v>1.67</v>
@@ -16867,7 +16879,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16945,7 +16957,7 @@
         <v>1.4</v>
       </c>
       <c r="AP77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>1.3</v>
@@ -17279,7 +17291,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17691,7 +17703,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18103,7 +18115,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18721,7 +18733,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19005,7 +19017,7 @@
         <v>1.4</v>
       </c>
       <c r="AP87">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ87">
         <v>1.3</v>
@@ -19214,7 +19226,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ88">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR88">
         <v>1.66</v>
@@ -19545,7 +19557,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19751,7 +19763,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19957,7 +19969,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20035,7 +20047,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92">
         <v>1.3</v>
@@ -20163,7 +20175,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20244,7 +20256,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20575,7 +20587,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21065,7 +21077,7 @@
         <v>1.67</v>
       </c>
       <c r="AP97">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>1.3</v>
@@ -21683,7 +21695,7 @@
         <v>0.67</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ100">
         <v>0.6</v>
@@ -21811,7 +21823,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22429,7 +22441,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22510,7 +22522,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ104">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23047,7 +23059,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23253,7 +23265,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23331,7 +23343,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ108">
         <v>1.3</v>
@@ -23665,7 +23677,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23871,7 +23883,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24077,7 +24089,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24283,7 +24295,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24364,7 +24376,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR113">
         <v>1.54</v>
@@ -24695,7 +24707,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24979,7 +24991,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25107,7 +25119,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25185,7 +25197,7 @@
         <v>1.6</v>
       </c>
       <c r="AP117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
         <v>1.67</v>
@@ -25803,7 +25815,7 @@
         <v>0.63</v>
       </c>
       <c r="AP120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ120">
         <v>0.6</v>
@@ -25931,7 +25943,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26137,7 +26149,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26218,7 +26230,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.54</v>
@@ -26421,7 +26433,7 @@
         <v>0.14</v>
       </c>
       <c r="AP123">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ123">
         <v>0.7</v>
@@ -26755,7 +26767,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26961,7 +26973,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27039,7 +27051,7 @@
         <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>1.67</v>
@@ -27248,7 +27260,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR127">
         <v>1.4</v>
@@ -27451,7 +27463,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ128">
         <v>1.78</v>
@@ -27991,7 +28003,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28197,7 +28209,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28403,7 +28415,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29021,7 +29033,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29227,7 +29239,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29720,7 +29732,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ139">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR139">
         <v>1.55</v>
@@ -29845,7 +29857,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30257,7 +30269,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30338,7 +30350,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ142">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR142">
         <v>1.14</v>
@@ -30463,7 +30475,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30541,7 +30553,7 @@
         <v>1.86</v>
       </c>
       <c r="AP143">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ143">
         <v>1.78</v>
@@ -30669,7 +30681,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30747,7 +30759,7 @@
         <v>0.75</v>
       </c>
       <c r="AP144">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
         <v>1</v>
@@ -30875,7 +30887,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -30953,7 +30965,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ145">
         <v>1.67</v>
@@ -31287,7 +31299,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31493,7 +31505,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31699,7 +31711,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31905,7 +31917,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32523,7 +32535,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32601,7 +32613,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>1.78</v>
@@ -32729,7 +32741,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32822,22 +32834,22 @@
         <v>2.99</v>
       </c>
       <c r="AU154">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV154">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW154">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX154">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY154">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ154">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BA154">
         <v>3</v>
@@ -33028,22 +33040,22 @@
         <v>2.57</v>
       </c>
       <c r="AU155">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW155">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY155">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="AZ155">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33092,6 +33104,624 @@
       </c>
       <c r="BP155">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7486651</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45640.39583333334</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>85</v>
+      </c>
+      <c r="H156" t="s">
+        <v>73</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>175</v>
+      </c>
+      <c r="P156" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q156">
+        <v>2.75</v>
+      </c>
+      <c r="R156">
+        <v>2.05</v>
+      </c>
+      <c r="S156">
+        <v>4.33</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.63</v>
+      </c>
+      <c r="V156">
+        <v>3.25</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>10</v>
+      </c>
+      <c r="Y156">
+        <v>1.06</v>
+      </c>
+      <c r="Z156">
+        <v>1.91</v>
+      </c>
+      <c r="AA156">
+        <v>3.25</v>
+      </c>
+      <c r="AB156">
+        <v>3.7</v>
+      </c>
+      <c r="AC156">
+        <v>1.09</v>
+      </c>
+      <c r="AD156">
+        <v>6.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.49</v>
+      </c>
+      <c r="AF156">
+        <v>2.45</v>
+      </c>
+      <c r="AG156">
+        <v>2.52</v>
+      </c>
+      <c r="AH156">
+        <v>1.46</v>
+      </c>
+      <c r="AI156">
+        <v>1.91</v>
+      </c>
+      <c r="AJ156">
+        <v>1.8</v>
+      </c>
+      <c r="AK156">
+        <v>1.19</v>
+      </c>
+      <c r="AL156">
+        <v>1.29</v>
+      </c>
+      <c r="AM156">
+        <v>1.66</v>
+      </c>
+      <c r="AN156">
+        <v>1.11</v>
+      </c>
+      <c r="AO156">
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <v>1.1</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.39</v>
+      </c>
+      <c r="AS156">
+        <v>1.24</v>
+      </c>
+      <c r="AT156">
+        <v>2.63</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>20</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
+      <c r="BB156">
+        <v>3</v>
+      </c>
+      <c r="BC156">
+        <v>7</v>
+      </c>
+      <c r="BD156">
+        <v>1.65</v>
+      </c>
+      <c r="BE156">
+        <v>6.1</v>
+      </c>
+      <c r="BF156">
+        <v>2.55</v>
+      </c>
+      <c r="BG156">
+        <v>1.52</v>
+      </c>
+      <c r="BH156">
+        <v>2.28</v>
+      </c>
+      <c r="BI156">
+        <v>1.88</v>
+      </c>
+      <c r="BJ156">
+        <v>1.78</v>
+      </c>
+      <c r="BK156">
+        <v>2.43</v>
+      </c>
+      <c r="BL156">
+        <v>1.46</v>
+      </c>
+      <c r="BM156">
+        <v>3.15</v>
+      </c>
+      <c r="BN156">
+        <v>1.29</v>
+      </c>
+      <c r="BO156">
+        <v>4.35</v>
+      </c>
+      <c r="BP156">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7487071</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45640.5</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H157" t="s">
+        <v>72</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>186</v>
+      </c>
+      <c r="P157" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q157">
+        <v>2.5</v>
+      </c>
+      <c r="R157">
+        <v>2.25</v>
+      </c>
+      <c r="S157">
+        <v>4.5</v>
+      </c>
+      <c r="T157">
+        <v>1.36</v>
+      </c>
+      <c r="U157">
+        <v>3</v>
+      </c>
+      <c r="V157">
+        <v>2.75</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>7</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>1.8</v>
+      </c>
+      <c r="AA157">
+        <v>3.6</v>
+      </c>
+      <c r="AB157">
+        <v>3.8</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>8.5</v>
+      </c>
+      <c r="AE157">
+        <v>1.29</v>
+      </c>
+      <c r="AF157">
+        <v>3.4</v>
+      </c>
+      <c r="AG157">
+        <v>1.85</v>
+      </c>
+      <c r="AH157">
+        <v>1.91</v>
+      </c>
+      <c r="AI157">
+        <v>1.73</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>1.21</v>
+      </c>
+      <c r="AL157">
+        <v>1.26</v>
+      </c>
+      <c r="AM157">
+        <v>1.68</v>
+      </c>
+      <c r="AN157">
+        <v>1.78</v>
+      </c>
+      <c r="AO157">
+        <v>1.33</v>
+      </c>
+      <c r="AP157">
+        <v>1.9</v>
+      </c>
+      <c r="AQ157">
+        <v>1.2</v>
+      </c>
+      <c r="AR157">
+        <v>1.79</v>
+      </c>
+      <c r="AS157">
+        <v>1.52</v>
+      </c>
+      <c r="AT157">
+        <v>3.31</v>
+      </c>
+      <c r="AU157">
+        <v>7</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>3</v>
+      </c>
+      <c r="AY157">
+        <v>16</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>8</v>
+      </c>
+      <c r="BD157">
+        <v>1.54</v>
+      </c>
+      <c r="BE157">
+        <v>6.75</v>
+      </c>
+      <c r="BF157">
+        <v>2.75</v>
+      </c>
+      <c r="BG157">
+        <v>1.29</v>
+      </c>
+      <c r="BH157">
+        <v>3.15</v>
+      </c>
+      <c r="BI157">
+        <v>1.49</v>
+      </c>
+      <c r="BJ157">
+        <v>2.38</v>
+      </c>
+      <c r="BK157">
+        <v>1.81</v>
+      </c>
+      <c r="BL157">
+        <v>1.85</v>
+      </c>
+      <c r="BM157">
+        <v>2.28</v>
+      </c>
+      <c r="BN157">
+        <v>1.53</v>
+      </c>
+      <c r="BO157">
+        <v>2.95</v>
+      </c>
+      <c r="BP157">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7486983</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45640.625</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158" t="s">
+        <v>82</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>187</v>
+      </c>
+      <c r="P158" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q158">
+        <v>2.63</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.75</v>
+      </c>
+      <c r="T158">
+        <v>1.5</v>
+      </c>
+      <c r="U158">
+        <v>2.5</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.3</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2.01</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>3.35</v>
+      </c>
+      <c r="AC158">
+        <v>1.09</v>
+      </c>
+      <c r="AD158">
+        <v>6.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.45</v>
+      </c>
+      <c r="AF158">
+        <v>2.41</v>
+      </c>
+      <c r="AG158">
+        <v>2.4</v>
+      </c>
+      <c r="AH158">
+        <v>1.5</v>
+      </c>
+      <c r="AI158">
+        <v>2</v>
+      </c>
+      <c r="AJ158">
+        <v>1.73</v>
+      </c>
+      <c r="AK158">
+        <v>1.19</v>
+      </c>
+      <c r="AL158">
+        <v>1.29</v>
+      </c>
+      <c r="AM158">
+        <v>1.65</v>
+      </c>
+      <c r="AN158">
+        <v>1.89</v>
+      </c>
+      <c r="AO158">
+        <v>1.44</v>
+      </c>
+      <c r="AP158">
+        <v>2</v>
+      </c>
+      <c r="AQ158">
+        <v>1.3</v>
+      </c>
+      <c r="AR158">
+        <v>1.5</v>
+      </c>
+      <c r="AS158">
+        <v>1.37</v>
+      </c>
+      <c r="AT158">
+        <v>2.87</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>10</v>
+      </c>
+      <c r="AX158">
+        <v>3</v>
+      </c>
+      <c r="AY158">
+        <v>21</v>
+      </c>
+      <c r="AZ158">
+        <v>8</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>3</v>
+      </c>
+      <c r="BC158">
+        <v>7</v>
+      </c>
+      <c r="BD158">
+        <v>1.65</v>
+      </c>
+      <c r="BE158">
+        <v>6.25</v>
+      </c>
+      <c r="BF158">
+        <v>2.55</v>
+      </c>
+      <c r="BG158">
+        <v>1.56</v>
+      </c>
+      <c r="BH158">
+        <v>2.23</v>
+      </c>
+      <c r="BI158">
+        <v>1.93</v>
+      </c>
+      <c r="BJ158">
+        <v>1.74</v>
+      </c>
+      <c r="BK158">
+        <v>2.5</v>
+      </c>
+      <c r="BL158">
+        <v>1.44</v>
+      </c>
+      <c r="BM158">
+        <v>3.3</v>
+      </c>
+      <c r="BN158">
+        <v>1.27</v>
+      </c>
+      <c r="BO158">
+        <v>4.4</v>
+      </c>
+      <c r="BP158">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['51', '61', '65', '87']</t>
+  </si>
+  <si>
+    <t>['36']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.3</v>
@@ -2253,7 +2256,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2459,7 +2462,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2665,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3283,7 +3286,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3361,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3489,7 +3492,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3695,7 +3698,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3776,7 +3779,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ13">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3901,7 +3904,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4107,7 +4110,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4313,7 +4316,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4725,7 +4728,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4931,7 +4934,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5137,7 +5140,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5549,7 +5552,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5627,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>0.6</v>
@@ -5755,7 +5758,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6863,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -7197,7 +7200,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7403,7 +7406,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7481,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7609,7 +7612,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7815,7 +7818,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8021,7 +8024,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8227,7 +8230,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8433,7 +8436,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8639,7 +8642,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9257,7 +9260,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9463,7 +9466,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9541,7 +9544,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ41">
         <v>1.3</v>
@@ -9669,7 +9672,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10699,7 +10702,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10777,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ47">
         <v>0.7</v>
@@ -11111,7 +11114,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12016,7 +12019,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12141,7 +12144,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12347,7 +12350,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12759,7 +12762,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13171,7 +13174,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13377,7 +13380,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13455,10 +13458,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR60">
         <v>1.71</v>
@@ -13789,7 +13792,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13867,7 +13870,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ62">
         <v>0.5600000000000001</v>
@@ -14819,7 +14822,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15231,7 +15234,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15312,7 +15315,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15437,7 +15440,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15643,7 +15646,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15849,7 +15852,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16342,7 +16345,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16467,7 +16470,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16673,7 +16676,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16751,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ76">
         <v>1.2</v>
@@ -16879,7 +16882,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17291,7 +17294,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17369,7 +17372,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ79">
         <v>1.1</v>
@@ -17703,7 +17706,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18115,7 +18118,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18733,7 +18736,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18814,7 +18817,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ86">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19429,7 +19432,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>1.4</v>
@@ -19557,7 +19560,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19635,7 +19638,7 @@
         <v>1.71</v>
       </c>
       <c r="AP90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ90">
         <v>1.6</v>
@@ -19763,7 +19766,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19969,7 +19972,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20175,7 +20178,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20587,7 +20590,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21492,7 +21495,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR99">
         <v>1.24</v>
@@ -21823,7 +21826,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21904,7 +21907,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ101">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22441,7 +22444,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -23059,7 +23062,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23265,7 +23268,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23677,7 +23680,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23883,7 +23886,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -23961,7 +23964,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ111">
         <v>1.3</v>
@@ -24089,7 +24092,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24170,7 +24173,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ112">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24295,7 +24298,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24707,7 +24710,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25119,7 +25122,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25200,7 +25203,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ117">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25403,7 +25406,7 @@
         <v>0.71</v>
       </c>
       <c r="AP118">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ118">
         <v>0.6</v>
@@ -25943,7 +25946,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26024,7 +26027,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ121">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR121">
         <v>1.14</v>
@@ -26149,7 +26152,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26767,7 +26770,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26845,7 +26848,7 @@
         <v>0.57</v>
       </c>
       <c r="AP125">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ125">
         <v>0.9</v>
@@ -26973,7 +26976,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27054,7 +27057,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27466,7 +27469,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ128">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR128">
         <v>1.38</v>
@@ -27672,7 +27675,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28003,7 +28006,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28081,7 +28084,7 @@
         <v>1.25</v>
       </c>
       <c r="AP131">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131">
         <v>1.3</v>
@@ -28209,7 +28212,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28415,7 +28418,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29033,7 +29036,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29239,7 +29242,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29857,7 +29860,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -29935,7 +29938,7 @@
         <v>0.13</v>
       </c>
       <c r="AP140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ140">
         <v>0.7</v>
@@ -30269,7 +30272,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30475,7 +30478,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30556,7 +30559,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ143">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR143">
         <v>1.8</v>
@@ -30681,7 +30684,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30887,7 +30890,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -30968,7 +30971,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AR145">
         <v>1.39</v>
@@ -31299,7 +31302,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31505,7 +31508,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31711,7 +31714,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31917,7 +31920,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32535,7 +32538,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32616,7 +32619,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AR153">
         <v>1.53</v>
@@ -32741,7 +32744,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -32834,22 +32837,22 @@
         <v>2.99</v>
       </c>
       <c r="AU154">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV154">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW154">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX154">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY154">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ154">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA154">
         <v>3</v>
@@ -33040,22 +33043,22 @@
         <v>2.57</v>
       </c>
       <c r="AU155">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW155">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY155">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ155">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33329,7 +33332,7 @@
         <v>45640.5</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G157" t="s">
         <v>80</v>
@@ -33359,7 +33362,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33565,7 +33568,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q158">
         <v>2.63</v>
@@ -33722,6 +33725,418 @@
       </c>
       <c r="BP158">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7486650</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>188</v>
+      </c>
+      <c r="P159" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q159">
+        <v>4.75</v>
+      </c>
+      <c r="R159">
+        <v>2.1</v>
+      </c>
+      <c r="S159">
+        <v>2.5</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>4.55</v>
+      </c>
+      <c r="AA159">
+        <v>3.5</v>
+      </c>
+      <c r="AB159">
+        <v>1.69</v>
+      </c>
+      <c r="AC159">
+        <v>1.06</v>
+      </c>
+      <c r="AD159">
+        <v>8</v>
+      </c>
+      <c r="AE159">
+        <v>1.36</v>
+      </c>
+      <c r="AF159">
+        <v>3</v>
+      </c>
+      <c r="AG159">
+        <v>2.1</v>
+      </c>
+      <c r="AH159">
+        <v>1.65</v>
+      </c>
+      <c r="AI159">
+        <v>1.83</v>
+      </c>
+      <c r="AJ159">
+        <v>1.83</v>
+      </c>
+      <c r="AK159">
+        <v>1.78</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.17</v>
+      </c>
+      <c r="AN159">
+        <v>0.89</v>
+      </c>
+      <c r="AO159">
+        <v>1.78</v>
+      </c>
+      <c r="AP159">
+        <v>0.9</v>
+      </c>
+      <c r="AQ159">
+        <v>1.7</v>
+      </c>
+      <c r="AR159">
+        <v>1.46</v>
+      </c>
+      <c r="AS159">
+        <v>1.22</v>
+      </c>
+      <c r="AT159">
+        <v>2.68</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>2</v>
+      </c>
+      <c r="AX159">
+        <v>7</v>
+      </c>
+      <c r="AY159">
+        <v>9</v>
+      </c>
+      <c r="AZ159">
+        <v>15</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>8</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>2.9</v>
+      </c>
+      <c r="BE159">
+        <v>6.75</v>
+      </c>
+      <c r="BF159">
+        <v>1.5</v>
+      </c>
+      <c r="BG159">
+        <v>1.28</v>
+      </c>
+      <c r="BH159">
+        <v>3.2</v>
+      </c>
+      <c r="BI159">
+        <v>1.49</v>
+      </c>
+      <c r="BJ159">
+        <v>2.38</v>
+      </c>
+      <c r="BK159">
+        <v>1.8</v>
+      </c>
+      <c r="BL159">
+        <v>1.86</v>
+      </c>
+      <c r="BM159">
+        <v>2.25</v>
+      </c>
+      <c r="BN159">
+        <v>1.55</v>
+      </c>
+      <c r="BO159">
+        <v>2.9</v>
+      </c>
+      <c r="BP159">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7486654</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45641.65625</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>70</v>
+      </c>
+      <c r="H160" t="s">
+        <v>74</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>117</v>
+      </c>
+      <c r="P160" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q160">
+        <v>4.5</v>
+      </c>
+      <c r="R160">
+        <v>2.2</v>
+      </c>
+      <c r="S160">
+        <v>2.4</v>
+      </c>
+      <c r="T160">
+        <v>1.36</v>
+      </c>
+      <c r="U160">
+        <v>3</v>
+      </c>
+      <c r="V160">
+        <v>2.75</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>7</v>
+      </c>
+      <c r="Y160">
+        <v>1.1</v>
+      </c>
+      <c r="Z160">
+        <v>3.25</v>
+      </c>
+      <c r="AA160">
+        <v>3.3</v>
+      </c>
+      <c r="AB160">
+        <v>2.13</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>9</v>
+      </c>
+      <c r="AE160">
+        <v>1.26</v>
+      </c>
+      <c r="AF160">
+        <v>3.6</v>
+      </c>
+      <c r="AG160">
+        <v>1.84</v>
+      </c>
+      <c r="AH160">
+        <v>1.94</v>
+      </c>
+      <c r="AI160">
+        <v>1.73</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>1.52</v>
+      </c>
+      <c r="AL160">
+        <v>1.29</v>
+      </c>
+      <c r="AM160">
+        <v>1.27</v>
+      </c>
+      <c r="AN160">
+        <v>1.44</v>
+      </c>
+      <c r="AO160">
+        <v>1.67</v>
+      </c>
+      <c r="AP160">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160">
+        <v>1.6</v>
+      </c>
+      <c r="AR160">
+        <v>1.52</v>
+      </c>
+      <c r="AS160">
+        <v>1.47</v>
+      </c>
+      <c r="AT160">
+        <v>2.99</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>8</v>
+      </c>
+      <c r="AX160">
+        <v>7</v>
+      </c>
+      <c r="AY160">
+        <v>19</v>
+      </c>
+      <c r="AZ160">
+        <v>22</v>
+      </c>
+      <c r="BA160">
+        <v>4</v>
+      </c>
+      <c r="BB160">
+        <v>9</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>2.48</v>
+      </c>
+      <c r="BE160">
+        <v>6.4</v>
+      </c>
+      <c r="BF160">
+        <v>1.67</v>
+      </c>
+      <c r="BG160">
+        <v>1.37</v>
+      </c>
+      <c r="BH160">
+        <v>2.75</v>
+      </c>
+      <c r="BI160">
+        <v>1.64</v>
+      </c>
+      <c r="BJ160">
+        <v>2.07</v>
+      </c>
+      <c r="BK160">
+        <v>2.04</v>
+      </c>
+      <c r="BL160">
+        <v>1.66</v>
+      </c>
+      <c r="BM160">
+        <v>2.63</v>
+      </c>
+      <c r="BN160">
+        <v>1.4</v>
+      </c>
+      <c r="BO160">
+        <v>3.45</v>
+      </c>
+      <c r="BP160">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['36']</t>
+  </si>
+  <si>
+    <t>['5', '21']</t>
   </si>
   <si>
     <t>['19']</t>
@@ -1173,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1435,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2256,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2462,7 +2465,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2668,7 +2671,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2955,7 +2958,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3286,7 +3289,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3492,7 +3495,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3698,7 +3701,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3776,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ13">
         <v>1.7</v>
@@ -3904,7 +3907,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4110,7 +4113,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4316,7 +4319,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4728,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4934,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5140,7 +5143,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5221,7 +5224,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ20">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>1.45</v>
@@ -5552,7 +5555,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5758,7 +5761,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6663,7 +6666,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ27">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1</v>
@@ -7200,7 +7203,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7406,7 +7409,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7612,7 +7615,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7690,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ32">
         <v>1.2</v>
@@ -7818,7 +7821,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8024,7 +8027,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8230,7 +8233,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8436,7 +8439,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8642,7 +8645,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9260,7 +9263,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9466,7 +9469,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9672,7 +9675,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -9753,7 +9756,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ42">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR42">
         <v>1.69</v>
@@ -10368,7 +10371,7 @@
         <v>0.67</v>
       </c>
       <c r="AP45">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10702,7 +10705,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11114,7 +11117,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -12144,7 +12147,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12350,7 +12353,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12762,7 +12765,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13174,7 +13177,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13380,7 +13383,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13792,7 +13795,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13873,7 +13876,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ62">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.4</v>
@@ -14822,7 +14825,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15234,7 +15237,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15440,7 +15443,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15646,7 +15649,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15724,7 +15727,7 @@
         <v>1.8</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ71">
         <v>1.6</v>
@@ -15852,7 +15855,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -15933,7 +15936,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ72">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR72">
         <v>1.78</v>
@@ -16470,7 +16473,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16676,7 +16679,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16882,7 +16885,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17294,7 +17297,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17706,7 +17709,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -18118,7 +18121,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18402,7 +18405,7 @@
         <v>1.8</v>
       </c>
       <c r="AP84">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ84">
         <v>1.3</v>
@@ -18736,7 +18739,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19560,7 +19563,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19766,7 +19769,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19972,7 +19975,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20178,7 +20181,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20590,7 +20593,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -20671,7 +20674,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -21826,7 +21829,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -22316,7 +22319,7 @@
         <v>0.6</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ103">
         <v>0.9</v>
@@ -22444,7 +22447,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22731,7 +22734,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ105">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR105">
         <v>1.58</v>
@@ -23062,7 +23065,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23268,7 +23271,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23680,7 +23683,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23886,7 +23889,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24092,7 +24095,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24298,7 +24301,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24710,7 +24713,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25122,7 +25125,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25612,7 +25615,7 @@
         <v>0.17</v>
       </c>
       <c r="AP119">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ119">
         <v>0.7</v>
@@ -25946,7 +25949,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26152,7 +26155,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26642,7 +26645,7 @@
         <v>0.86</v>
       </c>
       <c r="AP124">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26770,7 +26773,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26976,7 +26979,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27881,7 +27884,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ130">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.47</v>
@@ -28006,7 +28009,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28212,7 +28215,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28418,7 +28421,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29036,7 +29039,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29242,7 +29245,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29732,7 +29735,7 @@
         <v>1.5</v>
       </c>
       <c r="AP139">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ139">
         <v>1.3</v>
@@ -29860,7 +29863,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30272,7 +30275,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30478,7 +30481,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30684,7 +30687,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30890,7 +30893,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31302,7 +31305,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31508,7 +31511,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31714,7 +31717,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31920,7 +31923,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32538,7 +32541,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32744,7 +32747,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33261,7 +33264,7 @@
         <v>3</v>
       </c>
       <c r="AY156">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ156">
         <v>10</v>
@@ -33362,7 +33365,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33568,7 +33571,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>2.63</v>
@@ -33741,7 +33744,7 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F159">
         <v>20</v>
@@ -34136,6 +34139,212 @@
         <v>3.45</v>
       </c>
       <c r="BP160">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7486653</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45642.625</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>81</v>
+      </c>
+      <c r="H161" t="s">
+        <v>84</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>189</v>
+      </c>
+      <c r="P161" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q161">
+        <v>1.95</v>
+      </c>
+      <c r="R161">
+        <v>2.38</v>
+      </c>
+      <c r="S161">
+        <v>7.5</v>
+      </c>
+      <c r="T161">
+        <v>1.36</v>
+      </c>
+      <c r="U161">
+        <v>3</v>
+      </c>
+      <c r="V161">
+        <v>2.75</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>1.55</v>
+      </c>
+      <c r="AA161">
+        <v>3.18</v>
+      </c>
+      <c r="AB161">
+        <v>6.71</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>9</v>
+      </c>
+      <c r="AE161">
+        <v>1.26</v>
+      </c>
+      <c r="AF161">
+        <v>3.6</v>
+      </c>
+      <c r="AG161">
+        <v>1.89</v>
+      </c>
+      <c r="AH161">
+        <v>1.89</v>
+      </c>
+      <c r="AI161">
+        <v>2.1</v>
+      </c>
+      <c r="AJ161">
+        <v>1.67</v>
+      </c>
+      <c r="AK161">
+        <v>1.09</v>
+      </c>
+      <c r="AL161">
+        <v>1.16</v>
+      </c>
+      <c r="AM161">
+        <v>2.29</v>
+      </c>
+      <c r="AN161">
+        <v>1.56</v>
+      </c>
+      <c r="AO161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP161">
+        <v>1.7</v>
+      </c>
+      <c r="AQ161">
+        <v>0.5</v>
+      </c>
+      <c r="AR161">
+        <v>1.54</v>
+      </c>
+      <c r="AS161">
+        <v>1.16</v>
+      </c>
+      <c r="AT161">
+        <v>2.7</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>2</v>
+      </c>
+      <c r="AY161">
+        <v>15</v>
+      </c>
+      <c r="AZ161">
+        <v>11</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>5</v>
+      </c>
+      <c r="BD161">
+        <v>1.36</v>
+      </c>
+      <c r="BE161">
+        <v>7</v>
+      </c>
+      <c r="BF161">
+        <v>3.55</v>
+      </c>
+      <c r="BG161">
+        <v>1.37</v>
+      </c>
+      <c r="BH161">
+        <v>2.75</v>
+      </c>
+      <c r="BI161">
+        <v>1.62</v>
+      </c>
+      <c r="BJ161">
+        <v>2.1</v>
+      </c>
+      <c r="BK161">
+        <v>2.02</v>
+      </c>
+      <c r="BL161">
+        <v>1.68</v>
+      </c>
+      <c r="BM161">
+        <v>2.55</v>
+      </c>
+      <c r="BN161">
+        <v>1.43</v>
+      </c>
+      <c r="BO161">
+        <v>3.4</v>
+      </c>
+      <c r="BP161">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -33744,7 +33744,7 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45640.875</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F159">
         <v>20</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -2340,7 +2340,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -6048,7 +6048,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR24">
         <v>1.56</v>
@@ -7284,7 +7284,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR30">
         <v>1.69</v>
@@ -8723,7 +8723,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
         <v>1.3</v>
@@ -9138,7 +9138,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR39">
         <v>0.8100000000000001</v>
@@ -11401,7 +11401,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
         <v>1.3</v>
@@ -12228,7 +12228,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ54">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR54">
         <v>1.5</v>
@@ -14285,7 +14285,7 @@
         <v>0.75</v>
       </c>
       <c r="AP64">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ64">
         <v>0.6</v>
@@ -15730,7 +15730,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR71">
         <v>1.35</v>
@@ -17996,7 +17996,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ82">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR82">
         <v>1.61</v>
@@ -18817,7 +18817,7 @@
         <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ86">
         <v>1.6</v>
@@ -19644,7 +19644,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -21289,7 +21289,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -23764,7 +23764,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR110">
         <v>1.9</v>
@@ -24379,7 +24379,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113">
         <v>1.3</v>
@@ -27881,7 +27881,7 @@
         <v>0.63</v>
       </c>
       <c r="AP130">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28296,7 +28296,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR132">
         <v>1.25</v>
@@ -31177,7 +31177,7 @@
         <v>1.22</v>
       </c>
       <c r="AP146">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146">
         <v>1.1</v>
@@ -34346,6 +34346,212 @@
       </c>
       <c r="BP161">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7486656</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45646.58333333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>72</v>
+      </c>
+      <c r="H162" t="s">
+        <v>82</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162" t="s">
+        <v>86</v>
+      </c>
+      <c r="P162" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q162">
+        <v>3.3</v>
+      </c>
+      <c r="R162">
+        <v>1.92</v>
+      </c>
+      <c r="S162">
+        <v>3.65</v>
+      </c>
+      <c r="T162">
+        <v>1.54</v>
+      </c>
+      <c r="U162">
+        <v>2.35</v>
+      </c>
+      <c r="V162">
+        <v>3.48</v>
+      </c>
+      <c r="W162">
+        <v>1.28</v>
+      </c>
+      <c r="X162">
+        <v>9.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.04</v>
+      </c>
+      <c r="Z162">
+        <v>3.2</v>
+      </c>
+      <c r="AA162">
+        <v>2.95</v>
+      </c>
+      <c r="AB162">
+        <v>2.25</v>
+      </c>
+      <c r="AC162">
+        <v>1.06</v>
+      </c>
+      <c r="AD162">
+        <v>6.2</v>
+      </c>
+      <c r="AE162">
+        <v>1.45</v>
+      </c>
+      <c r="AF162">
+        <v>2.6</v>
+      </c>
+      <c r="AG162">
+        <v>2.3</v>
+      </c>
+      <c r="AH162">
+        <v>1.5</v>
+      </c>
+      <c r="AI162">
+        <v>2.02</v>
+      </c>
+      <c r="AJ162">
+        <v>1.74</v>
+      </c>
+      <c r="AK162">
+        <v>1.36</v>
+      </c>
+      <c r="AL162">
+        <v>1.34</v>
+      </c>
+      <c r="AM162">
+        <v>1.43</v>
+      </c>
+      <c r="AN162">
+        <v>1.7</v>
+      </c>
+      <c r="AO162">
+        <v>1.6</v>
+      </c>
+      <c r="AP162">
+        <v>1.64</v>
+      </c>
+      <c r="AQ162">
+        <v>1.55</v>
+      </c>
+      <c r="AR162">
+        <v>1.45</v>
+      </c>
+      <c r="AS162">
+        <v>1.28</v>
+      </c>
+      <c r="AT162">
+        <v>2.73</v>
+      </c>
+      <c r="AU162">
+        <v>0</v>
+      </c>
+      <c r="AV162">
+        <v>7</v>
+      </c>
+      <c r="AW162">
+        <v>3</v>
+      </c>
+      <c r="AX162">
+        <v>10</v>
+      </c>
+      <c r="AY162">
+        <v>4</v>
+      </c>
+      <c r="AZ162">
+        <v>28</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>12</v>
+      </c>
+      <c r="BC162">
+        <v>14</v>
+      </c>
+      <c r="BD162">
+        <v>2.15</v>
+      </c>
+      <c r="BE162">
+        <v>6.5</v>
+      </c>
+      <c r="BF162">
+        <v>1.95</v>
+      </c>
+      <c r="BG162">
+        <v>1.38</v>
+      </c>
+      <c r="BH162">
+        <v>2.78</v>
+      </c>
+      <c r="BI162">
+        <v>1.7</v>
+      </c>
+      <c r="BJ162">
+        <v>2</v>
+      </c>
+      <c r="BK162">
+        <v>2.22</v>
+      </c>
+      <c r="BL162">
+        <v>1.55</v>
+      </c>
+      <c r="BM162">
+        <v>3.05</v>
+      </c>
+      <c r="BN162">
+        <v>1.31</v>
+      </c>
+      <c r="BO162">
+        <v>3.65</v>
+      </c>
+      <c r="BP162">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -816,6 +816,9 @@
   <si>
     <t>['75']</t>
   </si>
+  <si>
+    <t>['18', '90+1']</t>
+  </si>
 </sst>
 </file>
 
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -4397,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.2</v>
@@ -4606,7 +4609,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4809,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ18">
         <v>1.3</v>
@@ -5842,7 +5845,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR23">
         <v>2</v>
@@ -7902,7 +7905,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR33">
         <v>2.11</v>
@@ -8105,7 +8108,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ34">
         <v>0.6</v>
@@ -8517,7 +8520,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.1</v>
@@ -8726,7 +8729,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ37">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -11610,7 +11613,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ51">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12019,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -12225,7 +12228,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.55</v>
@@ -12434,7 +12437,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ55">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR55">
         <v>1.71</v>
@@ -12843,7 +12846,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ57">
         <v>0.5</v>
@@ -14697,7 +14700,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.3</v>
@@ -14906,7 +14909,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR67">
         <v>0.97</v>
@@ -15112,7 +15115,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ68">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR68">
         <v>1.66</v>
@@ -16345,7 +16348,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ74">
         <v>1.7</v>
@@ -16966,7 +16969,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR77">
         <v>1.36</v>
@@ -18611,10 +18614,10 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR85">
         <v>1.36</v>
@@ -20056,7 +20059,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ92">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR92">
         <v>1.5</v>
@@ -20259,7 +20262,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93">
         <v>1.2</v>
@@ -20877,7 +20880,7 @@
         <v>0.2</v>
       </c>
       <c r="AP96">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>0.7</v>
@@ -22322,7 +22325,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ103">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23143,7 +23146,7 @@
         <v>0.71</v>
       </c>
       <c r="AP107">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ107">
         <v>1.4</v>
@@ -23970,7 +23973,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ111">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24173,7 +24176,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
         <v>1.7</v>
@@ -25000,7 +25003,7 @@
         <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR116">
         <v>1.34</v>
@@ -26854,7 +26857,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ125">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR125">
         <v>1.4</v>
@@ -27263,7 +27266,7 @@
         <v>1.29</v>
       </c>
       <c r="AP127">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.3</v>
@@ -28293,7 +28296,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ132">
         <v>1.55</v>
@@ -29326,7 +29329,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR137">
         <v>1.59</v>
@@ -29532,7 +29535,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ138">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR138">
         <v>1.66</v>
@@ -30147,7 +30150,7 @@
         <v>0.63</v>
       </c>
       <c r="AP141">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>0.5</v>
@@ -31383,7 +31386,7 @@
         <v>1.22</v>
       </c>
       <c r="AP147">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>1.4</v>
@@ -31592,7 +31595,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR148">
         <v>1.32</v>
@@ -32004,7 +32007,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ150">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR150">
         <v>1.49</v>
@@ -32413,7 +32416,7 @@
         <v>1.44</v>
       </c>
       <c r="AP152">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ152">
         <v>1.3</v>
@@ -34552,6 +34555,418 @@
       </c>
       <c r="BP162">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7486661</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45647.5</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>71</v>
+      </c>
+      <c r="H163" t="s">
+        <v>70</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>86</v>
+      </c>
+      <c r="P163" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q163">
+        <v>2.85</v>
+      </c>
+      <c r="R163">
+        <v>2.03</v>
+      </c>
+      <c r="S163">
+        <v>3.85</v>
+      </c>
+      <c r="T163">
+        <v>1.45</v>
+      </c>
+      <c r="U163">
+        <v>2.55</v>
+      </c>
+      <c r="V163">
+        <v>3.1</v>
+      </c>
+      <c r="W163">
+        <v>1.34</v>
+      </c>
+      <c r="X163">
+        <v>8.1</v>
+      </c>
+      <c r="Y163">
+        <v>1.06</v>
+      </c>
+      <c r="Z163">
+        <v>1.99</v>
+      </c>
+      <c r="AA163">
+        <v>3.9</v>
+      </c>
+      <c r="AB163">
+        <v>2.87</v>
+      </c>
+      <c r="AC163">
+        <v>1.02</v>
+      </c>
+      <c r="AD163">
+        <v>7.7</v>
+      </c>
+      <c r="AE163">
+        <v>1.35</v>
+      </c>
+      <c r="AF163">
+        <v>3.05</v>
+      </c>
+      <c r="AG163">
+        <v>1.82</v>
+      </c>
+      <c r="AH163">
+        <v>1.95</v>
+      </c>
+      <c r="AI163">
+        <v>1.86</v>
+      </c>
+      <c r="AJ163">
+        <v>1.88</v>
+      </c>
+      <c r="AK163">
+        <v>1.3</v>
+      </c>
+      <c r="AL163">
+        <v>1.31</v>
+      </c>
+      <c r="AM163">
+        <v>1.55</v>
+      </c>
+      <c r="AN163">
+        <v>1.8</v>
+      </c>
+      <c r="AO163">
+        <v>0.9</v>
+      </c>
+      <c r="AP163">
+        <v>1.73</v>
+      </c>
+      <c r="AQ163">
+        <v>0.91</v>
+      </c>
+      <c r="AR163">
+        <v>1.24</v>
+      </c>
+      <c r="AS163">
+        <v>1.31</v>
+      </c>
+      <c r="AT163">
+        <v>2.55</v>
+      </c>
+      <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>6</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>13</v>
+      </c>
+      <c r="AZ163">
+        <v>11</v>
+      </c>
+      <c r="BA163">
+        <v>4</v>
+      </c>
+      <c r="BB163">
+        <v>2</v>
+      </c>
+      <c r="BC163">
+        <v>6</v>
+      </c>
+      <c r="BD163">
+        <v>1.59</v>
+      </c>
+      <c r="BE163">
+        <v>8.1</v>
+      </c>
+      <c r="BF163">
+        <v>2.83</v>
+      </c>
+      <c r="BG163">
+        <v>1.27</v>
+      </c>
+      <c r="BH163">
+        <v>3.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.52</v>
+      </c>
+      <c r="BJ163">
+        <v>2.3</v>
+      </c>
+      <c r="BK163">
+        <v>1.9</v>
+      </c>
+      <c r="BL163">
+        <v>1.78</v>
+      </c>
+      <c r="BM163">
+        <v>2.45</v>
+      </c>
+      <c r="BN163">
+        <v>1.46</v>
+      </c>
+      <c r="BO163">
+        <v>3.45</v>
+      </c>
+      <c r="BP163">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7486660</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45647.60416666666</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164" t="s">
+        <v>84</v>
+      </c>
+      <c r="H164" t="s">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>86</v>
+      </c>
+      <c r="P164" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>2.3</v>
+      </c>
+      <c r="T164">
+        <v>1.4</v>
+      </c>
+      <c r="U164">
+        <v>2.75</v>
+      </c>
+      <c r="V164">
+        <v>3</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>8</v>
+      </c>
+      <c r="Y164">
+        <v>1.08</v>
+      </c>
+      <c r="Z164">
+        <v>14.44</v>
+      </c>
+      <c r="AA164">
+        <v>2.93</v>
+      </c>
+      <c r="AB164">
+        <v>1.44</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.29</v>
+      </c>
+      <c r="AF164">
+        <v>3.35</v>
+      </c>
+      <c r="AG164">
+        <v>1.97</v>
+      </c>
+      <c r="AH164">
+        <v>1.81</v>
+      </c>
+      <c r="AI164">
+        <v>1.83</v>
+      </c>
+      <c r="AJ164">
+        <v>1.83</v>
+      </c>
+      <c r="AK164">
+        <v>1.93</v>
+      </c>
+      <c r="AL164">
+        <v>1.26</v>
+      </c>
+      <c r="AM164">
+        <v>1.16</v>
+      </c>
+      <c r="AN164">
+        <v>1.1</v>
+      </c>
+      <c r="AO164">
+        <v>1.3</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>1.45</v>
+      </c>
+      <c r="AR164">
+        <v>1.45</v>
+      </c>
+      <c r="AS164">
+        <v>1.57</v>
+      </c>
+      <c r="AT164">
+        <v>3.02</v>
+      </c>
+      <c r="AU164">
+        <v>5</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>4</v>
+      </c>
+      <c r="AX164">
+        <v>2</v>
+      </c>
+      <c r="AY164">
+        <v>12</v>
+      </c>
+      <c r="AZ164">
+        <v>9</v>
+      </c>
+      <c r="BA164">
+        <v>6</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>9</v>
+      </c>
+      <c r="BD164">
+        <v>3.15</v>
+      </c>
+      <c r="BE164">
+        <v>8.6</v>
+      </c>
+      <c r="BF164">
+        <v>1.49</v>
+      </c>
+      <c r="BG164">
+        <v>1.25</v>
+      </c>
+      <c r="BH164">
+        <v>3.5</v>
+      </c>
+      <c r="BI164">
+        <v>1.47</v>
+      </c>
+      <c r="BJ164">
+        <v>2.42</v>
+      </c>
+      <c r="BK164">
+        <v>1.82</v>
+      </c>
+      <c r="BL164">
+        <v>1.82</v>
+      </c>
+      <c r="BM164">
+        <v>2.7</v>
+      </c>
+      <c r="BN164">
+        <v>1.4</v>
+      </c>
+      <c r="BO164">
+        <v>3.25</v>
+      </c>
+      <c r="BP164">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,12 @@
     <t>['5', '21']</t>
   </si>
   <si>
+    <t>['17', '67']</t>
+  </si>
+  <si>
+    <t>['21', '49', '83']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -818,6 +824,9 @@
   </si>
   <si>
     <t>['18', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+1', '82']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1447,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -1519,7 +1528,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2137,7 +2146,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ5">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2262,7 +2271,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2468,7 +2477,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2546,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2674,7 +2683,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2755,7 +2764,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2958,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3292,7 +3301,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3498,7 +3507,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3704,7 +3713,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3910,7 +3919,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4116,7 +4125,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4194,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>1.3</v>
@@ -4322,7 +4331,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4734,7 +4743,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4815,7 +4824,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ18">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR18">
         <v>0.84</v>
@@ -4940,7 +4949,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5021,7 +5030,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ19">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR19">
         <v>1.85</v>
@@ -5146,7 +5155,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5558,7 +5567,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5764,7 +5773,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -5842,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
         <v>1.45</v>
@@ -6254,10 +6263,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ25">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR25">
         <v>0.95</v>
@@ -6666,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -7206,7 +7215,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7284,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ30">
         <v>1.55</v>
@@ -7412,7 +7421,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7618,7 +7627,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7824,7 +7833,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8030,7 +8039,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8236,7 +8245,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8317,7 +8326,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.45</v>
@@ -8442,7 +8451,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8523,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8648,7 +8657,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -8932,10 +8941,10 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ38">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR38">
         <v>1.73</v>
@@ -9138,7 +9147,7 @@
         <v>1.67</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ39">
         <v>1.55</v>
@@ -9266,7 +9275,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9472,7 +9481,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9678,7 +9687,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10708,7 +10717,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -10992,10 +11001,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ48">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR48">
         <v>0.93</v>
@@ -11120,7 +11129,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11201,7 +11210,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ49">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR49">
         <v>1.48</v>
@@ -11407,7 +11416,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR50">
         <v>1.71</v>
@@ -11610,7 +11619,7 @@
         <v>2.33</v>
       </c>
       <c r="AP51">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.45</v>
@@ -11816,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
         <v>0.6</v>
@@ -12150,7 +12159,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12356,7 +12365,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12768,7 +12777,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13055,7 +13064,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ58">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
         <v>2.03</v>
@@ -13180,7 +13189,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13386,7 +13395,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13798,7 +13807,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14494,10 +14503,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR65">
         <v>1.18</v>
@@ -14703,7 +14712,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR66">
         <v>1.39</v>
@@ -14828,7 +14837,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -14906,7 +14915,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ67">
         <v>0.91</v>
@@ -15240,7 +15249,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15318,7 +15327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69">
         <v>1.6</v>
@@ -15446,7 +15455,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15652,7 +15661,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15858,7 +15867,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16476,7 +16485,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16682,7 +16691,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16888,7 +16897,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17300,7 +17309,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17381,7 +17390,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
         <v>1.52</v>
@@ -17584,7 +17593,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>0.7</v>
@@ -17712,7 +17721,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17790,7 +17799,7 @@
         <v>0.6</v>
       </c>
       <c r="AP81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.6</v>
@@ -18124,7 +18133,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18202,7 +18211,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18411,7 +18420,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ84">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR84">
         <v>1.43</v>
@@ -18742,7 +18751,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -19029,7 +19038,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR87">
         <v>1.94</v>
@@ -19566,7 +19575,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19772,7 +19781,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19850,7 +19859,7 @@
         <v>0.8</v>
       </c>
       <c r="AP91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91">
         <v>0.5</v>
@@ -19978,7 +19987,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20184,7 +20193,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20471,7 +20480,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR94">
         <v>1.89</v>
@@ -20596,7 +20605,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21089,7 +21098,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR97">
         <v>1.37</v>
@@ -21498,7 +21507,7 @@
         <v>1.67</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ99">
         <v>1.7</v>
@@ -21832,7 +21841,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21910,7 +21919,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.6</v>
@@ -22119,7 +22128,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ102">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR102">
         <v>1.5</v>
@@ -22450,7 +22459,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22528,7 +22537,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>1.2</v>
@@ -22940,7 +22949,7 @@
         <v>0.67</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ106">
         <v>0.5</v>
@@ -23068,7 +23077,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23274,7 +23283,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23355,7 +23364,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ108">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23561,7 +23570,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ109">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR109">
         <v>2.02</v>
@@ -23686,7 +23695,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23892,7 +23901,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24098,7 +24107,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24304,7 +24313,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24588,7 +24597,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>1</v>
@@ -24716,7 +24725,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24797,7 +24806,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ115">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR115">
         <v>1.47</v>
@@ -25128,7 +25137,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25952,7 +25961,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26030,7 +26039,7 @@
         <v>1.8</v>
       </c>
       <c r="AP121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ121">
         <v>1.7</v>
@@ -26158,7 +26167,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26776,7 +26785,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26982,7 +26991,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -28012,7 +28021,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28093,7 +28102,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR131">
         <v>1.58</v>
@@ -28218,7 +28227,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28424,7 +28433,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -28502,10 +28511,10 @@
         <v>1.25</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ133">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28711,7 +28720,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ134">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
         <v>2.06</v>
@@ -28914,7 +28923,7 @@
         <v>1</v>
       </c>
       <c r="AP135">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ135">
         <v>1.4</v>
@@ -29042,7 +29051,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29248,7 +29257,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29866,7 +29875,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30278,7 +30287,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30356,7 +30365,7 @@
         <v>1.38</v>
       </c>
       <c r="AP142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
         <v>1.2</v>
@@ -30484,7 +30493,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30690,7 +30699,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30896,7 +30905,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -31183,7 +31192,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ146">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AR146">
         <v>1.46</v>
@@ -31308,7 +31317,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31514,7 +31523,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31592,7 +31601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ148">
         <v>1.45</v>
@@ -31720,7 +31729,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31801,7 +31810,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ149">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -31926,7 +31935,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32419,7 +32428,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ152">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR152">
         <v>1.23</v>
@@ -32544,7 +32553,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32750,7 +32759,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33034,7 +33043,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP155">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
         <v>0.5</v>
@@ -33368,7 +33377,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33574,7 +33583,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q158">
         <v>2.63</v>
@@ -34810,7 +34819,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -34967,6 +34976,624 @@
       </c>
       <c r="BP164">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7486657</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45647.875</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>77</v>
+      </c>
+      <c r="H165" t="s">
+        <v>79</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>190</v>
+      </c>
+      <c r="P165" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q165">
+        <v>2.63</v>
+      </c>
+      <c r="R165">
+        <v>1.95</v>
+      </c>
+      <c r="S165">
+        <v>5.5</v>
+      </c>
+      <c r="T165">
+        <v>1.57</v>
+      </c>
+      <c r="U165">
+        <v>2.25</v>
+      </c>
+      <c r="V165">
+        <v>3.75</v>
+      </c>
+      <c r="W165">
+        <v>1.25</v>
+      </c>
+      <c r="X165">
+        <v>11</v>
+      </c>
+      <c r="Y165">
+        <v>1.05</v>
+      </c>
+      <c r="Z165">
+        <v>1.95</v>
+      </c>
+      <c r="AA165">
+        <v>3.1</v>
+      </c>
+      <c r="AB165">
+        <v>4.01</v>
+      </c>
+      <c r="AC165">
+        <v>1.04</v>
+      </c>
+      <c r="AD165">
+        <v>6.8</v>
+      </c>
+      <c r="AE165">
+        <v>1.48</v>
+      </c>
+      <c r="AF165">
+        <v>2.5</v>
+      </c>
+      <c r="AG165">
+        <v>2.47</v>
+      </c>
+      <c r="AH165">
+        <v>1.48</v>
+      </c>
+      <c r="AI165">
+        <v>2.25</v>
+      </c>
+      <c r="AJ165">
+        <v>1.57</v>
+      </c>
+      <c r="AK165">
+        <v>1.19</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.8</v>
+      </c>
+      <c r="AN165">
+        <v>1.5</v>
+      </c>
+      <c r="AO165">
+        <v>1.3</v>
+      </c>
+      <c r="AP165">
+        <v>1.64</v>
+      </c>
+      <c r="AQ165">
+        <v>1.18</v>
+      </c>
+      <c r="AR165">
+        <v>1.27</v>
+      </c>
+      <c r="AS165">
+        <v>1.31</v>
+      </c>
+      <c r="AT165">
+        <v>2.58</v>
+      </c>
+      <c r="AU165">
+        <v>8</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>6</v>
+      </c>
+      <c r="AX165">
+        <v>1</v>
+      </c>
+      <c r="AY165">
+        <v>22</v>
+      </c>
+      <c r="AZ165">
+        <v>8</v>
+      </c>
+      <c r="BA165">
+        <v>9</v>
+      </c>
+      <c r="BB165">
+        <v>6</v>
+      </c>
+      <c r="BC165">
+        <v>15</v>
+      </c>
+      <c r="BD165">
+        <v>1.45</v>
+      </c>
+      <c r="BE165">
+        <v>8.6</v>
+      </c>
+      <c r="BF165">
+        <v>3.34</v>
+      </c>
+      <c r="BG165">
+        <v>1.26</v>
+      </c>
+      <c r="BH165">
+        <v>3.22</v>
+      </c>
+      <c r="BI165">
+        <v>1.5</v>
+      </c>
+      <c r="BJ165">
+        <v>2.35</v>
+      </c>
+      <c r="BK165">
+        <v>1.87</v>
+      </c>
+      <c r="BL165">
+        <v>1.83</v>
+      </c>
+      <c r="BM165">
+        <v>2.42</v>
+      </c>
+      <c r="BN165">
+        <v>1.47</v>
+      </c>
+      <c r="BO165">
+        <v>3.2</v>
+      </c>
+      <c r="BP165">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7486658</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45648.41666666666</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" t="s">
+        <v>85</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>191</v>
+      </c>
+      <c r="P166" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q166">
+        <v>2.4</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>6.5</v>
+      </c>
+      <c r="T166">
+        <v>1.57</v>
+      </c>
+      <c r="U166">
+        <v>2.25</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.25</v>
+      </c>
+      <c r="X166">
+        <v>13</v>
+      </c>
+      <c r="Y166">
+        <v>1.04</v>
+      </c>
+      <c r="Z166">
+        <v>1.67</v>
+      </c>
+      <c r="AA166">
+        <v>3.3</v>
+      </c>
+      <c r="AB166">
+        <v>5.46</v>
+      </c>
+      <c r="AC166">
+        <v>1.1</v>
+      </c>
+      <c r="AD166">
+        <v>6.2</v>
+      </c>
+      <c r="AE166">
+        <v>1.5</v>
+      </c>
+      <c r="AF166">
+        <v>2.3</v>
+      </c>
+      <c r="AG166">
+        <v>2.56</v>
+      </c>
+      <c r="AH166">
+        <v>1.45</v>
+      </c>
+      <c r="AI166">
+        <v>2.5</v>
+      </c>
+      <c r="AJ166">
+        <v>1.5</v>
+      </c>
+      <c r="AK166">
+        <v>1.15</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.94</v>
+      </c>
+      <c r="AN166">
+        <v>1.5</v>
+      </c>
+      <c r="AO166">
+        <v>1.3</v>
+      </c>
+      <c r="AP166">
+        <v>1.64</v>
+      </c>
+      <c r="AQ166">
+        <v>1.18</v>
+      </c>
+      <c r="AR166">
+        <v>1.81</v>
+      </c>
+      <c r="AS166">
+        <v>1.36</v>
+      </c>
+      <c r="AT166">
+        <v>3.17</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>7</v>
+      </c>
+      <c r="AW166">
+        <v>4</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>13</v>
+      </c>
+      <c r="AZ166">
+        <v>13</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>6</v>
+      </c>
+      <c r="BC166">
+        <v>10</v>
+      </c>
+      <c r="BD166">
+        <v>1.46</v>
+      </c>
+      <c r="BE166">
+        <v>8.6</v>
+      </c>
+      <c r="BF166">
+        <v>3.28</v>
+      </c>
+      <c r="BG166">
+        <v>1.25</v>
+      </c>
+      <c r="BH166">
+        <v>3.28</v>
+      </c>
+      <c r="BI166">
+        <v>1.49</v>
+      </c>
+      <c r="BJ166">
+        <v>2.38</v>
+      </c>
+      <c r="BK166">
+        <v>1.86</v>
+      </c>
+      <c r="BL166">
+        <v>1.84</v>
+      </c>
+      <c r="BM166">
+        <v>2.4</v>
+      </c>
+      <c r="BN166">
+        <v>1.48</v>
+      </c>
+      <c r="BO166">
+        <v>3.2</v>
+      </c>
+      <c r="BP166">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7486662</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45648.625</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>83</v>
+      </c>
+      <c r="H167" t="s">
+        <v>81</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>86</v>
+      </c>
+      <c r="P167" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q167">
+        <v>3.75</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>3.2</v>
+      </c>
+      <c r="T167">
+        <v>1.5</v>
+      </c>
+      <c r="U167">
+        <v>2.5</v>
+      </c>
+      <c r="V167">
+        <v>3.5</v>
+      </c>
+      <c r="W167">
+        <v>1.29</v>
+      </c>
+      <c r="X167">
+        <v>11</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>2.74</v>
+      </c>
+      <c r="AA167">
+        <v>3.05</v>
+      </c>
+      <c r="AB167">
+        <v>2.66</v>
+      </c>
+      <c r="AC167">
+        <v>1.03</v>
+      </c>
+      <c r="AD167">
+        <v>7.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.4</v>
+      </c>
+      <c r="AF167">
+        <v>2.8</v>
+      </c>
+      <c r="AG167">
+        <v>2.25</v>
+      </c>
+      <c r="AH167">
+        <v>1.57</v>
+      </c>
+      <c r="AI167">
+        <v>1.91</v>
+      </c>
+      <c r="AJ167">
+        <v>1.8</v>
+      </c>
+      <c r="AK167">
+        <v>1.44</v>
+      </c>
+      <c r="AL167">
+        <v>1.33</v>
+      </c>
+      <c r="AM167">
+        <v>1.37</v>
+      </c>
+      <c r="AN167">
+        <v>2.1</v>
+      </c>
+      <c r="AO167">
+        <v>1.1</v>
+      </c>
+      <c r="AP167">
+        <v>2</v>
+      </c>
+      <c r="AQ167">
+        <v>1.09</v>
+      </c>
+      <c r="AR167">
+        <v>1.24</v>
+      </c>
+      <c r="AS167">
+        <v>1.44</v>
+      </c>
+      <c r="AT167">
+        <v>2.68</v>
+      </c>
+      <c r="AU167">
+        <v>5</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>4</v>
+      </c>
+      <c r="AX167">
+        <v>3</v>
+      </c>
+      <c r="AY167">
+        <v>13</v>
+      </c>
+      <c r="AZ167">
+        <v>12</v>
+      </c>
+      <c r="BA167">
+        <v>4</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>9</v>
+      </c>
+      <c r="BD167">
+        <v>2.28</v>
+      </c>
+      <c r="BE167">
+        <v>6.4</v>
+      </c>
+      <c r="BF167">
+        <v>1.78</v>
+      </c>
+      <c r="BG167">
+        <v>1.34</v>
+      </c>
+      <c r="BH167">
+        <v>2.9</v>
+      </c>
+      <c r="BI167">
+        <v>1.58</v>
+      </c>
+      <c r="BJ167">
+        <v>2.16</v>
+      </c>
+      <c r="BK167">
+        <v>1.96</v>
+      </c>
+      <c r="BL167">
+        <v>1.72</v>
+      </c>
+      <c r="BM167">
+        <v>2.48</v>
+      </c>
+      <c r="BN167">
+        <v>1.45</v>
+      </c>
+      <c r="BO167">
+        <v>3.25</v>
+      </c>
+      <c r="BP167">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['21', '49', '83']</t>
   </si>
   <si>
+    <t>['42', '77']</t>
+  </si>
+  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -827,6 +830,9 @@
   </si>
   <si>
     <t>['45+1', '82']</t>
+  </si>
+  <si>
+    <t>['44', '76']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,7 +1453,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.25</v>
@@ -2143,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ5">
         <v>1.09</v>
@@ -2271,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.25</v>
@@ -2477,7 +2483,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.1</v>
@@ -2683,7 +2689,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -3173,10 +3179,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ10">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3301,7 +3307,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>5.5</v>
@@ -3382,7 +3388,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ11">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3507,7 +3513,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.25</v>
@@ -3713,7 +3719,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3.44</v>
@@ -3919,7 +3925,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -4125,7 +4131,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.88</v>
@@ -4331,7 +4337,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4743,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4949,7 +4955,7 @@
         <v>86</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5155,7 +5161,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5233,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5567,7 +5573,7 @@
         <v>86</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.1</v>
@@ -5648,7 +5654,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR22">
         <v>1.89</v>
@@ -5773,7 +5779,7 @@
         <v>86</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>2.35</v>
@@ -6057,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>1.55</v>
@@ -7215,7 +7221,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.77</v>
@@ -7421,7 +7427,7 @@
         <v>86</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>3.3</v>
@@ -7627,7 +7633,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.61</v>
@@ -7833,7 +7839,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>2.3</v>
@@ -8039,7 +8045,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>2.8</v>
@@ -8120,7 +8126,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR34">
         <v>1.21</v>
@@ -8245,7 +8251,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.25</v>
@@ -8323,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8451,7 +8457,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8657,7 +8663,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>2.95</v>
@@ -9275,7 +9281,7 @@
         <v>111</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3.3</v>
@@ -9353,7 +9359,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ40">
         <v>1.4</v>
@@ -9481,7 +9487,7 @@
         <v>99</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3.15</v>
@@ -9687,7 +9693,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>2.07</v>
@@ -10717,7 +10723,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>2.38</v>
@@ -11129,7 +11135,7 @@
         <v>117</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.65</v>
@@ -11207,7 +11213,7 @@
         <v>0.67</v>
       </c>
       <c r="AP49">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ49">
         <v>1.09</v>
@@ -11828,7 +11834,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR52">
         <v>1.69</v>
@@ -12034,7 +12040,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12159,7 +12165,7 @@
         <v>86</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>4.3</v>
@@ -12365,7 +12371,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3.6</v>
@@ -12443,7 +12449,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55">
         <v>0.91</v>
@@ -12777,7 +12783,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -13189,7 +13195,7 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.51</v>
@@ -13395,7 +13401,7 @@
         <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.3</v>
@@ -13807,7 +13813,7 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14300,7 +14306,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR64">
         <v>1.57</v>
@@ -14837,7 +14843,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>3.6</v>
@@ -15121,7 +15127,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ68">
         <v>1.45</v>
@@ -15249,7 +15255,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.91</v>
@@ -15330,7 +15336,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ69">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR69">
         <v>1.9</v>
@@ -15455,7 +15461,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>2.99</v>
@@ -15533,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ70">
         <v>0.7</v>
@@ -15661,7 +15667,7 @@
         <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.55</v>
@@ -15867,7 +15873,7 @@
         <v>134</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16485,7 +16491,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>2.05</v>
@@ -16691,7 +16697,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>2.75</v>
@@ -16897,7 +16903,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17181,7 +17187,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78">
         <v>0.5</v>
@@ -17309,7 +17315,7 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>4.68</v>
@@ -17721,7 +17727,7 @@
         <v>139</v>
       </c>
       <c r="P81" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>2.5</v>
@@ -17802,7 +17808,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR81">
         <v>1.21</v>
@@ -18005,7 +18011,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ82">
         <v>1.55</v>
@@ -18133,7 +18139,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q83">
         <v>1.95</v>
@@ -18751,7 +18757,7 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3.25</v>
@@ -18832,7 +18838,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR86">
         <v>1.56</v>
@@ -19241,7 +19247,7 @@
         <v>1.6</v>
       </c>
       <c r="AP88">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88">
         <v>1.3</v>
@@ -19575,7 +19581,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>4.5</v>
@@ -19781,7 +19787,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>1.95</v>
@@ -19987,7 +19993,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>3.6</v>
@@ -20193,7 +20199,7 @@
         <v>86</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q93">
         <v>3.34</v>
@@ -20605,7 +20611,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>1.73</v>
@@ -21716,7 +21722,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ100">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -21841,7 +21847,7 @@
         <v>86</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>4.5</v>
@@ -21922,7 +21928,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR101">
         <v>1.23</v>
@@ -22125,7 +22131,7 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ102">
         <v>1.18</v>
@@ -22459,7 +22465,7 @@
         <v>155</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.4</v>
@@ -22743,7 +22749,7 @@
         <v>0.71</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ105">
         <v>0.5</v>
@@ -23077,7 +23083,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -23283,7 +23289,7 @@
         <v>86</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -23695,7 +23701,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -23901,7 +23907,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3.65</v>
@@ -24107,7 +24113,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>5.5</v>
@@ -24313,7 +24319,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24725,7 +24731,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24803,7 +24809,7 @@
         <v>1.43</v>
       </c>
       <c r="AP115">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
         <v>1.18</v>
@@ -25137,7 +25143,7 @@
         <v>127</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.88</v>
@@ -25218,7 +25224,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ117">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR117">
         <v>1.93</v>
@@ -25424,7 +25430,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ118">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR118">
         <v>1.37</v>
@@ -25836,7 +25842,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ120">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -25961,7 +25967,7 @@
         <v>124</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.68</v>
@@ -26167,7 +26173,7 @@
         <v>165</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.72</v>
@@ -26245,7 +26251,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ122">
         <v>1.2</v>
@@ -26785,7 +26791,7 @@
         <v>86</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.3</v>
@@ -26991,7 +26997,7 @@
         <v>168</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>3.52</v>
@@ -27072,7 +27078,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27690,7 +27696,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR129">
         <v>1.77</v>
@@ -28021,7 +28027,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q131">
         <v>3.2</v>
@@ -28227,7 +28233,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q132">
         <v>4.33</v>
@@ -28433,7 +28439,7 @@
         <v>172</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>2.88</v>
@@ -29051,7 +29057,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29257,7 +29263,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>4.33</v>
@@ -29335,7 +29341,7 @@
         <v>1.13</v>
       </c>
       <c r="AP137">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ137">
         <v>1.45</v>
@@ -29875,7 +29881,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>3.5</v>
@@ -30287,7 +30293,7 @@
         <v>137</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30493,7 +30499,7 @@
         <v>86</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>3.15</v>
@@ -30699,7 +30705,7 @@
         <v>86</v>
       </c>
       <c r="P144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -30905,7 +30911,7 @@
         <v>175</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>4.75</v>
@@ -30986,7 +30992,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ145">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR145">
         <v>1.39</v>
@@ -31317,7 +31323,7 @@
         <v>86</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -31523,7 +31529,7 @@
         <v>179</v>
       </c>
       <c r="P148" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -31729,7 +31735,7 @@
         <v>180</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>2.75</v>
@@ -31807,7 +31813,7 @@
         <v>1.11</v>
       </c>
       <c r="AP149">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -31935,7 +31941,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -32013,7 +32019,7 @@
         <v>0.89</v>
       </c>
       <c r="AP150">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AQ150">
         <v>0.91</v>
@@ -32222,7 +32228,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ151">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR151">
         <v>2.01</v>
@@ -32553,7 +32559,7 @@
         <v>183</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q153">
         <v>3.6</v>
@@ -32759,7 +32765,7 @@
         <v>184</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q154">
         <v>3.25</v>
@@ -33377,7 +33383,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>2.5</v>
@@ -33583,7 +33589,7 @@
         <v>187</v>
       </c>
       <c r="P158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>2.63</v>
@@ -34076,7 +34082,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ160">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR160">
         <v>1.52</v>
@@ -34819,7 +34825,7 @@
         <v>86</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q164">
         <v>5</v>
@@ -34992,7 +34998,7 @@
         <v>69</v>
       </c>
       <c r="E165" s="2">
-        <v>45647.875</v>
+        <v>45648.3125</v>
       </c>
       <c r="F165">
         <v>21</v>
@@ -35231,7 +35237,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q166">
         <v>2.4</v>
@@ -35594,6 +35600,418 @@
       </c>
       <c r="BP167">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7487072</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45648.875</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>78</v>
+      </c>
+      <c r="H168" t="s">
+        <v>74</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>86</v>
+      </c>
+      <c r="P168" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q168">
+        <v>5.5</v>
+      </c>
+      <c r="R168">
+        <v>2.1</v>
+      </c>
+      <c r="S168">
+        <v>2.3</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>2.63</v>
+      </c>
+      <c r="V168">
+        <v>3.25</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>5</v>
+      </c>
+      <c r="AA168">
+        <v>3.55</v>
+      </c>
+      <c r="AB168">
+        <v>1.67</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>7.8</v>
+      </c>
+      <c r="AE168">
+        <v>1.36</v>
+      </c>
+      <c r="AF168">
+        <v>3</v>
+      </c>
+      <c r="AG168">
+        <v>2.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.7</v>
+      </c>
+      <c r="AI168">
+        <v>2.1</v>
+      </c>
+      <c r="AJ168">
+        <v>1.67</v>
+      </c>
+      <c r="AK168">
+        <v>1.83</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.19</v>
+      </c>
+      <c r="AN168">
+        <v>1.7</v>
+      </c>
+      <c r="AO168">
+        <v>1.6</v>
+      </c>
+      <c r="AP168">
+        <v>1.55</v>
+      </c>
+      <c r="AQ168">
+        <v>1.73</v>
+      </c>
+      <c r="AR168">
+        <v>1.46</v>
+      </c>
+      <c r="AS168">
+        <v>1.52</v>
+      </c>
+      <c r="AT168">
+        <v>2.98</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AV168">
+        <v>8</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>10</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>23</v>
+      </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>5</v>
+      </c>
+      <c r="BD168">
+        <v>2.9</v>
+      </c>
+      <c r="BE168">
+        <v>6.75</v>
+      </c>
+      <c r="BF168">
+        <v>1.5</v>
+      </c>
+      <c r="BG168">
+        <v>1.32</v>
+      </c>
+      <c r="BH168">
+        <v>3</v>
+      </c>
+      <c r="BI168">
+        <v>1.55</v>
+      </c>
+      <c r="BJ168">
+        <v>2.25</v>
+      </c>
+      <c r="BK168">
+        <v>1.9</v>
+      </c>
+      <c r="BL168">
+        <v>1.76</v>
+      </c>
+      <c r="BM168">
+        <v>2.4</v>
+      </c>
+      <c r="BN168">
+        <v>1.48</v>
+      </c>
+      <c r="BO168">
+        <v>3.1</v>
+      </c>
+      <c r="BP168">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7486659</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45649.5</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" t="s">
+        <v>76</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>192</v>
+      </c>
+      <c r="P169" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q169">
+        <v>2.88</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>4.33</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>2.25</v>
+      </c>
+      <c r="AA169">
+        <v>3</v>
+      </c>
+      <c r="AB169">
+        <v>3.3</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE169">
+        <v>1.39</v>
+      </c>
+      <c r="AF169">
+        <v>2.85</v>
+      </c>
+      <c r="AG169">
+        <v>2.25</v>
+      </c>
+      <c r="AH169">
+        <v>1.61</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.27</v>
+      </c>
+      <c r="AL169">
+        <v>1.31</v>
+      </c>
+      <c r="AM169">
+        <v>1.59</v>
+      </c>
+      <c r="AN169">
+        <v>1.2</v>
+      </c>
+      <c r="AO169">
+        <v>0.6</v>
+      </c>
+      <c r="AP169">
+        <v>1.36</v>
+      </c>
+      <c r="AQ169">
+        <v>0.55</v>
+      </c>
+      <c r="AR169">
+        <v>1.63</v>
+      </c>
+      <c r="AS169">
+        <v>1.14</v>
+      </c>
+      <c r="AT169">
+        <v>2.77</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>6</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>6</v>
+      </c>
+      <c r="AY169">
+        <v>15</v>
+      </c>
+      <c r="AZ169">
+        <v>14</v>
+      </c>
+      <c r="BA169">
+        <v>4</v>
+      </c>
+      <c r="BB169">
+        <v>2</v>
+      </c>
+      <c r="BC169">
+        <v>6</v>
+      </c>
+      <c r="BD169">
+        <v>1.81</v>
+      </c>
+      <c r="BE169">
+        <v>6.8</v>
+      </c>
+      <c r="BF169">
+        <v>2.46</v>
+      </c>
+      <c r="BG169">
+        <v>1.3</v>
+      </c>
+      <c r="BH169">
+        <v>2.97</v>
+      </c>
+      <c r="BI169">
+        <v>1.57</v>
+      </c>
+      <c r="BJ169">
+        <v>2.19</v>
+      </c>
+      <c r="BK169">
+        <v>2</v>
+      </c>
+      <c r="BL169">
+        <v>1.72</v>
+      </c>
+      <c r="BM169">
+        <v>2.64</v>
+      </c>
+      <c r="BN169">
+        <v>1.4</v>
+      </c>
+      <c r="BO169">
+        <v>3.58</v>
+      </c>
+      <c r="BP169">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Romania Liga I_20242025.xlsx
@@ -35607,7 +35607,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7487072</v>
+        <v>7486659</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35616,196 +35616,196 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45648.875</v>
+        <v>45649.5</v>
       </c>
       <c r="F168">
         <v>21</v>
       </c>
       <c r="G168" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H168" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>1</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N168">
         <v>2</v>
       </c>
       <c r="O168" t="s">
+        <v>192</v>
+      </c>
+      <c r="P168" t="s">
         <v>86</v>
       </c>
-      <c r="P168" t="s">
-        <v>272</v>
-      </c>
       <c r="Q168">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="R168">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="T168">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U168">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V168">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W168">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y168">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z168">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="AA168">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="AB168">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="AC168">
         <v>1.02</v>
       </c>
       <c r="AD168">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE168">
+        <v>1.39</v>
+      </c>
+      <c r="AF168">
+        <v>2.85</v>
+      </c>
+      <c r="AG168">
+        <v>2.25</v>
+      </c>
+      <c r="AH168">
+        <v>1.61</v>
+      </c>
+      <c r="AI168">
+        <v>1.91</v>
+      </c>
+      <c r="AJ168">
+        <v>1.8</v>
+      </c>
+      <c r="AK168">
+        <v>1.27</v>
+      </c>
+      <c r="AL168">
+        <v>1.31</v>
+      </c>
+      <c r="AM168">
+        <v>1.59</v>
+      </c>
+      <c r="AN168">
+        <v>1.2</v>
+      </c>
+      <c r="AO168">
+        <v>0.6</v>
+      </c>
+      <c r="AP168">
         <v>1.36</v>
       </c>
-      <c r="AF168">
-        <v>3</v>
-      </c>
-      <c r="AG168">
-        <v>2.1</v>
-      </c>
-      <c r="AH168">
-        <v>1.7</v>
-      </c>
-      <c r="AI168">
-        <v>2.1</v>
-      </c>
-      <c r="AJ168">
-        <v>1.67</v>
-      </c>
-      <c r="AK168">
-        <v>1.83</v>
-      </c>
-      <c r="AL168">
-        <v>1.25</v>
-      </c>
-      <c r="AM168">
-        <v>1.19</v>
-      </c>
-      <c r="AN168">
-        <v>1.7</v>
-      </c>
-      <c r="AO168">
-        <v>1.6</v>
-      </c>
-      <c r="AP168">
-        <v>1.55</v>
-      </c>
       <c r="AQ168">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="AR168">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AS168">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AT168">
-        <v>2.98</v>
+        <v>2.77</v>
       </c>
       <c r="AU168">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV168">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW168">
         <v>7</v>
       </c>
       <c r="AX168">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY168">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ168">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BA168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB168">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD168">
-        <v>2.9</v>
+        <v>1.81</v>
       </c>
       <c r="BE168">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="BF168">
-        <v>1.5</v>
+        <v>2.46</v>
       </c>
       <c r="BG168">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BH168">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="BI168">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="BJ168">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="BK168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BL168">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="BM168">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="BN168">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BO168">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="BP168">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35813,7 +35813,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7486659</v>
+        <v>7487072</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -35822,196 +35822,196 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45649.5</v>
+        <v>45649.625</v>
       </c>
       <c r="F169">
         <v>21</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H169" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N169">
         <v>2</v>
       </c>
       <c r="O169" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="Q169">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="R169">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S169">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="T169">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U169">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V169">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W169">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X169">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y169">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Z169">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="AA169">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="AB169">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="AC169">
         <v>1.02</v>
       </c>
       <c r="AD169">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AE169">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AF169">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="AG169">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AH169">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AI169">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ169">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK169">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="AL169">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AM169">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="AN169">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AO169">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AP169">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AQ169">
-        <v>0.55</v>
+        <v>1.73</v>
       </c>
       <c r="AR169">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AS169">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="AT169">
-        <v>2.77</v>
+        <v>2.98</v>
       </c>
       <c r="AU169">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV169">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW169">
         <v>7</v>
       </c>
       <c r="AX169">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY169">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AZ169">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
         <v>4</v>
       </c>
-      <c r="BB169">
-        <v>2</v>
-      </c>
       <c r="BC169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD169">
-        <v>1.81</v>
+        <v>2.9</v>
       </c>
       <c r="BE169">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="BF169">
-        <v>2.46</v>
+        <v>1.5</v>
       </c>
       <c r="BG169">
+        <v>1.32</v>
+      </c>
+      <c r="BH169">
+        <v>3</v>
+      </c>
+      <c r="BI169">
+        <v>1.55</v>
+      </c>
+      <c r="BJ169">
+        <v>2.25</v>
+      </c>
+      <c r="BK169">
+        <v>1.9</v>
+      </c>
+      <c r="BL169">
+        <v>1.76</v>
+      </c>
+      <c r="BM169">
+        <v>2.4</v>
+      </c>
+      <c r="BN169">
+        <v>1.48</v>
+      </c>
+      <c r="BO169">
+        <v>3.1</v>
+      </c>
+      <c r="BP169">
         <v>1.3</v>
-      </c>
-      <c r="BH169">
-        <v>2.97</v>
-      </c>
-      <c r="BI169">
-        <v>1.57</v>
-      </c>
-      <c r="BJ169">
-        <v>2.19</v>
-      </c>
-      <c r="BK169">
-        <v>2</v>
-      </c>
-      <c r="BL169">
-        <v>1.72</v>
-      </c>
-      <c r="BM169">
-        <v>2.64</v>
-      </c>
-      <c r="BN169">
-        <v>1.4</v>
-      </c>
-      <c r="BO169">
-        <v>3.58</v>
-      </c>
-      <c r="BP169">
-        <v>1.21</v>
       </c>
     </row>
   </sheetData>
